--- a/INTLINE/data/548/548_series.xlsx
+++ b/INTLINE/data/548/548_series.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\INTLINE\INTLINE\data\548\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAC145D-DD89-4BC3-ADDF-1D5208EC5D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAB239B-8BDD-4C48-8B7F-8759F4792BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B68BB0FD-AD3D-42A0-9C57-96D74DA36CEE}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1870" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2054" uniqueCount="838">
   <si>
     <t>Short Label</t>
   </si>
@@ -327,9 +327,6 @@
 Notes: Data Prior to Q1 2015 is Calculated by IHS Markit.</t>
   </si>
   <si>
-    <t>MYSQN0010.Q</t>
-  </si>
-  <si>
     <t>National Accounts, Real Changes in Inventories and Valuables (SNA2008) (2015), NSA - Malaysia</t>
   </si>
   <si>
@@ -555,9 +552,6 @@
 Notes: Data prior to Q1 2015 is calculated by IHS Markit.</t>
   </si>
   <si>
-    <t>MYSQN0030.Q</t>
-  </si>
-  <si>
     <t>National Accounts, Real Gross Value Added, Accommodation (SNA2008) (2015), NSA - Malaysia</t>
   </si>
   <si>
@@ -894,9 +888,6 @@
 Notes: Data prior to Q1 2010 refers to SNA1993 classification</t>
   </si>
   <si>
-    <t>MYSVN0010.Q</t>
-  </si>
-  <si>
     <t>National Accounts, Nominal Changes in Inventories and Valuables (SNA2008), NSA - Malaysia</t>
   </si>
   <si>
@@ -1039,9 +1030,6 @@
 www.statistics.gov.my</t>
   </si>
   <si>
-    <t>MYSVN0030.Q</t>
-  </si>
-  <si>
     <t>National Accounts, Nominal Gross Value Added, Water, Sewerage and Waste Management (SNA2008), NSA - Malaysia</t>
   </si>
   <si>
@@ -2262,15 +2250,6 @@
     <t>MYSVSI0017.M</t>
   </si>
   <si>
-    <t>Workbook</t>
-  </si>
-  <si>
-    <t>Created on Mon 9 May 2022, 2:58 AM EST (07:58 GMT)</t>
-  </si>
-  <si>
-    <t>© 2022 IHS Markit</t>
-  </si>
-  <si>
     <t>External Sector, Balance of Payments, Current Account, Goods, Net (BPM6) - Malaysia</t>
   </si>
   <si>
@@ -2990,9 +2969,6 @@
 Notes: Data prior to 2015 is calculated by IHS Markit.</t>
   </si>
   <si>
-    <t>MYSQN0040.A</t>
-  </si>
-  <si>
     <t>National Accounts, Real Gross Value Added, Finance (SNA2008) (2015) - Malaysia</t>
   </si>
   <si>
@@ -3481,9 +3457,6 @@
 Notes: Data prior to 2010 refers to SNA1993 classification</t>
   </si>
   <si>
-    <t>MYSVN0030.A</t>
-  </si>
-  <si>
     <t>National Accounts, Nominal Gross Value Added, Other Services (SNA2008) - Malaysia</t>
   </si>
   <si>
@@ -3692,6 +3665,183 @@
   <si>
     <t>MYSVN0010a.A</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gross Domestic Product by Kind of Economic Activity at Constant</t>
+  </si>
+  <si>
+    <t>GDP at Purchasers' ValueRM</t>
+  </si>
+  <si>
+    <t>GDP at Purchasers' ValueRM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AgricultureRM</t>
+  </si>
+  <si>
+    <t>AgricultureRM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mining and QuarryingRM</t>
+  </si>
+  <si>
+    <t>Mining and QuarryingRM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ManufacturingRM</t>
+  </si>
+  <si>
+    <t>ManufacturingRM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConstructionRM</t>
+  </si>
+  <si>
+    <t>ConstructionRM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ServicesRM</t>
+  </si>
+  <si>
+    <t>ServicesRM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Import DutiesRM</t>
+  </si>
+  <si>
+    <t>Import DutiesRM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transport and StorageRM</t>
+  </si>
+  <si>
+    <t>Transport and StorageRM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Infor &amp; CommunicationRM</t>
+  </si>
+  <si>
+    <t>Infor &amp; CommunicationRM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Government ServicesRM</t>
+  </si>
+  <si>
+    <t>Government ServicesRM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Other ServicesRM</t>
+  </si>
+  <si>
+    <t>Other ServicesRM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Electricity and GasRM</t>
+  </si>
+  <si>
+    <t>Electricity and GasRM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaterRM</t>
+  </si>
+  <si>
+    <t>WaterRM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Retail TradeRM</t>
+  </si>
+  <si>
+    <t>Retail TradeRM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccomodationRM</t>
+  </si>
+  <si>
+    <t>AccomodationRM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Food and BeverageRM</t>
+  </si>
+  <si>
+    <t>Food and BeverageRM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinanceRM</t>
+  </si>
+  <si>
+    <t>FinanceRM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuranceRM</t>
+  </si>
+  <si>
+    <t>InsuranceRM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bank Negara Malaysia (BNM)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wholesale TradeRM</t>
+  </si>
+  <si>
+    <t>Wholesale TradeRM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MYSQN0040a.A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MYSVN0030a.A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gross Domestic Product by Kind of Economic Activity at Current</t>
+  </si>
+  <si>
+    <t>Water, Sewerage and Waste ManagementRM</t>
+  </si>
+  <si>
+    <t>Water, Sewerage and Waste ManagementRM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MYSQN0010a.Q</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MYSQN0030a.Q</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MYSVN0010a.Q</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MYSVN0030a.Q</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gross National Income (GNI) by Expenditure Components in Constant</t>
   </si>
 </sst>
 </file>
@@ -3783,48 +3933,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="314325" cy="314325"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="圖片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D61D4F42-B4CA-4C20-A059-530FA75DE4D8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="14668500"/>
-          <a:ext cx="314325" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4124,14 +4232,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21907536-F8BB-4874-B78F-BC5B07C3E3E5}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A68" sqref="A68"/>
+      <selection pane="bottomRight" activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4186,22 +4293,22 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="B2" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="C2" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="E2" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H2" t="s">
         <v>45</v>
@@ -4210,30 +4317,30 @@
         <v>40</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="B3" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="C3" t="s">
         <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H3" t="s">
         <v>45</v>
@@ -4242,30 +4349,30 @@
         <v>40</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="B4" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="C4" t="s">
         <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H4" t="s">
         <v>45</v>
@@ -4274,7 +4381,7 @@
         <v>40</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>21</v>
@@ -4282,22 +4389,22 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="B5" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="C5" t="s">
         <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H5" t="s">
         <v>45</v>
@@ -4306,30 +4413,30 @@
         <v>40</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="B6" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="C6" t="s">
         <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H6" t="s">
         <v>45</v>
@@ -4338,30 +4445,30 @@
         <v>40</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B7" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="C7" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="E7" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H7" t="s">
         <v>45</v>
@@ -4370,30 +4477,30 @@
         <v>40</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="B8" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="C8" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="E8" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H8" t="s">
         <v>45</v>
@@ -4402,30 +4509,30 @@
         <v>40</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="B9" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="C9" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="E9" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H9" t="s">
         <v>45</v>
@@ -4434,30 +4541,30 @@
         <v>40</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="B10" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="C10" t="s">
         <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H10" t="s">
         <v>45</v>
@@ -4466,30 +4573,30 @@
         <v>40</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="B11" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="C11" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="E11" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H11" t="s">
         <v>45</v>
@@ -4498,30 +4605,30 @@
         <v>40</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="B12" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="C12" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="E12" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H12" t="s">
         <v>45</v>
@@ -4530,30 +4637,30 @@
         <v>40</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="B13" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="C13" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E13" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H13" t="s">
         <v>45</v>
@@ -4562,30 +4669,30 @@
         <v>40</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="B14" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="C14" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E14" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
       </c>
       <c r="G14" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H14" t="s">
         <v>45</v>
@@ -4594,30 +4701,30 @@
         <v>40</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="B15" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="C15" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="E15" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
       </c>
       <c r="G15" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H15" t="s">
         <v>45</v>
@@ -4626,30 +4733,30 @@
         <v>40</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="B16" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="C16" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="E16" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
       </c>
       <c r="G16" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H16" t="s">
         <v>45</v>
@@ -4658,30 +4765,30 @@
         <v>40</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="B17" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="C17" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="E17" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H17" t="s">
         <v>45</v>
@@ -4690,30 +4797,30 @@
         <v>40</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="B18" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="C18" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="E18" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
       </c>
       <c r="G18" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H18" t="s">
         <v>45</v>
@@ -4722,30 +4829,30 @@
         <v>40</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="B19" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="C19" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="E19" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
       </c>
       <c r="G19" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H19" t="s">
         <v>45</v>
@@ -4754,33 +4861,33 @@
         <v>40</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="B20" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H20" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="I20" t="s">
         <v>40</v>
@@ -4788,25 +4895,25 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="B21" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H21" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="I21" t="s">
         <v>40</v>
@@ -4814,25 +4921,25 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="B22" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H22" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="I22" t="s">
         <v>40</v>
@@ -4840,22 +4947,22 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="B23" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H23" t="s">
         <v>13</v>
@@ -4866,22 +4973,22 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="B24" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="C24" t="s">
         <v>42</v>
       </c>
       <c r="E24" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
       </c>
       <c r="G24" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H24" t="s">
         <v>45</v>
@@ -4889,25 +4996,31 @@
       <c r="I24" t="s">
         <v>40</v>
       </c>
+      <c r="J24" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="B25" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="C25" t="s">
         <v>47</v>
       </c>
       <c r="E25" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
       </c>
       <c r="G25" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H25" t="s">
         <v>45</v>
@@ -4915,25 +5028,31 @@
       <c r="I25" t="s">
         <v>40</v>
       </c>
+      <c r="J25" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>792</v>
+      </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="B26" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
       </c>
       <c r="G26" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H26" t="s">
         <v>45</v>
@@ -4941,25 +5060,31 @@
       <c r="I26" t="s">
         <v>40</v>
       </c>
+      <c r="J26" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>794</v>
+      </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="B27" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="C27" t="s">
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
       </c>
       <c r="G27" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H27" t="s">
         <v>45</v>
@@ -4967,25 +5092,31 @@
       <c r="I27" t="s">
         <v>40</v>
       </c>
+      <c r="J27" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>796</v>
+      </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="B28" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="C28" t="s">
         <v>57</v>
       </c>
       <c r="E28" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
       </c>
       <c r="G28" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H28" t="s">
         <v>45</v>
@@ -4993,25 +5124,31 @@
       <c r="I28" t="s">
         <v>40</v>
       </c>
+      <c r="J28" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>798</v>
+      </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="B29" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="C29" t="s">
         <v>61</v>
       </c>
       <c r="E29" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
       </c>
       <c r="G29" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H29" t="s">
         <v>45</v>
@@ -5019,25 +5156,31 @@
       <c r="I29" t="s">
         <v>40</v>
       </c>
+      <c r="J29" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>800</v>
+      </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="B30" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="C30" t="s">
         <v>65</v>
       </c>
       <c r="E30" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="F30" t="s">
         <v>9</v>
       </c>
       <c r="G30" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H30" t="s">
         <v>45</v>
@@ -5045,25 +5188,31 @@
       <c r="I30" t="s">
         <v>40</v>
       </c>
+      <c r="J30" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>802</v>
+      </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="B31" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="C31" t="s">
         <v>69</v>
       </c>
       <c r="E31" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="F31" t="s">
         <v>9</v>
       </c>
       <c r="G31" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H31" t="s">
         <v>45</v>
@@ -5071,25 +5220,28 @@
       <c r="I31" t="s">
         <v>40</v>
       </c>
+      <c r="J31" s="3" t="s">
+        <v>837</v>
+      </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="B32" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="C32" t="s">
         <v>73</v>
       </c>
       <c r="E32" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
       </c>
       <c r="G32" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H32" t="s">
         <v>45</v>
@@ -5097,25 +5249,28 @@
       <c r="I32" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="B33" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E33" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
       </c>
       <c r="G33" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H33" t="s">
         <v>45</v>
@@ -5123,25 +5278,28 @@
       <c r="I33" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="B34" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="C34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E34" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="F34" t="s">
         <v>9</v>
       </c>
       <c r="G34" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H34" t="s">
         <v>45</v>
@@ -5149,25 +5307,28 @@
       <c r="I34" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="B35" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="C35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E35" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="F35" t="s">
         <v>9</v>
       </c>
       <c r="G35" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H35" t="s">
         <v>45</v>
@@ -5175,25 +5336,28 @@
       <c r="I35" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="B36" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="C36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E36" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
       </c>
       <c r="G36" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H36" t="s">
         <v>45</v>
@@ -5201,675 +5365,762 @@
       <c r="I36" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" hidden="1">
+      <c r="J36" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
+        <v>603</v>
+      </c>
+      <c r="B37" t="s">
+        <v>601</v>
+      </c>
+      <c r="C37" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" t="s">
+        <v>602</v>
+      </c>
+      <c r="F37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" t="s">
+        <v>494</v>
+      </c>
+      <c r="H37" t="s">
+        <v>45</v>
+      </c>
+      <c r="I37" t="s">
+        <v>825</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>607</v>
+      </c>
+      <c r="B38" t="s">
+        <v>604</v>
+      </c>
+      <c r="C38" t="s">
+        <v>605</v>
+      </c>
+      <c r="E38" t="s">
+        <v>606</v>
+      </c>
+      <c r="F38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" t="s">
+        <v>494</v>
+      </c>
+      <c r="H38" t="s">
+        <v>45</v>
+      </c>
+      <c r="I38" t="s">
+        <v>95</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>611</v>
+      </c>
+      <c r="B39" t="s">
+        <v>608</v>
+      </c>
+      <c r="C39" t="s">
+        <v>609</v>
+      </c>
+      <c r="E39" t="s">
         <v>610</v>
       </c>
-      <c r="B37" t="s">
-        <v>608</v>
-      </c>
-      <c r="C37" t="s">
-        <v>93</v>
-      </c>
-      <c r="E37" t="s">
-        <v>609</v>
-      </c>
-      <c r="F37" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" t="s">
-        <v>501</v>
-      </c>
-      <c r="H37" t="s">
-        <v>45</v>
-      </c>
-      <c r="I37" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" hidden="1">
-      <c r="A38" t="s">
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" t="s">
+        <v>494</v>
+      </c>
+      <c r="H39" t="s">
+        <v>45</v>
+      </c>
+      <c r="I39" t="s">
+        <v>95</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
         <v>614</v>
       </c>
-      <c r="B38" t="s">
-        <v>611</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B40" t="s">
         <v>612</v>
       </c>
-      <c r="E38" t="s">
+      <c r="C40" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" t="s">
         <v>613</v>
       </c>
-      <c r="F38" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38" t="s">
-        <v>501</v>
-      </c>
-      <c r="H38" t="s">
-        <v>45</v>
-      </c>
-      <c r="I38" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" hidden="1">
-      <c r="A39" t="s">
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" t="s">
+        <v>494</v>
+      </c>
+      <c r="H40" t="s">
+        <v>45</v>
+      </c>
+      <c r="I40" t="s">
+        <v>95</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" t="s">
+        <v>617</v>
+      </c>
+      <c r="B41" t="s">
+        <v>615</v>
+      </c>
+      <c r="C41" t="s">
+        <v>97</v>
+      </c>
+      <c r="E41" t="s">
+        <v>616</v>
+      </c>
+      <c r="F41" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" t="s">
+        <v>494</v>
+      </c>
+      <c r="H41" t="s">
+        <v>45</v>
+      </c>
+      <c r="I41" t="s">
+        <v>95</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" t="s">
+        <v>620</v>
+      </c>
+      <c r="B42" t="s">
         <v>618</v>
       </c>
-      <c r="B39" t="s">
-        <v>615</v>
-      </c>
-      <c r="C39" t="s">
-        <v>616</v>
-      </c>
-      <c r="E39" t="s">
-        <v>617</v>
-      </c>
-      <c r="F39" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39" t="s">
-        <v>501</v>
-      </c>
-      <c r="H39" t="s">
-        <v>45</v>
-      </c>
-      <c r="I39" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" hidden="1">
-      <c r="A40" t="s">
+      <c r="C42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" t="s">
+        <v>619</v>
+      </c>
+      <c r="F42" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" t="s">
+        <v>494</v>
+      </c>
+      <c r="H42" t="s">
+        <v>45</v>
+      </c>
+      <c r="I42" t="s">
+        <v>95</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" t="s">
+        <v>623</v>
+      </c>
+      <c r="B43" t="s">
         <v>621</v>
       </c>
-      <c r="B40" t="s">
-        <v>619</v>
-      </c>
-      <c r="C40" t="s">
-        <v>98</v>
-      </c>
-      <c r="E40" t="s">
-        <v>620</v>
-      </c>
-      <c r="F40" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" t="s">
-        <v>501</v>
-      </c>
-      <c r="H40" t="s">
-        <v>45</v>
-      </c>
-      <c r="I40" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" hidden="1">
-      <c r="A41" t="s">
+      <c r="C43" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" t="s">
+        <v>622</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" t="s">
+        <v>494</v>
+      </c>
+      <c r="H43" t="s">
+        <v>45</v>
+      </c>
+      <c r="I43" t="s">
+        <v>95</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" t="s">
+        <v>626</v>
+      </c>
+      <c r="B44" t="s">
         <v>624</v>
       </c>
-      <c r="B41" t="s">
-        <v>622</v>
-      </c>
-      <c r="C41" t="s">
-        <v>98</v>
-      </c>
-      <c r="E41" t="s">
-        <v>623</v>
-      </c>
-      <c r="F41" t="s">
-        <v>9</v>
-      </c>
-      <c r="G41" t="s">
-        <v>501</v>
-      </c>
-      <c r="H41" t="s">
-        <v>45</v>
-      </c>
-      <c r="I41" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" hidden="1">
-      <c r="A42" t="s">
+      <c r="C44" t="s">
+        <v>112</v>
+      </c>
+      <c r="E44" t="s">
+        <v>625</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" t="s">
+        <v>494</v>
+      </c>
+      <c r="H44" t="s">
+        <v>45</v>
+      </c>
+      <c r="I44" t="s">
+        <v>95</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" t="s">
+        <v>629</v>
+      </c>
+      <c r="B45" t="s">
         <v>627</v>
       </c>
-      <c r="B42" t="s">
-        <v>625</v>
-      </c>
-      <c r="C42" t="s">
-        <v>105</v>
-      </c>
-      <c r="E42" t="s">
-        <v>626</v>
-      </c>
-      <c r="F42" t="s">
-        <v>9</v>
-      </c>
-      <c r="G42" t="s">
-        <v>501</v>
-      </c>
-      <c r="H42" t="s">
-        <v>45</v>
-      </c>
-      <c r="I42" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" hidden="1">
-      <c r="A43" t="s">
+      <c r="C45" t="s">
+        <v>112</v>
+      </c>
+      <c r="E45" t="s">
+        <v>628</v>
+      </c>
+      <c r="F45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" t="s">
+        <v>494</v>
+      </c>
+      <c r="H45" t="s">
+        <v>45</v>
+      </c>
+      <c r="I45" t="s">
+        <v>95</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" t="s">
+        <v>632</v>
+      </c>
+      <c r="B46" t="s">
         <v>630</v>
       </c>
-      <c r="B43" t="s">
-        <v>628</v>
-      </c>
-      <c r="C43" t="s">
-        <v>109</v>
-      </c>
-      <c r="E43" t="s">
-        <v>629</v>
-      </c>
-      <c r="F43" t="s">
-        <v>9</v>
-      </c>
-      <c r="G43" t="s">
-        <v>501</v>
-      </c>
-      <c r="H43" t="s">
-        <v>45</v>
-      </c>
-      <c r="I43" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" hidden="1">
-      <c r="A44" t="s">
+      <c r="C46" t="s">
+        <v>119</v>
+      </c>
+      <c r="E46" t="s">
+        <v>631</v>
+      </c>
+      <c r="F46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" t="s">
+        <v>494</v>
+      </c>
+      <c r="H46" t="s">
+        <v>45</v>
+      </c>
+      <c r="I46" t="s">
+        <v>95</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" t="s">
+        <v>635</v>
+      </c>
+      <c r="B47" t="s">
         <v>633</v>
       </c>
-      <c r="B44" t="s">
-        <v>631</v>
-      </c>
-      <c r="C44" t="s">
-        <v>113</v>
-      </c>
-      <c r="E44" t="s">
-        <v>632</v>
-      </c>
-      <c r="F44" t="s">
-        <v>9</v>
-      </c>
-      <c r="G44" t="s">
-        <v>501</v>
-      </c>
-      <c r="H44" t="s">
-        <v>45</v>
-      </c>
-      <c r="I44" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" hidden="1">
-      <c r="A45" t="s">
+      <c r="C47" t="s">
+        <v>119</v>
+      </c>
+      <c r="E47" t="s">
+        <v>634</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" t="s">
+        <v>494</v>
+      </c>
+      <c r="H47" t="s">
+        <v>45</v>
+      </c>
+      <c r="I47" t="s">
+        <v>95</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>638</v>
+      </c>
+      <c r="B48" t="s">
         <v>636</v>
       </c>
-      <c r="B45" t="s">
-        <v>634</v>
-      </c>
-      <c r="C45" t="s">
-        <v>113</v>
-      </c>
-      <c r="E45" t="s">
-        <v>635</v>
-      </c>
-      <c r="F45" t="s">
-        <v>9</v>
-      </c>
-      <c r="G45" t="s">
-        <v>501</v>
-      </c>
-      <c r="H45" t="s">
-        <v>45</v>
-      </c>
-      <c r="I45" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" hidden="1">
-      <c r="A46" t="s">
+      <c r="C48" t="s">
+        <v>125</v>
+      </c>
+      <c r="E48" t="s">
+        <v>637</v>
+      </c>
+      <c r="F48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" t="s">
+        <v>494</v>
+      </c>
+      <c r="H48" t="s">
+        <v>45</v>
+      </c>
+      <c r="I48" t="s">
+        <v>95</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" t="s">
+        <v>828</v>
+      </c>
+      <c r="B49" t="s">
         <v>639</v>
       </c>
-      <c r="B46" t="s">
-        <v>637</v>
-      </c>
-      <c r="C46" t="s">
-        <v>120</v>
-      </c>
-      <c r="E46" t="s">
-        <v>638</v>
-      </c>
-      <c r="F46" t="s">
-        <v>9</v>
-      </c>
-      <c r="G46" t="s">
-        <v>501</v>
-      </c>
-      <c r="H46" t="s">
-        <v>45</v>
-      </c>
-      <c r="I46" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" hidden="1">
-      <c r="A47" t="s">
+      <c r="C49" t="s">
+        <v>129</v>
+      </c>
+      <c r="E49" t="s">
+        <v>640</v>
+      </c>
+      <c r="F49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" t="s">
+        <v>494</v>
+      </c>
+      <c r="H49" t="s">
+        <v>45</v>
+      </c>
+      <c r="I49" t="s">
+        <v>95</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" t="s">
+        <v>643</v>
+      </c>
+      <c r="B50" t="s">
+        <v>641</v>
+      </c>
+      <c r="C50" t="s">
+        <v>133</v>
+      </c>
+      <c r="E50" t="s">
         <v>642</v>
       </c>
-      <c r="B47" t="s">
-        <v>640</v>
-      </c>
-      <c r="C47" t="s">
-        <v>120</v>
-      </c>
-      <c r="E47" t="s">
-        <v>641</v>
-      </c>
-      <c r="F47" t="s">
-        <v>9</v>
-      </c>
-      <c r="G47" t="s">
-        <v>501</v>
-      </c>
-      <c r="H47" t="s">
-        <v>45</v>
-      </c>
-      <c r="I47" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" hidden="1">
-      <c r="A48" t="s">
+      <c r="F50" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" t="s">
+        <v>494</v>
+      </c>
+      <c r="H50" t="s">
+        <v>45</v>
+      </c>
+      <c r="I50" t="s">
+        <v>95</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" t="s">
+        <v>646</v>
+      </c>
+      <c r="B51" t="s">
+        <v>644</v>
+      </c>
+      <c r="C51" t="s">
+        <v>133</v>
+      </c>
+      <c r="E51" t="s">
         <v>645</v>
       </c>
-      <c r="B48" t="s">
-        <v>643</v>
-      </c>
-      <c r="C48" t="s">
-        <v>127</v>
-      </c>
-      <c r="E48" t="s">
-        <v>644</v>
-      </c>
-      <c r="F48" t="s">
-        <v>9</v>
-      </c>
-      <c r="G48" t="s">
-        <v>501</v>
-      </c>
-      <c r="H48" t="s">
-        <v>45</v>
-      </c>
-      <c r="I48" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" hidden="1">
-      <c r="A49" t="s">
+      <c r="F51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" t="s">
+        <v>494</v>
+      </c>
+      <c r="H51" t="s">
+        <v>45</v>
+      </c>
+      <c r="I51" t="s">
+        <v>95</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" t="s">
+        <v>650</v>
+      </c>
+      <c r="B52" t="s">
+        <v>647</v>
+      </c>
+      <c r="C52" t="s">
         <v>648</v>
       </c>
-      <c r="B49" t="s">
-        <v>646</v>
-      </c>
-      <c r="C49" t="s">
-        <v>131</v>
-      </c>
-      <c r="E49" t="s">
-        <v>647</v>
-      </c>
-      <c r="F49" t="s">
-        <v>9</v>
-      </c>
-      <c r="G49" t="s">
-        <v>501</v>
-      </c>
-      <c r="H49" t="s">
-        <v>45</v>
-      </c>
-      <c r="I49" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" hidden="1">
-      <c r="A50" t="s">
-        <v>651</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="E52" t="s">
         <v>649</v>
-      </c>
-      <c r="C50" t="s">
-        <v>135</v>
-      </c>
-      <c r="E50" t="s">
-        <v>650</v>
-      </c>
-      <c r="F50" t="s">
-        <v>9</v>
-      </c>
-      <c r="G50" t="s">
-        <v>501</v>
-      </c>
-      <c r="H50" t="s">
-        <v>45</v>
-      </c>
-      <c r="I50" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" hidden="1">
-      <c r="A51" t="s">
-        <v>654</v>
-      </c>
-      <c r="B51" t="s">
-        <v>652</v>
-      </c>
-      <c r="C51" t="s">
-        <v>135</v>
-      </c>
-      <c r="E51" t="s">
-        <v>653</v>
-      </c>
-      <c r="F51" t="s">
-        <v>9</v>
-      </c>
-      <c r="G51" t="s">
-        <v>501</v>
-      </c>
-      <c r="H51" t="s">
-        <v>45</v>
-      </c>
-      <c r="I51" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" hidden="1">
-      <c r="A52" t="s">
-        <v>658</v>
-      </c>
-      <c r="B52" t="s">
-        <v>655</v>
-      </c>
-      <c r="C52" t="s">
-        <v>656</v>
-      </c>
-      <c r="E52" t="s">
-        <v>657</v>
       </c>
       <c r="F52" t="s">
         <v>11</v>
       </c>
       <c r="G52" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H52" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="I52" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" hidden="1">
+        <v>95</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="B53" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="C53" t="s">
         <v>16</v>
       </c>
       <c r="E53" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="F53" t="s">
         <v>9</v>
       </c>
       <c r="G53" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H53" t="s">
         <v>45</v>
       </c>
       <c r="I53" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" hidden="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="B54" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="C54" t="s">
         <v>16</v>
       </c>
       <c r="E54" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
       </c>
       <c r="G54" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H54" t="s">
         <v>45</v>
       </c>
       <c r="I54" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" hidden="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="B55" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="C55" t="s">
         <v>16</v>
       </c>
       <c r="E55" t="s">
+        <v>658</v>
+      </c>
+      <c r="F55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" t="s">
+        <v>494</v>
+      </c>
+      <c r="H55" t="s">
+        <v>45</v>
+      </c>
+      <c r="I55" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" t="s">
+        <v>662</v>
+      </c>
+      <c r="B56" t="s">
+        <v>660</v>
+      </c>
+      <c r="C56" t="s">
+        <v>417</v>
+      </c>
+      <c r="E56" t="s">
+        <v>661</v>
+      </c>
+      <c r="F56" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" t="s">
+        <v>494</v>
+      </c>
+      <c r="H56" t="s">
+        <v>45</v>
+      </c>
+      <c r="I56" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" t="s">
+        <v>665</v>
+      </c>
+      <c r="B57" t="s">
+        <v>663</v>
+      </c>
+      <c r="C57" t="s">
+        <v>421</v>
+      </c>
+      <c r="E57" t="s">
+        <v>664</v>
+      </c>
+      <c r="F57" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" t="s">
+        <v>494</v>
+      </c>
+      <c r="H57" t="s">
+        <v>45</v>
+      </c>
+      <c r="I57" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" t="s">
+        <v>668</v>
+      </c>
+      <c r="B58" t="s">
         <v>666</v>
-      </c>
-      <c r="F55" t="s">
-        <v>9</v>
-      </c>
-      <c r="G55" t="s">
-        <v>501</v>
-      </c>
-      <c r="H55" t="s">
-        <v>45</v>
-      </c>
-      <c r="I55" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" hidden="1">
-      <c r="A56" t="s">
-        <v>670</v>
-      </c>
-      <c r="B56" t="s">
-        <v>668</v>
-      </c>
-      <c r="C56" t="s">
-        <v>421</v>
-      </c>
-      <c r="E56" t="s">
-        <v>669</v>
-      </c>
-      <c r="F56" t="s">
-        <v>9</v>
-      </c>
-      <c r="G56" t="s">
-        <v>501</v>
-      </c>
-      <c r="H56" t="s">
-        <v>45</v>
-      </c>
-      <c r="I56" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" hidden="1">
-      <c r="A57" t="s">
-        <v>673</v>
-      </c>
-      <c r="B57" t="s">
-        <v>671</v>
-      </c>
-      <c r="C57" t="s">
-        <v>425</v>
-      </c>
-      <c r="E57" t="s">
-        <v>672</v>
-      </c>
-      <c r="F57" t="s">
-        <v>9</v>
-      </c>
-      <c r="G57" t="s">
-        <v>501</v>
-      </c>
-      <c r="H57" t="s">
-        <v>45</v>
-      </c>
-      <c r="I57" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" hidden="1">
-      <c r="A58" t="s">
-        <v>676</v>
-      </c>
-      <c r="B58" t="s">
-        <v>674</v>
       </c>
       <c r="C58" t="s">
         <v>10</v>
       </c>
       <c r="E58" t="s">
+        <v>667</v>
+      </c>
+      <c r="F58" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" t="s">
+        <v>494</v>
+      </c>
+      <c r="H58" t="s">
+        <v>45</v>
+      </c>
+      <c r="I58" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" t="s">
+        <v>671</v>
+      </c>
+      <c r="B59" t="s">
+        <v>669</v>
+      </c>
+      <c r="C59" t="s">
+        <v>164</v>
+      </c>
+      <c r="E59" t="s">
+        <v>670</v>
+      </c>
+      <c r="F59" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" t="s">
+        <v>494</v>
+      </c>
+      <c r="H59" t="s">
+        <v>45</v>
+      </c>
+      <c r="I59" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" t="s">
+        <v>674</v>
+      </c>
+      <c r="B60" t="s">
+        <v>672</v>
+      </c>
+      <c r="C60" t="s">
+        <v>168</v>
+      </c>
+      <c r="E60" t="s">
+        <v>673</v>
+      </c>
+      <c r="F60" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" t="s">
+        <v>494</v>
+      </c>
+      <c r="H60" t="s">
+        <v>45</v>
+      </c>
+      <c r="I60" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" t="s">
+        <v>677</v>
+      </c>
+      <c r="B61" t="s">
         <v>675</v>
-      </c>
-      <c r="F58" t="s">
-        <v>9</v>
-      </c>
-      <c r="G58" t="s">
-        <v>501</v>
-      </c>
-      <c r="H58" t="s">
-        <v>45</v>
-      </c>
-      <c r="I58" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" hidden="1">
-      <c r="A59" t="s">
-        <v>679</v>
-      </c>
-      <c r="B59" t="s">
-        <v>677</v>
-      </c>
-      <c r="C59" t="s">
-        <v>166</v>
-      </c>
-      <c r="E59" t="s">
-        <v>678</v>
-      </c>
-      <c r="F59" t="s">
-        <v>9</v>
-      </c>
-      <c r="G59" t="s">
-        <v>501</v>
-      </c>
-      <c r="H59" t="s">
-        <v>45</v>
-      </c>
-      <c r="I59" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" hidden="1">
-      <c r="A60" t="s">
-        <v>682</v>
-      </c>
-      <c r="B60" t="s">
-        <v>680</v>
-      </c>
-      <c r="C60" t="s">
-        <v>170</v>
-      </c>
-      <c r="E60" t="s">
-        <v>681</v>
-      </c>
-      <c r="F60" t="s">
-        <v>9</v>
-      </c>
-      <c r="G60" t="s">
-        <v>501</v>
-      </c>
-      <c r="H60" t="s">
-        <v>45</v>
-      </c>
-      <c r="I60" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" hidden="1">
-      <c r="A61" t="s">
-        <v>685</v>
-      </c>
-      <c r="B61" t="s">
-        <v>683</v>
       </c>
       <c r="C61" t="s">
         <v>16</v>
       </c>
       <c r="E61" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="F61" t="s">
         <v>9</v>
       </c>
       <c r="G61" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H61" t="s">
         <v>45</v>
       </c>
       <c r="I61" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="B62" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="C62" t="s">
         <v>42</v>
       </c>
       <c r="E62" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="F62" t="s">
         <v>9</v>
       </c>
       <c r="G62" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H62" t="s">
         <v>45</v>
@@ -5877,25 +6128,31 @@
       <c r="I62" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="J62" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="B63" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="C63" t="s">
         <v>47</v>
       </c>
       <c r="E63" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="F63" t="s">
         <v>9</v>
       </c>
       <c r="G63" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H63" t="s">
         <v>45</v>
@@ -5903,25 +6160,31 @@
       <c r="I63" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="J63" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="B64" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
       </c>
       <c r="E64" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="F64" t="s">
         <v>9</v>
       </c>
       <c r="G64" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H64" t="s">
         <v>45</v>
@@ -5929,25 +6192,31 @@
       <c r="I64" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="J64" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="B65" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="C65" t="s">
         <v>15</v>
       </c>
       <c r="E65" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="F65" t="s">
         <v>9</v>
       </c>
       <c r="G65" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H65" t="s">
         <v>45</v>
@@ -5955,25 +6224,31 @@
       <c r="I65" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="J65" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="B66" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="C66" t="s">
         <v>57</v>
       </c>
       <c r="E66" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="F66" t="s">
         <v>9</v>
       </c>
       <c r="G66" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H66" t="s">
         <v>45</v>
@@ -5981,25 +6256,31 @@
       <c r="I66" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="J66" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="B67" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="C67" t="s">
         <v>61</v>
       </c>
       <c r="E67" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="F67" t="s">
         <v>9</v>
       </c>
       <c r="G67" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H67" t="s">
         <v>45</v>
@@ -6007,25 +6288,31 @@
       <c r="I67" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="J67" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="B68" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="C68" t="s">
         <v>65</v>
       </c>
       <c r="E68" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="F68" t="s">
         <v>9</v>
       </c>
       <c r="G68" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H68" t="s">
         <v>45</v>
@@ -6033,25 +6320,31 @@
       <c r="I68" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="J68" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="B69" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="C69" t="s">
         <v>69</v>
       </c>
       <c r="E69" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="F69" t="s">
         <v>9</v>
       </c>
       <c r="G69" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H69" t="s">
         <v>45</v>
@@ -6059,25 +6352,28 @@
       <c r="I69" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="70" spans="1:9">
+      <c r="J69" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="B70" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="C70" t="s">
         <v>73</v>
       </c>
       <c r="E70" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="F70" t="s">
         <v>9</v>
       </c>
       <c r="G70" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H70" t="s">
         <v>45</v>
@@ -6085,25 +6381,28 @@
       <c r="I70" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="J70" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="B71" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="C71" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E71" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="F71" t="s">
         <v>9</v>
       </c>
       <c r="G71" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H71" t="s">
         <v>45</v>
@@ -6111,25 +6410,28 @@
       <c r="I71" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="J71" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="B72" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="C72" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E72" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="F72" t="s">
         <v>9</v>
       </c>
       <c r="G72" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H72" t="s">
         <v>45</v>
@@ -6137,25 +6439,28 @@
       <c r="I72" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="J72" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="B73" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="C73" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E73" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="F73" t="s">
         <v>9</v>
       </c>
       <c r="G73" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H73" t="s">
         <v>45</v>
@@ -6163,25 +6468,28 @@
       <c r="I73" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="74" spans="1:9">
+      <c r="J73" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="B74" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="C74" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E74" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="F74" t="s">
         <v>9</v>
       </c>
       <c r="G74" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H74" t="s">
         <v>45</v>
@@ -6189,457 +6497,541 @@
       <c r="I74" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" hidden="1">
+      <c r="J74" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" t="s">
+        <v>718</v>
+      </c>
+      <c r="B75" t="s">
+        <v>716</v>
+      </c>
+      <c r="C75" t="s">
+        <v>92</v>
+      </c>
+      <c r="E75" t="s">
+        <v>717</v>
+      </c>
+      <c r="F75" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75" t="s">
+        <v>494</v>
+      </c>
+      <c r="H75" t="s">
+        <v>45</v>
+      </c>
+      <c r="I75" t="s">
+        <v>95</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" t="s">
+        <v>722</v>
+      </c>
+      <c r="B76" t="s">
+        <v>719</v>
+      </c>
+      <c r="C76" t="s">
+        <v>720</v>
+      </c>
+      <c r="E76" t="s">
+        <v>721</v>
+      </c>
+      <c r="F76" t="s">
+        <v>9</v>
+      </c>
+      <c r="G76" t="s">
+        <v>494</v>
+      </c>
+      <c r="H76" t="s">
+        <v>45</v>
+      </c>
+      <c r="I76" t="s">
+        <v>95</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" t="s">
         <v>726</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B77" t="s">
+        <v>723</v>
+      </c>
+      <c r="C77" t="s">
         <v>724</v>
       </c>
-      <c r="C75" t="s">
-        <v>93</v>
-      </c>
-      <c r="E75" t="s">
+      <c r="E77" t="s">
         <v>725</v>
       </c>
-      <c r="F75" t="s">
-        <v>9</v>
-      </c>
-      <c r="G75" t="s">
-        <v>501</v>
-      </c>
-      <c r="H75" t="s">
-        <v>45</v>
-      </c>
-      <c r="I75" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" hidden="1">
-      <c r="A76" t="s">
+      <c r="F77" t="s">
+        <v>9</v>
+      </c>
+      <c r="G77" t="s">
+        <v>494</v>
+      </c>
+      <c r="H77" t="s">
+        <v>45</v>
+      </c>
+      <c r="I77" t="s">
+        <v>95</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" t="s">
+        <v>729</v>
+      </c>
+      <c r="B78" t="s">
+        <v>727</v>
+      </c>
+      <c r="C78" t="s">
+        <v>605</v>
+      </c>
+      <c r="E78" t="s">
+        <v>728</v>
+      </c>
+      <c r="F78" t="s">
+        <v>9</v>
+      </c>
+      <c r="G78" t="s">
+        <v>494</v>
+      </c>
+      <c r="H78" t="s">
+        <v>45</v>
+      </c>
+      <c r="I78" t="s">
+        <v>95</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" t="s">
+        <v>732</v>
+      </c>
+      <c r="B79" t="s">
         <v>730</v>
       </c>
-      <c r="B76" t="s">
-        <v>727</v>
-      </c>
-      <c r="C76" t="s">
-        <v>728</v>
-      </c>
-      <c r="E76" t="s">
-        <v>729</v>
-      </c>
-      <c r="F76" t="s">
-        <v>9</v>
-      </c>
-      <c r="G76" t="s">
-        <v>501</v>
-      </c>
-      <c r="H76" t="s">
-        <v>45</v>
-      </c>
-      <c r="I76" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" hidden="1">
-      <c r="A77" t="s">
+      <c r="C79" t="s">
+        <v>609</v>
+      </c>
+      <c r="E79" t="s">
+        <v>731</v>
+      </c>
+      <c r="F79" t="s">
+        <v>9</v>
+      </c>
+      <c r="G79" t="s">
+        <v>494</v>
+      </c>
+      <c r="H79" t="s">
+        <v>45</v>
+      </c>
+      <c r="I79" t="s">
+        <v>95</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" t="s">
+        <v>735</v>
+      </c>
+      <c r="B80" t="s">
+        <v>733</v>
+      </c>
+      <c r="C80" t="s">
+        <v>97</v>
+      </c>
+      <c r="E80" t="s">
         <v>734</v>
       </c>
-      <c r="B77" t="s">
-        <v>731</v>
-      </c>
-      <c r="C77" t="s">
-        <v>732</v>
-      </c>
-      <c r="E77" t="s">
-        <v>733</v>
-      </c>
-      <c r="F77" t="s">
-        <v>9</v>
-      </c>
-      <c r="G77" t="s">
-        <v>501</v>
-      </c>
-      <c r="H77" t="s">
-        <v>45</v>
-      </c>
-      <c r="I77" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" hidden="1">
-      <c r="A78" t="s">
+      <c r="F80" t="s">
+        <v>9</v>
+      </c>
+      <c r="G80" t="s">
+        <v>494</v>
+      </c>
+      <c r="H80" t="s">
+        <v>45</v>
+      </c>
+      <c r="I80" t="s">
+        <v>95</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" t="s">
+        <v>738</v>
+      </c>
+      <c r="B81" t="s">
+        <v>736</v>
+      </c>
+      <c r="C81" t="s">
+        <v>97</v>
+      </c>
+      <c r="E81" t="s">
         <v>737</v>
       </c>
-      <c r="B78" t="s">
-        <v>735</v>
-      </c>
-      <c r="C78" t="s">
-        <v>612</v>
-      </c>
-      <c r="E78" t="s">
-        <v>736</v>
-      </c>
-      <c r="F78" t="s">
-        <v>9</v>
-      </c>
-      <c r="G78" t="s">
-        <v>501</v>
-      </c>
-      <c r="H78" t="s">
-        <v>45</v>
-      </c>
-      <c r="I78" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" hidden="1">
-      <c r="A79" t="s">
+      <c r="F81" t="s">
+        <v>9</v>
+      </c>
+      <c r="G81" t="s">
+        <v>494</v>
+      </c>
+      <c r="H81" t="s">
+        <v>45</v>
+      </c>
+      <c r="I81" t="s">
+        <v>95</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" t="s">
+        <v>829</v>
+      </c>
+      <c r="B82" t="s">
+        <v>739</v>
+      </c>
+      <c r="C82" t="s">
+        <v>104</v>
+      </c>
+      <c r="E82" t="s">
         <v>740</v>
       </c>
-      <c r="B79" t="s">
-        <v>738</v>
-      </c>
-      <c r="C79" t="s">
-        <v>616</v>
-      </c>
-      <c r="E79" t="s">
-        <v>739</v>
-      </c>
-      <c r="F79" t="s">
-        <v>9</v>
-      </c>
-      <c r="G79" t="s">
-        <v>501</v>
-      </c>
-      <c r="H79" t="s">
-        <v>45</v>
-      </c>
-      <c r="I79" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" hidden="1">
-      <c r="A80" t="s">
+      <c r="F82" t="s">
+        <v>9</v>
+      </c>
+      <c r="G82" t="s">
+        <v>494</v>
+      </c>
+      <c r="H82" t="s">
+        <v>45</v>
+      </c>
+      <c r="I82" t="s">
+        <v>95</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" t="s">
         <v>743</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B83" t="s">
         <v>741</v>
       </c>
-      <c r="C80" t="s">
-        <v>98</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="C83" t="s">
+        <v>108</v>
+      </c>
+      <c r="E83" t="s">
         <v>742</v>
       </c>
-      <c r="F80" t="s">
-        <v>9</v>
-      </c>
-      <c r="G80" t="s">
-        <v>501</v>
-      </c>
-      <c r="H80" t="s">
-        <v>45</v>
-      </c>
-      <c r="I80" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" hidden="1">
-      <c r="A81" t="s">
+      <c r="F83" t="s">
+        <v>9</v>
+      </c>
+      <c r="G83" t="s">
+        <v>494</v>
+      </c>
+      <c r="H83" t="s">
+        <v>45</v>
+      </c>
+      <c r="I83" t="s">
+        <v>95</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" t="s">
         <v>746</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B84" t="s">
         <v>744</v>
       </c>
-      <c r="C81" t="s">
-        <v>98</v>
-      </c>
-      <c r="E81" t="s">
+      <c r="C84" t="s">
+        <v>112</v>
+      </c>
+      <c r="E84" t="s">
         <v>745</v>
       </c>
-      <c r="F81" t="s">
-        <v>9</v>
-      </c>
-      <c r="G81" t="s">
-        <v>501</v>
-      </c>
-      <c r="H81" t="s">
-        <v>45</v>
-      </c>
-      <c r="I81" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" hidden="1">
-      <c r="A82" t="s">
+      <c r="F84" t="s">
+        <v>9</v>
+      </c>
+      <c r="G84" t="s">
+        <v>494</v>
+      </c>
+      <c r="H84" t="s">
+        <v>45</v>
+      </c>
+      <c r="I84" t="s">
+        <v>95</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" t="s">
         <v>749</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B85" t="s">
         <v>747</v>
       </c>
-      <c r="C82" t="s">
-        <v>105</v>
-      </c>
-      <c r="E82" t="s">
+      <c r="C85" t="s">
+        <v>112</v>
+      </c>
+      <c r="E85" t="s">
         <v>748</v>
       </c>
-      <c r="F82" t="s">
-        <v>9</v>
-      </c>
-      <c r="G82" t="s">
-        <v>501</v>
-      </c>
-      <c r="H82" t="s">
-        <v>45</v>
-      </c>
-      <c r="I82" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" hidden="1">
-      <c r="A83" t="s">
+      <c r="F85" t="s">
+        <v>9</v>
+      </c>
+      <c r="G85" t="s">
+        <v>494</v>
+      </c>
+      <c r="H85" t="s">
+        <v>45</v>
+      </c>
+      <c r="I85" t="s">
+        <v>95</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" t="s">
         <v>752</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B86" t="s">
         <v>750</v>
       </c>
-      <c r="C83" t="s">
-        <v>109</v>
-      </c>
-      <c r="E83" t="s">
+      <c r="C86" t="s">
+        <v>119</v>
+      </c>
+      <c r="E86" t="s">
         <v>751</v>
       </c>
-      <c r="F83" t="s">
-        <v>9</v>
-      </c>
-      <c r="G83" t="s">
-        <v>501</v>
-      </c>
-      <c r="H83" t="s">
-        <v>45</v>
-      </c>
-      <c r="I83" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" hidden="1">
-      <c r="A84" t="s">
+      <c r="F86" t="s">
+        <v>9</v>
+      </c>
+      <c r="G86" t="s">
+        <v>494</v>
+      </c>
+      <c r="H86" t="s">
+        <v>45</v>
+      </c>
+      <c r="I86" t="s">
+        <v>95</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" t="s">
         <v>755</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B87" t="s">
         <v>753</v>
       </c>
-      <c r="C84" t="s">
-        <v>113</v>
-      </c>
-      <c r="E84" t="s">
+      <c r="C87" t="s">
+        <v>119</v>
+      </c>
+      <c r="E87" t="s">
         <v>754</v>
       </c>
-      <c r="F84" t="s">
-        <v>9</v>
-      </c>
-      <c r="G84" t="s">
-        <v>501</v>
-      </c>
-      <c r="H84" t="s">
-        <v>45</v>
-      </c>
-      <c r="I84" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" hidden="1">
-      <c r="A85" t="s">
+      <c r="F87" t="s">
+        <v>9</v>
+      </c>
+      <c r="G87" t="s">
+        <v>494</v>
+      </c>
+      <c r="H87" t="s">
+        <v>45</v>
+      </c>
+      <c r="I87" t="s">
+        <v>95</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" t="s">
         <v>758</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B88" t="s">
         <v>756</v>
       </c>
-      <c r="C85" t="s">
-        <v>113</v>
-      </c>
-      <c r="E85" t="s">
+      <c r="C88" t="s">
+        <v>125</v>
+      </c>
+      <c r="E88" t="s">
         <v>757</v>
       </c>
-      <c r="F85" t="s">
-        <v>9</v>
-      </c>
-      <c r="G85" t="s">
-        <v>501</v>
-      </c>
-      <c r="H85" t="s">
-        <v>45</v>
-      </c>
-      <c r="I85" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" hidden="1">
-      <c r="A86" t="s">
+      <c r="F88" t="s">
+        <v>9</v>
+      </c>
+      <c r="G88" t="s">
+        <v>494</v>
+      </c>
+      <c r="H88" t="s">
+        <v>45</v>
+      </c>
+      <c r="I88" t="s">
+        <v>95</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" t="s">
         <v>761</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B89" t="s">
         <v>759</v>
       </c>
-      <c r="C86" t="s">
-        <v>120</v>
-      </c>
-      <c r="E86" t="s">
+      <c r="C89" t="s">
+        <v>129</v>
+      </c>
+      <c r="E89" t="s">
         <v>760</v>
       </c>
-      <c r="F86" t="s">
-        <v>9</v>
-      </c>
-      <c r="G86" t="s">
-        <v>501</v>
-      </c>
-      <c r="H86" t="s">
-        <v>45</v>
-      </c>
-      <c r="I86" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" hidden="1">
-      <c r="A87" t="s">
+      <c r="F89" t="s">
+        <v>9</v>
+      </c>
+      <c r="G89" t="s">
+        <v>494</v>
+      </c>
+      <c r="H89" t="s">
+        <v>45</v>
+      </c>
+      <c r="I89" t="s">
+        <v>95</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" t="s">
         <v>764</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B90" t="s">
         <v>762</v>
       </c>
-      <c r="C87" t="s">
-        <v>120</v>
-      </c>
-      <c r="E87" t="s">
+      <c r="C90" t="s">
+        <v>133</v>
+      </c>
+      <c r="E90" t="s">
         <v>763</v>
       </c>
-      <c r="F87" t="s">
-        <v>9</v>
-      </c>
-      <c r="G87" t="s">
-        <v>501</v>
-      </c>
-      <c r="H87" t="s">
-        <v>45</v>
-      </c>
-      <c r="I87" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" hidden="1">
-      <c r="A88" t="s">
+      <c r="F90" t="s">
+        <v>9</v>
+      </c>
+      <c r="G90" t="s">
+        <v>494</v>
+      </c>
+      <c r="H90" t="s">
+        <v>45</v>
+      </c>
+      <c r="I90" t="s">
+        <v>95</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" t="s">
         <v>767</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B91" t="s">
         <v>765</v>
       </c>
-      <c r="C88" t="s">
-        <v>127</v>
-      </c>
-      <c r="E88" t="s">
+      <c r="C91" t="s">
+        <v>133</v>
+      </c>
+      <c r="E91" t="s">
         <v>766</v>
       </c>
-      <c r="F88" t="s">
-        <v>9</v>
-      </c>
-      <c r="G88" t="s">
-        <v>501</v>
-      </c>
-      <c r="H88" t="s">
-        <v>45</v>
-      </c>
-      <c r="I88" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" hidden="1">
-      <c r="A89" t="s">
-        <v>770</v>
-      </c>
-      <c r="B89" t="s">
-        <v>768</v>
-      </c>
-      <c r="C89" t="s">
-        <v>131</v>
-      </c>
-      <c r="E89" t="s">
-        <v>769</v>
-      </c>
-      <c r="F89" t="s">
-        <v>9</v>
-      </c>
-      <c r="G89" t="s">
-        <v>501</v>
-      </c>
-      <c r="H89" t="s">
-        <v>45</v>
-      </c>
-      <c r="I89" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" hidden="1">
-      <c r="A90" t="s">
-        <v>773</v>
-      </c>
-      <c r="B90" t="s">
-        <v>771</v>
-      </c>
-      <c r="C90" t="s">
-        <v>135</v>
-      </c>
-      <c r="E90" t="s">
-        <v>772</v>
-      </c>
-      <c r="F90" t="s">
-        <v>9</v>
-      </c>
-      <c r="G90" t="s">
-        <v>501</v>
-      </c>
-      <c r="H90" t="s">
-        <v>45</v>
-      </c>
-      <c r="I90" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" hidden="1">
-      <c r="A91" t="s">
-        <v>776</v>
-      </c>
-      <c r="B91" t="s">
-        <v>774</v>
-      </c>
-      <c r="C91" t="s">
-        <v>135</v>
-      </c>
-      <c r="E91" t="s">
-        <v>775</v>
-      </c>
       <c r="F91" t="s">
         <v>9</v>
       </c>
       <c r="G91" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H91" t="s">
         <v>45</v>
       </c>
       <c r="I91" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>823</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K91" xr:uid="{21907536-F8BB-4874-B78F-BC5B07C3E3E5}">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="Department of Statistics, Malaysia"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K91" xr:uid="{21907536-F8BB-4874-B78F-BC5B07C3E3E5}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6654,7 +7046,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomRight" activeCell="J45" sqref="J45:J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6757,6 +7149,12 @@
       <c r="I3" t="s">
         <v>40</v>
       </c>
+      <c r="J3" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
@@ -6783,6 +7181,12 @@
       <c r="I4" t="s">
         <v>40</v>
       </c>
+      <c r="J4" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>791</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
@@ -6809,6 +7213,12 @@
       <c r="I5" t="s">
         <v>40</v>
       </c>
+      <c r="J5" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>793</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
@@ -6835,6 +7245,12 @@
       <c r="I6" t="s">
         <v>40</v>
       </c>
+      <c r="J6" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
@@ -6861,6 +7277,12 @@
       <c r="I7" t="s">
         <v>40</v>
       </c>
+      <c r="J7" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>797</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
@@ -6887,6 +7309,12 @@
       <c r="I8" t="s">
         <v>40</v>
       </c>
+      <c r="J8" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>799</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
@@ -6913,6 +7341,12 @@
       <c r="I9" t="s">
         <v>40</v>
       </c>
+      <c r="J9" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>801</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
@@ -6939,10 +7373,13 @@
       <c r="I10" t="s">
         <v>40</v>
       </c>
+      <c r="J10" s="3" t="s">
+        <v>837</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>833</v>
       </c>
       <c r="B11" t="s">
         <v>72</v>
@@ -6965,19 +7402,22 @@
       <c r="I11" t="s">
         <v>40</v>
       </c>
+      <c r="J11" s="3" t="s">
+        <v>837</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" t="s">
         <v>76</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>77</v>
-      </c>
-      <c r="E12" t="s">
-        <v>78</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
@@ -6991,19 +7431,22 @@
       <c r="I12" t="s">
         <v>40</v>
       </c>
+      <c r="J12" s="3" t="s">
+        <v>837</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" t="s">
         <v>80</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>81</v>
-      </c>
-      <c r="E13" t="s">
-        <v>82</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
@@ -7017,19 +7460,22 @@
       <c r="I13" t="s">
         <v>40</v>
       </c>
+      <c r="J13" s="3" t="s">
+        <v>837</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
         <v>84</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>85</v>
-      </c>
-      <c r="E14" t="s">
-        <v>86</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
@@ -7043,19 +7489,22 @@
       <c r="I14" t="s">
         <v>40</v>
       </c>
+      <c r="J14" s="3" t="s">
+        <v>837</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" t="s">
         <v>88</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>89</v>
-      </c>
-      <c r="E15" t="s">
-        <v>90</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
@@ -7069,591 +7518,669 @@
       <c r="I15" t="s">
         <v>40</v>
       </c>
+      <c r="J15" s="3" t="s">
+        <v>837</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" t="s">
         <v>95</v>
       </c>
-      <c r="B16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" t="s">
-        <v>94</v>
-      </c>
-      <c r="F16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="J16" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
+      <c r="C17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" t="s">
+        <v>95</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" t="s">
         <v>100</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C18" t="s">
         <v>97</v>
       </c>
-      <c r="C17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17" t="s">
-        <v>99</v>
-      </c>
-      <c r="F17" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
+      <c r="E18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" t="s">
+        <v>95</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" t="s">
         <v>103</v>
       </c>
-      <c r="B18" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18" t="s">
-        <v>102</v>
-      </c>
-      <c r="F18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" t="s">
-        <v>45</v>
-      </c>
-      <c r="I18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
+      <c r="C19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" t="s">
+        <v>95</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" t="s">
         <v>107</v>
       </c>
-      <c r="B19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19" t="s">
-        <v>105</v>
-      </c>
-      <c r="E19" t="s">
-        <v>106</v>
-      </c>
-      <c r="F19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" t="s">
-        <v>45</v>
-      </c>
-      <c r="I19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
+      <c r="C20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" t="s">
+        <v>95</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" t="s">
         <v>111</v>
       </c>
-      <c r="B20" t="s">
-        <v>108</v>
-      </c>
-      <c r="C20" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" t="s">
-        <v>110</v>
-      </c>
-      <c r="F20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" t="s">
-        <v>45</v>
-      </c>
-      <c r="I20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
+      <c r="C21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21" t="s">
+        <v>95</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" t="s">
         <v>115</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C22" t="s">
         <v>112</v>
       </c>
-      <c r="C21" t="s">
-        <v>113</v>
-      </c>
-      <c r="E21" t="s">
-        <v>114</v>
-      </c>
-      <c r="F21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" t="s">
-        <v>45</v>
-      </c>
-      <c r="I21" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" t="s">
+      <c r="E22" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" t="s">
+        <v>95</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" t="s">
         <v>118</v>
       </c>
-      <c r="B22" t="s">
-        <v>116</v>
-      </c>
-      <c r="C22" t="s">
-        <v>113</v>
-      </c>
-      <c r="E22" t="s">
-        <v>117</v>
-      </c>
-      <c r="F22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" t="s">
-        <v>45</v>
-      </c>
-      <c r="I22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" t="s">
+      <c r="C23" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" t="s">
+        <v>120</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" t="s">
+        <v>95</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>834</v>
+      </c>
+      <c r="B24" t="s">
         <v>122</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C24" t="s">
         <v>119</v>
       </c>
-      <c r="C23" t="s">
-        <v>120</v>
-      </c>
-      <c r="E23" t="s">
-        <v>121</v>
-      </c>
-      <c r="F23" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" t="s">
-        <v>45</v>
-      </c>
-      <c r="I23" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" t="s">
+      <c r="E24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" t="s">
+        <v>45</v>
+      </c>
+      <c r="I24" t="s">
+        <v>95</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" t="s">
         <v>125</v>
       </c>
-      <c r="B24" t="s">
-        <v>123</v>
-      </c>
-      <c r="C24" t="s">
-        <v>120</v>
-      </c>
-      <c r="E24" t="s">
-        <v>124</v>
-      </c>
-      <c r="F24" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" t="s">
-        <v>45</v>
-      </c>
-      <c r="I24" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" t="s">
+      <c r="E25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" t="s">
+        <v>95</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" t="s">
         <v>129</v>
       </c>
-      <c r="B25" t="s">
-        <v>126</v>
-      </c>
-      <c r="C25" t="s">
-        <v>127</v>
-      </c>
-      <c r="E25" t="s">
-        <v>128</v>
-      </c>
-      <c r="F25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" t="s">
-        <v>45</v>
-      </c>
-      <c r="I25" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" t="s">
+      <c r="E26" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26" t="s">
+        <v>95</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" t="s">
         <v>133</v>
       </c>
-      <c r="B26" t="s">
-        <v>130</v>
-      </c>
-      <c r="C26" t="s">
-        <v>131</v>
-      </c>
-      <c r="E26" t="s">
-        <v>132</v>
-      </c>
-      <c r="F26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" t="s">
-        <v>45</v>
-      </c>
-      <c r="I26" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" t="s">
+      <c r="E27" t="s">
+        <v>134</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" t="s">
+        <v>45</v>
+      </c>
+      <c r="I27" t="s">
+        <v>95</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E28" t="s">
         <v>137</v>
       </c>
-      <c r="B27" t="s">
-        <v>134</v>
-      </c>
-      <c r="C27" t="s">
-        <v>135</v>
-      </c>
-      <c r="E27" t="s">
-        <v>136</v>
-      </c>
-      <c r="F27" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" t="s">
-        <v>45</v>
-      </c>
-      <c r="I27" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" t="s">
-        <v>140</v>
-      </c>
-      <c r="B28" t="s">
-        <v>138</v>
-      </c>
-      <c r="C28" t="s">
-        <v>135</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" t="s">
+        <v>45</v>
+      </c>
+      <c r="I28" t="s">
+        <v>95</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>141</v>
+      </c>
+      <c r="B29" t="s">
         <v>139</v>
-      </c>
-      <c r="F28" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" t="s">
-        <v>45</v>
-      </c>
-      <c r="I28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" t="s">
-        <v>143</v>
-      </c>
-      <c r="B29" t="s">
-        <v>141</v>
       </c>
       <c r="C29" t="s">
         <v>16</v>
       </c>
       <c r="E29" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" t="s">
+        <v>45</v>
+      </c>
+      <c r="I29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>144</v>
+      </c>
+      <c r="B30" t="s">
         <v>142</v>
-      </c>
-      <c r="F29" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" t="s">
-        <v>45</v>
-      </c>
-      <c r="I29" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" t="s">
-        <v>146</v>
-      </c>
-      <c r="B30" t="s">
-        <v>144</v>
       </c>
       <c r="C30" t="s">
         <v>16</v>
       </c>
       <c r="E30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" t="s">
+        <v>45</v>
+      </c>
+      <c r="I30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31" t="s">
         <v>145</v>
-      </c>
-      <c r="F30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" t="s">
-        <v>45</v>
-      </c>
-      <c r="I30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" t="s">
-        <v>149</v>
-      </c>
-      <c r="B31" t="s">
-        <v>147</v>
       </c>
       <c r="C31" t="s">
         <v>16</v>
       </c>
       <c r="E31" t="s">
+        <v>146</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" t="s">
+        <v>45</v>
+      </c>
+      <c r="I31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>151</v>
+      </c>
+      <c r="B32" t="s">
         <v>148</v>
       </c>
-      <c r="F31" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" t="s">
-        <v>45</v>
-      </c>
-      <c r="I31" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" t="s">
+      <c r="C32" t="s">
+        <v>149</v>
+      </c>
+      <c r="E32" t="s">
+        <v>150</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" t="s">
+        <v>45</v>
+      </c>
+      <c r="I32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
+        <v>155</v>
+      </c>
+      <c r="B33" t="s">
+        <v>152</v>
+      </c>
+      <c r="C33" t="s">
         <v>153</v>
       </c>
-      <c r="B32" t="s">
-        <v>150</v>
-      </c>
-      <c r="C32" t="s">
-        <v>151</v>
-      </c>
-      <c r="E32" t="s">
-        <v>152</v>
-      </c>
-      <c r="F32" t="s">
-        <v>9</v>
-      </c>
-      <c r="G32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" t="s">
-        <v>45</v>
-      </c>
-      <c r="I32" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" t="s">
+      <c r="E33" t="s">
+        <v>154</v>
+      </c>
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" t="s">
+        <v>45</v>
+      </c>
+      <c r="I33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>159</v>
+      </c>
+      <c r="B34" t="s">
+        <v>156</v>
+      </c>
+      <c r="C34" t="s">
         <v>157</v>
       </c>
-      <c r="B33" t="s">
-        <v>154</v>
-      </c>
-      <c r="C33" t="s">
-        <v>155</v>
-      </c>
-      <c r="E33" t="s">
-        <v>156</v>
-      </c>
-      <c r="F33" t="s">
-        <v>9</v>
-      </c>
-      <c r="G33" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" t="s">
-        <v>45</v>
-      </c>
-      <c r="I33" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" t="s">
-        <v>161</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="E34" t="s">
         <v>158</v>
       </c>
-      <c r="C34" t="s">
-        <v>159</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" t="s">
+        <v>45</v>
+      </c>
+      <c r="I34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
+        <v>162</v>
+      </c>
+      <c r="B35" t="s">
         <v>160</v>
-      </c>
-      <c r="F34" t="s">
-        <v>9</v>
-      </c>
-      <c r="G34" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" t="s">
-        <v>45</v>
-      </c>
-      <c r="I34" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" t="s">
-        <v>164</v>
-      </c>
-      <c r="B35" t="s">
-        <v>162</v>
       </c>
       <c r="C35" t="s">
         <v>10</v>
       </c>
       <c r="E35" t="s">
+        <v>161</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" t="s">
+        <v>45</v>
+      </c>
+      <c r="I35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>166</v>
+      </c>
+      <c r="B36" t="s">
         <v>163</v>
       </c>
-      <c r="F35" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" t="s">
-        <v>45</v>
-      </c>
-      <c r="I35" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" t="s">
+      <c r="C36" t="s">
+        <v>164</v>
+      </c>
+      <c r="E36" t="s">
+        <v>165</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" t="s">
+        <v>45</v>
+      </c>
+      <c r="I36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>170</v>
+      </c>
+      <c r="B37" t="s">
+        <v>167</v>
+      </c>
+      <c r="C37" t="s">
         <v>168</v>
       </c>
-      <c r="B36" t="s">
-        <v>165</v>
-      </c>
-      <c r="C36" t="s">
-        <v>166</v>
-      </c>
-      <c r="E36" t="s">
-        <v>167</v>
-      </c>
-      <c r="F36" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" t="s">
-        <v>45</v>
-      </c>
-      <c r="I36" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" t="s">
-        <v>172</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="E37" t="s">
         <v>169</v>
       </c>
-      <c r="C37" t="s">
-        <v>170</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" t="s">
+        <v>45</v>
+      </c>
+      <c r="I37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>173</v>
+      </c>
+      <c r="B38" t="s">
         <v>171</v>
-      </c>
-      <c r="F37" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" t="s">
-        <v>45</v>
-      </c>
-      <c r="I37" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" t="s">
-        <v>175</v>
-      </c>
-      <c r="B38" t="s">
-        <v>173</v>
       </c>
       <c r="C38" t="s">
         <v>42</v>
       </c>
       <c r="E38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F38" t="s">
         <v>9</v>
@@ -7667,19 +8194,25 @@
       <c r="I38" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B39" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C39" t="s">
         <v>47</v>
       </c>
       <c r="E39" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F39" t="s">
         <v>9</v>
@@ -7693,19 +8226,25 @@
       <c r="I39" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="J39" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B40" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C40" t="s">
         <v>14</v>
       </c>
       <c r="E40" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F40" t="s">
         <v>9</v>
@@ -7719,19 +8258,25 @@
       <c r="I40" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="J40" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B41" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C41" t="s">
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -7745,19 +8290,25 @@
       <c r="I41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="J41" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B42" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C42" t="s">
         <v>57</v>
       </c>
       <c r="E42" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F42" t="s">
         <v>9</v>
@@ -7771,19 +8322,25 @@
       <c r="I42" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B43" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C43" t="s">
         <v>61</v>
       </c>
       <c r="E43" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F43" t="s">
         <v>9</v>
@@ -7797,19 +8354,25 @@
       <c r="I43" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="J43" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B44" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C44" t="s">
         <v>65</v>
       </c>
       <c r="E44" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F44" t="s">
         <v>9</v>
@@ -7823,19 +8386,25 @@
       <c r="I44" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="J44" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B45" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C45" t="s">
         <v>69</v>
       </c>
       <c r="E45" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F45" t="s">
         <v>9</v>
@@ -7849,19 +8418,22 @@
       <c r="I45" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>199</v>
+        <v>835</v>
       </c>
       <c r="B46" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C46" t="s">
         <v>73</v>
       </c>
       <c r="E46" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F46" t="s">
         <v>9</v>
@@ -7875,19 +8447,22 @@
       <c r="I46" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="J46" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B47" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E47" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F47" t="s">
         <v>9</v>
@@ -7901,19 +8476,22 @@
       <c r="I47" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="J47" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B48" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E48" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
@@ -7927,19 +8505,22 @@
       <c r="I48" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="J48" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B49" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E49" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
@@ -7953,19 +8534,22 @@
       <c r="I49" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="J49" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B50" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E50" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F50" t="s">
         <v>9</v>
@@ -7979,332 +8563,404 @@
       <c r="I50" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="J50" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
+        <v>211</v>
+      </c>
+      <c r="B51" t="s">
+        <v>209</v>
+      </c>
+      <c r="C51" t="s">
+        <v>92</v>
+      </c>
+      <c r="E51" t="s">
+        <v>210</v>
+      </c>
+      <c r="F51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" t="s">
+        <v>45</v>
+      </c>
+      <c r="I51" t="s">
+        <v>95</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" t="s">
         <v>214</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>212</v>
       </c>
-      <c r="C51" t="s">
-        <v>93</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="C52" t="s">
+        <v>97</v>
+      </c>
+      <c r="E52" t="s">
         <v>213</v>
       </c>
-      <c r="F51" t="s">
-        <v>9</v>
-      </c>
-      <c r="G51" t="s">
-        <v>17</v>
-      </c>
-      <c r="H51" t="s">
-        <v>45</v>
-      </c>
-      <c r="I51" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" t="s">
+      <c r="F52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" t="s">
+        <v>45</v>
+      </c>
+      <c r="I52" t="s">
+        <v>95</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" t="s">
         <v>217</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>215</v>
       </c>
-      <c r="C52" t="s">
-        <v>98</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="C53" t="s">
+        <v>97</v>
+      </c>
+      <c r="E53" t="s">
         <v>216</v>
       </c>
-      <c r="F52" t="s">
-        <v>9</v>
-      </c>
-      <c r="G52" t="s">
-        <v>17</v>
-      </c>
-      <c r="H52" t="s">
-        <v>45</v>
-      </c>
-      <c r="I52" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" t="s">
+      <c r="F53" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" t="s">
+        <v>45</v>
+      </c>
+      <c r="I53" t="s">
+        <v>95</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" t="s">
         <v>220</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>218</v>
       </c>
-      <c r="C53" t="s">
-        <v>98</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="C54" t="s">
+        <v>104</v>
+      </c>
+      <c r="E54" t="s">
         <v>219</v>
       </c>
-      <c r="F53" t="s">
-        <v>9</v>
-      </c>
-      <c r="G53" t="s">
-        <v>17</v>
-      </c>
-      <c r="H53" t="s">
-        <v>45</v>
-      </c>
-      <c r="I53" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" t="s">
+      <c r="F54" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" t="s">
+        <v>45</v>
+      </c>
+      <c r="I54" t="s">
+        <v>95</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" t="s">
         <v>223</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>221</v>
       </c>
-      <c r="C54" t="s">
-        <v>105</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="C55" t="s">
+        <v>108</v>
+      </c>
+      <c r="E55" t="s">
         <v>222</v>
       </c>
-      <c r="F54" t="s">
-        <v>9</v>
-      </c>
-      <c r="G54" t="s">
-        <v>17</v>
-      </c>
-      <c r="H54" t="s">
-        <v>45</v>
-      </c>
-      <c r="I54" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" t="s">
+      <c r="F55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" t="s">
+        <v>45</v>
+      </c>
+      <c r="I55" t="s">
+        <v>95</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" t="s">
+        <v>836</v>
+      </c>
+      <c r="B56" t="s">
+        <v>224</v>
+      </c>
+      <c r="C56" t="s">
+        <v>112</v>
+      </c>
+      <c r="E56" t="s">
+        <v>225</v>
+      </c>
+      <c r="F56" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" t="s">
+        <v>45</v>
+      </c>
+      <c r="I56" t="s">
+        <v>95</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" t="s">
+        <v>228</v>
+      </c>
+      <c r="B57" t="s">
         <v>226</v>
       </c>
-      <c r="B55" t="s">
-        <v>224</v>
-      </c>
-      <c r="C55" t="s">
-        <v>109</v>
-      </c>
-      <c r="E55" t="s">
-        <v>225</v>
-      </c>
-      <c r="F55" t="s">
-        <v>9</v>
-      </c>
-      <c r="G55" t="s">
-        <v>17</v>
-      </c>
-      <c r="H55" t="s">
-        <v>45</v>
-      </c>
-      <c r="I55" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" t="s">
+      <c r="C57" t="s">
+        <v>112</v>
+      </c>
+      <c r="E57" t="s">
+        <v>227</v>
+      </c>
+      <c r="F57" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" t="s">
+        <v>45</v>
+      </c>
+      <c r="I57" t="s">
+        <v>95</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" t="s">
+        <v>231</v>
+      </c>
+      <c r="B58" t="s">
         <v>229</v>
       </c>
-      <c r="B56" t="s">
-        <v>227</v>
-      </c>
-      <c r="C56" t="s">
-        <v>113</v>
-      </c>
-      <c r="E56" t="s">
-        <v>228</v>
-      </c>
-      <c r="F56" t="s">
-        <v>9</v>
-      </c>
-      <c r="G56" t="s">
-        <v>17</v>
-      </c>
-      <c r="H56" t="s">
-        <v>45</v>
-      </c>
-      <c r="I56" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" t="s">
+      <c r="C58" t="s">
+        <v>119</v>
+      </c>
+      <c r="E58" t="s">
+        <v>230</v>
+      </c>
+      <c r="F58" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" t="s">
+        <v>45</v>
+      </c>
+      <c r="I58" t="s">
+        <v>95</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" t="s">
+        <v>234</v>
+      </c>
+      <c r="B59" t="s">
         <v>232</v>
       </c>
-      <c r="B57" t="s">
-        <v>230</v>
-      </c>
-      <c r="C57" t="s">
-        <v>113</v>
-      </c>
-      <c r="E57" t="s">
-        <v>231</v>
-      </c>
-      <c r="F57" t="s">
-        <v>9</v>
-      </c>
-      <c r="G57" t="s">
-        <v>17</v>
-      </c>
-      <c r="H57" t="s">
-        <v>45</v>
-      </c>
-      <c r="I57" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" t="s">
+      <c r="C59" t="s">
+        <v>119</v>
+      </c>
+      <c r="E59" t="s">
+        <v>233</v>
+      </c>
+      <c r="F59" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" t="s">
+        <v>45</v>
+      </c>
+      <c r="I59" t="s">
+        <v>95</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" t="s">
+        <v>237</v>
+      </c>
+      <c r="B60" t="s">
         <v>235</v>
       </c>
-      <c r="B58" t="s">
-        <v>233</v>
-      </c>
-      <c r="C58" t="s">
-        <v>120</v>
-      </c>
-      <c r="E58" t="s">
-        <v>234</v>
-      </c>
-      <c r="F58" t="s">
-        <v>9</v>
-      </c>
-      <c r="G58" t="s">
-        <v>17</v>
-      </c>
-      <c r="H58" t="s">
-        <v>45</v>
-      </c>
-      <c r="I58" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" t="s">
+      <c r="C60" t="s">
+        <v>125</v>
+      </c>
+      <c r="E60" t="s">
+        <v>236</v>
+      </c>
+      <c r="F60" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" t="s">
+        <v>45</v>
+      </c>
+      <c r="I60" t="s">
+        <v>95</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" t="s">
+        <v>240</v>
+      </c>
+      <c r="B61" t="s">
         <v>238</v>
       </c>
-      <c r="B59" t="s">
-        <v>236</v>
-      </c>
-      <c r="C59" t="s">
-        <v>120</v>
-      </c>
-      <c r="E59" t="s">
-        <v>237</v>
-      </c>
-      <c r="F59" t="s">
-        <v>9</v>
-      </c>
-      <c r="G59" t="s">
-        <v>17</v>
-      </c>
-      <c r="H59" t="s">
-        <v>45</v>
-      </c>
-      <c r="I59" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" t="s">
+      <c r="C61" t="s">
+        <v>129</v>
+      </c>
+      <c r="E61" t="s">
+        <v>239</v>
+      </c>
+      <c r="F61" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61" t="s">
+        <v>45</v>
+      </c>
+      <c r="I61" t="s">
+        <v>95</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" t="s">
+        <v>243</v>
+      </c>
+      <c r="B62" t="s">
         <v>241</v>
       </c>
-      <c r="B60" t="s">
-        <v>239</v>
-      </c>
-      <c r="C60" t="s">
-        <v>127</v>
-      </c>
-      <c r="E60" t="s">
-        <v>240</v>
-      </c>
-      <c r="F60" t="s">
-        <v>9</v>
-      </c>
-      <c r="G60" t="s">
-        <v>17</v>
-      </c>
-      <c r="H60" t="s">
-        <v>45</v>
-      </c>
-      <c r="I60" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" t="s">
+      <c r="C62" t="s">
+        <v>133</v>
+      </c>
+      <c r="E62" t="s">
+        <v>242</v>
+      </c>
+      <c r="F62" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" t="s">
+        <v>17</v>
+      </c>
+      <c r="H62" t="s">
+        <v>45</v>
+      </c>
+      <c r="I62" t="s">
+        <v>95</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" t="s">
+        <v>246</v>
+      </c>
+      <c r="B63" t="s">
         <v>244</v>
       </c>
-      <c r="B61" t="s">
-        <v>242</v>
-      </c>
-      <c r="C61" t="s">
-        <v>131</v>
-      </c>
-      <c r="E61" t="s">
-        <v>243</v>
-      </c>
-      <c r="F61" t="s">
-        <v>9</v>
-      </c>
-      <c r="G61" t="s">
-        <v>17</v>
-      </c>
-      <c r="H61" t="s">
-        <v>45</v>
-      </c>
-      <c r="I61" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" t="s">
-        <v>247</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="C63" t="s">
+        <v>133</v>
+      </c>
+      <c r="E63" t="s">
         <v>245</v>
       </c>
-      <c r="C62" t="s">
-        <v>135</v>
-      </c>
-      <c r="E62" t="s">
-        <v>246</v>
-      </c>
-      <c r="F62" t="s">
-        <v>9</v>
-      </c>
-      <c r="G62" t="s">
-        <v>17</v>
-      </c>
-      <c r="H62" t="s">
-        <v>45</v>
-      </c>
-      <c r="I62" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" t="s">
-        <v>250</v>
-      </c>
-      <c r="B63" t="s">
-        <v>248</v>
-      </c>
-      <c r="C63" t="s">
-        <v>135</v>
-      </c>
-      <c r="E63" t="s">
-        <v>249</v>
-      </c>
       <c r="F63" t="s">
         <v>9</v>
       </c>
@@ -8315,7 +8971,13 @@
         <v>45</v>
       </c>
       <c r="I63" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>823</v>
       </c>
     </row>
   </sheetData>
@@ -8326,13 +8988,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545265A3-06C8-4C6B-86A0-E4BF7A47D645}">
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8386,19 +9048,19 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -8415,19 +9077,19 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -8444,19 +9106,19 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D4" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -8473,19 +9135,19 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B5" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -8502,19 +9164,19 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -8531,19 +9193,19 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -8560,19 +9222,19 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B8" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E8" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
@@ -8589,19 +9251,19 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B9" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C9" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D9" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E9" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -8618,19 +9280,19 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B10" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C10" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D10" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E10" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
@@ -8647,19 +9309,19 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B11" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E11" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -8676,19 +9338,19 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B12" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C12" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D12" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E12" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -8705,19 +9367,19 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B13" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E13" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
@@ -8734,19 +9396,19 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B14" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E14" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
@@ -8763,19 +9425,19 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B15" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E15" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
@@ -8792,19 +9454,19 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B16" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C16" t="s">
         <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E16" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
@@ -8821,16 +9483,16 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B17" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C17" t="s">
         <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -8847,16 +9509,16 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B18" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C18" t="s">
         <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -8873,16 +9535,16 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B19" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C19" t="s">
         <v>32</v>
       </c>
       <c r="E19" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
@@ -8899,19 +9561,19 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B20" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C20" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D20" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E20" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
@@ -8928,19 +9590,19 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B21" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C21" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D21" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E21" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
@@ -8957,19 +9619,19 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B22" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C22" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D22" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E22" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F22" t="s">
         <v>12</v>
@@ -8986,19 +9648,19 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B23" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C23" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D23" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E23" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
@@ -9010,24 +9672,24 @@
         <v>18</v>
       </c>
       <c r="I23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B24" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E24" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F24" t="s">
         <v>12</v>
@@ -9039,24 +9701,24 @@
         <v>18</v>
       </c>
       <c r="I24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B25" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C25" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D25" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E25" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F25" t="s">
         <v>12</v>
@@ -9068,24 +9730,24 @@
         <v>18</v>
       </c>
       <c r="I25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B26" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C26" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D26" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E26" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
@@ -9097,24 +9759,24 @@
         <v>18</v>
       </c>
       <c r="I26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B27" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C27" t="s">
         <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E27" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F27" t="s">
         <v>12</v>
@@ -9126,24 +9788,24 @@
         <v>18</v>
       </c>
       <c r="I27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B28" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C28" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D28" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E28" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
@@ -9155,24 +9817,24 @@
         <v>18</v>
       </c>
       <c r="I28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B29" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C29" t="s">
         <v>57</v>
       </c>
       <c r="D29" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E29" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F29" t="s">
         <v>12</v>
@@ -9189,19 +9851,19 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B30" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E30" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
@@ -9218,19 +9880,19 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B31" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C31" t="s">
         <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E31" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F31" t="s">
         <v>12</v>
@@ -9247,19 +9909,19 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B32" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C32" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D32" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E32" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F32" t="s">
         <v>12</v>
@@ -9276,19 +9938,19 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B33" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C33" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D33" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E33" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
@@ -9305,19 +9967,19 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B34" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C34" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D34" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E34" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F34" t="s">
         <v>12</v>
@@ -9334,19 +9996,19 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B35" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C35" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D35" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E35" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F35" t="s">
         <v>12</v>
@@ -9363,19 +10025,19 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B36" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C36" t="s">
         <v>27</v>
       </c>
       <c r="D36" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E36" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F36" t="s">
         <v>12</v>
@@ -9392,19 +10054,19 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B37" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C37" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D37" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E37" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F37" t="s">
         <v>12</v>
@@ -9421,19 +10083,19 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B38" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C38" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D38" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E38" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F38" t="s">
         <v>12</v>
@@ -9450,19 +10112,19 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B39" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C39" t="s">
         <v>29</v>
       </c>
       <c r="D39" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E39" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F39" t="s">
         <v>12</v>
@@ -9479,19 +10141,19 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B40" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C40" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D40" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E40" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F40" t="s">
         <v>12</v>
@@ -9508,19 +10170,19 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B41" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C41" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D41" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E41" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F41" t="s">
         <v>12</v>
@@ -9537,16 +10199,16 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B42" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C42" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E42" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F42" t="s">
         <v>9</v>
@@ -9558,21 +10220,21 @@
         <v>45</v>
       </c>
       <c r="I42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B43" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C43" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E43" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F43" t="s">
         <v>9</v>
@@ -9584,21 +10246,21 @@
         <v>45</v>
       </c>
       <c r="I43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B44" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C44" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E44" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F44" t="s">
         <v>9</v>
@@ -9610,21 +10272,21 @@
         <v>45</v>
       </c>
       <c r="I44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B45" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C45" t="s">
         <v>33</v>
       </c>
       <c r="E45" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F45" t="s">
         <v>9</v>
@@ -9636,24 +10298,24 @@
         <v>45</v>
       </c>
       <c r="I45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B46" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C46" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D46" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E46" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F46" t="s">
         <v>12</v>
@@ -9670,16 +10332,16 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B47" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C47" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E47" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F47" t="s">
         <v>12</v>
@@ -9688,24 +10350,24 @@
         <v>17</v>
       </c>
       <c r="H47" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="I47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B48" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C48" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E48" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F48" t="s">
         <v>12</v>
@@ -9714,24 +10376,24 @@
         <v>17</v>
       </c>
       <c r="H48" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="I48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B49" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C49" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E49" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
@@ -9743,21 +10405,21 @@
         <v>45</v>
       </c>
       <c r="I49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B50" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C50" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E50" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="F50" t="s">
         <v>9</v>
@@ -9769,21 +10431,21 @@
         <v>45</v>
       </c>
       <c r="I50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B51" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C51" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E51" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F51" t="s">
         <v>9</v>
@@ -9795,21 +10457,21 @@
         <v>45</v>
       </c>
       <c r="I51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B52" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C52" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E52" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F52" t="s">
         <v>9</v>
@@ -9821,21 +10483,21 @@
         <v>45</v>
       </c>
       <c r="I52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B53" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C53" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E53" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F53" t="s">
         <v>9</v>
@@ -9847,21 +10509,21 @@
         <v>45</v>
       </c>
       <c r="I53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B54" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C54" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E54" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
@@ -9873,22 +10535,22 @@
         <v>45</v>
       </c>
       <c r="I54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B55" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C55" t="s">
+        <v>437</v>
+      </c>
+      <c r="E55" t="s">
         <v>441</v>
       </c>
-      <c r="E55" t="s">
-        <v>445</v>
-      </c>
       <c r="F55" t="s">
         <v>9</v>
       </c>
@@ -9899,391 +10561,375 @@
         <v>45</v>
       </c>
       <c r="I55" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B56" t="s">
+        <v>443</v>
+      </c>
+      <c r="C56" t="s">
+        <v>444</v>
+      </c>
+      <c r="E56" t="s">
+        <v>445</v>
+      </c>
+      <c r="F56" t="s">
         <v>447</v>
       </c>
-      <c r="C56" t="s">
+      <c r="G56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" t="s">
         <v>448</v>
       </c>
-      <c r="E56" t="s">
+      <c r="I56" t="s">
         <v>449</v>
-      </c>
-      <c r="F56" t="s">
-        <v>451</v>
-      </c>
-      <c r="G56" t="s">
-        <v>17</v>
-      </c>
-      <c r="H56" t="s">
-        <v>452</v>
-      </c>
-      <c r="I56" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B57" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C57" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="E57" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F57" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="G57" t="s">
         <v>17</v>
       </c>
       <c r="H57" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="I57" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B58" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C58" t="s">
+        <v>451</v>
+      </c>
+      <c r="E58" t="s">
         <v>455</v>
       </c>
-      <c r="E58" t="s">
-        <v>459</v>
-      </c>
       <c r="F58" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="G58" t="s">
         <v>17</v>
       </c>
       <c r="H58" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="I58" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B59" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C59" t="s">
         <v>57</v>
       </c>
       <c r="E59" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="F59" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="G59" t="s">
         <v>17</v>
       </c>
       <c r="H59" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="I59" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B60" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C60" t="s">
         <v>61</v>
       </c>
       <c r="E60" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F60" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="G60" t="s">
         <v>17</v>
       </c>
       <c r="H60" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="I60" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B61" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C61" t="s">
         <v>61</v>
       </c>
       <c r="E61" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="F61" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="G61" t="s">
         <v>17</v>
       </c>
       <c r="H61" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="I61" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B62" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C62" t="s">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F62" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="G62" t="s">
         <v>17</v>
       </c>
       <c r="H62" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="I62" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B63" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C63" t="s">
         <v>61</v>
       </c>
       <c r="E63" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="F63" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="G63" t="s">
         <v>17</v>
       </c>
       <c r="H63" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="I63" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B64" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C64" t="s">
         <v>61</v>
       </c>
       <c r="E64" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F64" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="G64" t="s">
         <v>17</v>
       </c>
       <c r="H64" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="I64" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B65" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C65" t="s">
         <v>61</v>
       </c>
       <c r="E65" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F65" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="G65" t="s">
         <v>17</v>
       </c>
       <c r="H65" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="I65" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B66" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C66" t="s">
         <v>61</v>
       </c>
       <c r="E66" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F66" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="G66" t="s">
         <v>17</v>
       </c>
       <c r="H66" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="I66" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B67" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C67" t="s">
         <v>61</v>
       </c>
       <c r="E67" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="F67" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="G67" t="s">
         <v>17</v>
       </c>
       <c r="H67" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="I67" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B68" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C68" t="s">
         <v>61</v>
       </c>
       <c r="E68" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F68" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="G68" t="s">
         <v>17</v>
       </c>
       <c r="H68" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="I68" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B69" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C69" t="s">
         <v>61</v>
       </c>
       <c r="E69" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="F69" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="G69" t="s">
         <v>17</v>
       </c>
       <c r="H69" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="I69" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="B73" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="B74" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="B79" t="s">
-        <v>496</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/INTLINE/data/548/548_series.xlsx
+++ b/INTLINE/data/548/548_series.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\INTLINE\INTLINE\data\548\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAB239B-8BDD-4C48-8B7F-8759F4792BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EF6815-88CB-43B1-A9A4-1B0B285825B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B68BB0FD-AD3D-42A0-9C57-96D74DA36CEE}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2054" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2099" uniqueCount="866">
   <si>
     <t>Short Label</t>
   </si>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t>Housing, Water, Electricity, Gas and Other Fuels</t>
-  </si>
-  <si>
-    <t>US Dollar</t>
   </si>
   <si>
     <t>Basic Metals</t>
@@ -148,9 +145,6 @@
   <si>
     <t>keyword</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>External Sector, Balance of Payments, Current Account, Net (BPM6) (US Dollars), NSA - Malaysia</t>
   </si>
   <si>
     <t>Current Account</t>
@@ -3842,6 +3836,101 @@
   </si>
   <si>
     <t>Gross National Income (GNI) by Expenditure Components in Constant</t>
+  </si>
+  <si>
+    <t>ConstantFinal consumption expenditurePublic sector</t>
+  </si>
+  <si>
+    <t>ConstantFinal consumption expenditurePrivate sector</t>
+  </si>
+  <si>
+    <t>ConstantFinal consumption expenditurePrivate sector</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConstantChanges in inventories and valuables</t>
+  </si>
+  <si>
+    <t>ConstantGross fixed capital formationTotal</t>
+  </si>
+  <si>
+    <t>ConstantExports of goods and services</t>
+  </si>
+  <si>
+    <t>ConstantImports of goods and services</t>
+  </si>
+  <si>
+    <t>ConstantFinal consumption expenditureTotal</t>
+  </si>
+  <si>
+    <t>ConstantGross fixed capital formationPrivate sector</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConstantGross fixed capital formationPublic sector</t>
+  </si>
+  <si>
+    <t>CurrentFinal consumption expenditurePublic sector</t>
+  </si>
+  <si>
+    <t>CurrentFinal consumption expenditurePrivate sector</t>
+  </si>
+  <si>
+    <t>CurrentChanges in inventories and valuables</t>
+  </si>
+  <si>
+    <t>CurrentGross fixed capital formationTotal</t>
+  </si>
+  <si>
+    <t>CurrentExports of goods and services</t>
+  </si>
+  <si>
+    <t>CurrentImports of goods and services</t>
+  </si>
+  <si>
+    <t>CurrentFinal consumption expenditureTotal</t>
+  </si>
+  <si>
+    <t>CurrentGross fixed capital formationPrivate sector</t>
+  </si>
+  <si>
+    <t>CurrentGross fixed capital formationPublic sector</t>
+  </si>
+  <si>
+    <t>CurrentGross National Income</t>
+  </si>
+  <si>
+    <t>CurrentGross national savings</t>
+  </si>
+  <si>
+    <t>CurrentMid-year population</t>
+  </si>
+  <si>
+    <t>Department of Statistics, Malaysia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Publication Table LFR</t>
+  </si>
+  <si>
+    <t>Employed</t>
+  </si>
+  <si>
+    <t>Unemployed</t>
+  </si>
+  <si>
+    <t>Unemployment Rate</t>
+  </si>
+  <si>
+    <t>Labour Force</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>External Sector, Balance of Payments, Current Account, Net (BPM6), NSA - Malaysia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Balance of Payments (BPM6)</t>
   </si>
 </sst>
 </file>
@@ -4235,10 +4324,10 @@
   <dimension ref="A1:K91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J56" sqref="J56"/>
+      <selection pane="bottomRight" activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4285,103 +4374,103 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C2" t="s">
+        <v>489</v>
+      </c>
+      <c r="E2" t="s">
         <v>490</v>
       </c>
-      <c r="C2" t="s">
-        <v>491</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
         <v>492</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>494</v>
-      </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>21</v>
@@ -4389,2645 +4478,2732 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B5" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B6" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B7" t="s">
+        <v>505</v>
+      </c>
+      <c r="C7" t="s">
+        <v>506</v>
+      </c>
+      <c r="E7" t="s">
         <v>507</v>
       </c>
-      <c r="C7" t="s">
-        <v>508</v>
-      </c>
-      <c r="E7" t="s">
-        <v>509</v>
-      </c>
       <c r="F7" t="s">
         <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B8" t="s">
+        <v>509</v>
+      </c>
+      <c r="C8" t="s">
+        <v>510</v>
+      </c>
+      <c r="E8" t="s">
         <v>511</v>
       </c>
-      <c r="C8" t="s">
-        <v>512</v>
-      </c>
-      <c r="E8" t="s">
-        <v>513</v>
-      </c>
       <c r="F8" t="s">
         <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B9" t="s">
+        <v>512</v>
+      </c>
+      <c r="C9" t="s">
+        <v>513</v>
+      </c>
+      <c r="E9" t="s">
         <v>514</v>
       </c>
-      <c r="C9" t="s">
-        <v>515</v>
-      </c>
-      <c r="E9" t="s">
-        <v>516</v>
-      </c>
       <c r="F9" t="s">
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J9" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>775</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B10" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B11" t="s">
+        <v>519</v>
+      </c>
+      <c r="C11" t="s">
+        <v>520</v>
+      </c>
+      <c r="E11" t="s">
         <v>521</v>
       </c>
-      <c r="C11" t="s">
-        <v>522</v>
-      </c>
-      <c r="E11" t="s">
-        <v>523</v>
-      </c>
       <c r="F11" t="s">
         <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B12" t="s">
+        <v>523</v>
+      </c>
+      <c r="C12" t="s">
+        <v>524</v>
+      </c>
+      <c r="E12" t="s">
         <v>525</v>
       </c>
-      <c r="C12" t="s">
-        <v>526</v>
-      </c>
-      <c r="E12" t="s">
-        <v>527</v>
-      </c>
       <c r="F12" t="s">
         <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B13" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C13" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E13" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B14" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C14" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E14" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
       </c>
       <c r="G14" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B15" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C15" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E15" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
       </c>
       <c r="G15" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B16" t="s">
+        <v>535</v>
+      </c>
+      <c r="C16" t="s">
+        <v>536</v>
+      </c>
+      <c r="E16" t="s">
         <v>537</v>
       </c>
-      <c r="C16" t="s">
-        <v>538</v>
-      </c>
-      <c r="E16" t="s">
-        <v>539</v>
-      </c>
       <c r="F16" t="s">
         <v>9</v>
       </c>
       <c r="G16" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B17" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C17" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E17" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B18" t="s">
+        <v>541</v>
+      </c>
+      <c r="C18" t="s">
+        <v>542</v>
+      </c>
+      <c r="E18" t="s">
         <v>543</v>
       </c>
-      <c r="C18" t="s">
-        <v>544</v>
-      </c>
-      <c r="E18" t="s">
-        <v>545</v>
-      </c>
       <c r="F18" t="s">
         <v>9</v>
       </c>
       <c r="G18" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B19" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C19" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E19" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
       </c>
       <c r="G19" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B20" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H20" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="I20" t="s">
-        <v>40</v>
+        <v>858</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B21" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H21" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="I21" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B22" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H22" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="I22" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B23" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H23" t="s">
         <v>13</v>
       </c>
       <c r="I23" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B24" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E24" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
       </c>
       <c r="G24" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J24" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="K24" s="3" t="s">
         <v>788</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B25" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
       </c>
       <c r="G25" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B26" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
       </c>
       <c r="G26" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B27" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C27" t="s">
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
       </c>
       <c r="G27" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B28" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E28" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
       </c>
       <c r="G28" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B29" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E29" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
       </c>
       <c r="G29" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B30" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E30" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F30" t="s">
         <v>9</v>
       </c>
       <c r="G30" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B31" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E31" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F31" t="s">
         <v>9</v>
       </c>
       <c r="G31" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B32" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E32" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
       </c>
       <c r="G32" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B33" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E33" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
       </c>
       <c r="G33" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B34" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E34" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F34" t="s">
         <v>9</v>
       </c>
       <c r="G34" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B35" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E35" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F35" t="s">
         <v>9</v>
       </c>
       <c r="G35" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B36" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E36" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
       </c>
       <c r="G36" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B37" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C37" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E37" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F37" t="s">
         <v>9</v>
       </c>
       <c r="G37" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I37" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B38" t="s">
+        <v>602</v>
+      </c>
+      <c r="C38" t="s">
+        <v>603</v>
+      </c>
+      <c r="E38" t="s">
         <v>604</v>
       </c>
-      <c r="C38" t="s">
-        <v>605</v>
-      </c>
-      <c r="E38" t="s">
-        <v>606</v>
-      </c>
       <c r="F38" t="s">
         <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H38" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I38" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B39" t="s">
+        <v>606</v>
+      </c>
+      <c r="C39" t="s">
+        <v>607</v>
+      </c>
+      <c r="E39" t="s">
         <v>608</v>
       </c>
-      <c r="C39" t="s">
-        <v>609</v>
-      </c>
-      <c r="E39" t="s">
-        <v>610</v>
-      </c>
       <c r="F39" t="s">
         <v>9</v>
       </c>
       <c r="G39" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I39" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B40" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C40" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E40" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F40" t="s">
         <v>9</v>
       </c>
       <c r="G40" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I40" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B41" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C41" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E41" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
       </c>
       <c r="G41" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I41" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B42" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C42" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E42" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F42" t="s">
         <v>9</v>
       </c>
       <c r="G42" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I42" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B43" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C43" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E43" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F43" t="s">
         <v>9</v>
       </c>
       <c r="G43" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I43" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B44" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C44" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E44" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F44" t="s">
         <v>9</v>
       </c>
       <c r="G44" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I44" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B45" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E45" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F45" t="s">
         <v>9</v>
       </c>
       <c r="G45" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I45" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B46" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C46" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E46" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F46" t="s">
         <v>9</v>
       </c>
       <c r="G46" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H46" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I46" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B47" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C47" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E47" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F47" t="s">
         <v>9</v>
       </c>
       <c r="G47" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I47" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B48" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C48" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E48" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
       </c>
       <c r="G48" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H48" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B49" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C49" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E49" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
       </c>
       <c r="G49" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H49" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B50" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C50" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E50" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="F50" t="s">
         <v>9</v>
       </c>
       <c r="G50" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H50" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I50" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B51" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C51" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E51" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F51" t="s">
         <v>9</v>
       </c>
       <c r="G51" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H51" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I51" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B52" t="s">
+        <v>645</v>
+      </c>
+      <c r="C52" t="s">
+        <v>646</v>
+      </c>
+      <c r="E52" t="s">
         <v>647</v>
-      </c>
-      <c r="C52" t="s">
-        <v>648</v>
-      </c>
-      <c r="E52" t="s">
-        <v>649</v>
       </c>
       <c r="F52" t="s">
         <v>11</v>
       </c>
       <c r="G52" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H52" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="I52" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B53" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C53" t="s">
         <v>16</v>
       </c>
       <c r="E53" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F53" t="s">
         <v>9</v>
       </c>
       <c r="G53" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H53" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I53" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B54" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C54" t="s">
         <v>16</v>
       </c>
       <c r="E54" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
       </c>
       <c r="G54" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I54" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B55" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C55" t="s">
         <v>16</v>
       </c>
       <c r="E55" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F55" t="s">
         <v>9</v>
       </c>
       <c r="G55" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H55" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I55" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B56" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C56" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E56" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F56" t="s">
         <v>9</v>
       </c>
       <c r="G56" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H56" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I56" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B57" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C57" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E57" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F57" t="s">
         <v>9</v>
       </c>
       <c r="G57" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H57" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I57" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B58" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C58" t="s">
         <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F58" t="s">
         <v>9</v>
       </c>
       <c r="G58" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H58" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I58" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B59" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C59" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E59" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="F59" t="s">
         <v>9</v>
       </c>
       <c r="G59" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H59" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I59" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B60" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C60" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E60" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F60" t="s">
         <v>9</v>
       </c>
       <c r="G60" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H60" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I60" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B61" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C61" t="s">
         <v>16</v>
       </c>
       <c r="E61" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F61" t="s">
         <v>9</v>
       </c>
       <c r="G61" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H61" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I61" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B62" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C62" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E62" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F62" t="s">
         <v>9</v>
       </c>
       <c r="G62" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H62" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I62" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B63" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C63" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E63" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F63" t="s">
         <v>9</v>
       </c>
       <c r="G63" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H63" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I63" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B64" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
       </c>
       <c r="E64" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F64" t="s">
         <v>9</v>
       </c>
       <c r="G64" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H64" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I64" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B65" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C65" t="s">
         <v>15</v>
       </c>
       <c r="E65" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F65" t="s">
         <v>9</v>
       </c>
       <c r="G65" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H65" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I65" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B66" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C66" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E66" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F66" t="s">
         <v>9</v>
       </c>
       <c r="G66" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H66" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B67" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C67" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E67" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="F67" t="s">
         <v>9</v>
       </c>
       <c r="G67" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H67" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I67" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B68" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C68" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E68" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F68" t="s">
         <v>9</v>
       </c>
       <c r="G68" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H68" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I68" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B69" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C69" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E69" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="F69" t="s">
         <v>9</v>
       </c>
       <c r="G69" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H69" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I69" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B70" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C70" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E70" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="F70" t="s">
         <v>9</v>
       </c>
       <c r="G70" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H70" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I70" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B71" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C71" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E71" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="F71" t="s">
         <v>9</v>
       </c>
       <c r="G71" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H71" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I71" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B72" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C72" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E72" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F72" t="s">
         <v>9</v>
       </c>
       <c r="G72" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H72" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I72" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B73" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C73" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E73" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F73" t="s">
         <v>9</v>
       </c>
       <c r="G73" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H73" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I73" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B74" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C74" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E74" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="F74" t="s">
         <v>9</v>
       </c>
       <c r="G74" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H74" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I74" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B75" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C75" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E75" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F75" t="s">
         <v>9</v>
       </c>
       <c r="G75" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H75" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I75" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B76" t="s">
+        <v>717</v>
+      </c>
+      <c r="C76" t="s">
+        <v>718</v>
+      </c>
+      <c r="E76" t="s">
         <v>719</v>
       </c>
-      <c r="C76" t="s">
-        <v>720</v>
-      </c>
-      <c r="E76" t="s">
-        <v>721</v>
-      </c>
       <c r="F76" t="s">
         <v>9</v>
       </c>
       <c r="G76" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H76" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I76" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B77" t="s">
+        <v>721</v>
+      </c>
+      <c r="C77" t="s">
+        <v>722</v>
+      </c>
+      <c r="E77" t="s">
         <v>723</v>
       </c>
-      <c r="C77" t="s">
-        <v>724</v>
-      </c>
-      <c r="E77" t="s">
-        <v>725</v>
-      </c>
       <c r="F77" t="s">
         <v>9</v>
       </c>
       <c r="G77" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H77" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B78" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C78" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E78" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="F78" t="s">
         <v>9</v>
       </c>
       <c r="G78" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H78" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I78" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B79" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C79" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E79" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F79" t="s">
         <v>9</v>
       </c>
       <c r="G79" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H79" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I79" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>854</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B80" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C80" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E80" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="F80" t="s">
         <v>9</v>
       </c>
       <c r="G80" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H80" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I80" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B81" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C81" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E81" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F81" t="s">
         <v>9</v>
       </c>
       <c r="G81" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H81" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I81" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B82" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C82" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E82" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F82" t="s">
         <v>9</v>
       </c>
       <c r="G82" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H82" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I82" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B83" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C83" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E83" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="F83" t="s">
         <v>9</v>
       </c>
       <c r="G83" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H83" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I83" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B84" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C84" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E84" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F84" t="s">
         <v>9</v>
       </c>
       <c r="G84" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H84" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I84" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B85" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C85" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E85" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F85" t="s">
         <v>9</v>
       </c>
       <c r="G85" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H85" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I85" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J85" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="K85" s="3" t="s">
         <v>830</v>
-      </c>
-      <c r="K85" s="3" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B86" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C86" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E86" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F86" t="s">
         <v>9</v>
       </c>
       <c r="G86" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H86" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I86" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B87" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C87" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E87" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="F87" t="s">
         <v>9</v>
       </c>
       <c r="G87" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H87" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I87" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B88" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C88" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E88" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F88" t="s">
         <v>9</v>
       </c>
       <c r="G88" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H88" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I88" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B89" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C89" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E89" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F89" t="s">
         <v>9</v>
       </c>
       <c r="G89" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H89" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I89" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B90" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C90" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E90" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F90" t="s">
         <v>9</v>
       </c>
       <c r="G90" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H90" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I90" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B91" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C91" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E91" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F91" t="s">
         <v>9</v>
       </c>
       <c r="G91" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H91" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I91" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
   </sheetData>
@@ -7043,10 +7219,10 @@
   <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J45" sqref="J45:J51"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7092,51 +7268,57 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
+        <v>864</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" t="s">
         <v>38</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" t="s">
-        <v>40</v>
+      <c r="J2" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>43</v>
-      </c>
       <c r="F3" t="s">
         <v>9</v>
       </c>
@@ -7144,31 +7326,31 @@
         <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
         <v>46</v>
       </c>
-      <c r="C4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" t="s">
-        <v>48</v>
-      </c>
       <c r="F4" t="s">
         <v>9</v>
       </c>
@@ -7176,30 +7358,30 @@
         <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -7208,30 +7390,30 @@
         <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -7240,31 +7422,31 @@
         <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
         <v>56</v>
       </c>
-      <c r="C7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" t="s">
-        <v>58</v>
-      </c>
       <c r="F7" t="s">
         <v>9</v>
       </c>
@@ -7272,31 +7454,31 @@
         <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" t="s">
         <v>60</v>
       </c>
-      <c r="C8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" t="s">
-        <v>62</v>
-      </c>
       <c r="F8" t="s">
         <v>9</v>
       </c>
@@ -7304,31 +7486,31 @@
         <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" t="s">
         <v>64</v>
       </c>
-      <c r="C9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" t="s">
-        <v>66</v>
-      </c>
       <c r="F9" t="s">
         <v>9</v>
       </c>
@@ -7336,31 +7518,31 @@
         <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" t="s">
         <v>68</v>
       </c>
-      <c r="C10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" t="s">
-        <v>70</v>
-      </c>
       <c r="F10" t="s">
         <v>9</v>
       </c>
@@ -7368,28 +7550,31 @@
         <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" t="s">
         <v>72</v>
       </c>
-      <c r="C11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" t="s">
-        <v>74</v>
-      </c>
       <c r="F11" t="s">
         <v>9</v>
       </c>
@@ -7397,28 +7582,31 @@
         <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J11" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>837</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" t="s">
         <v>75</v>
       </c>
-      <c r="C12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" t="s">
-        <v>77</v>
-      </c>
       <c r="F12" t="s">
         <v>9</v>
       </c>
@@ -7426,28 +7614,31 @@
         <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" t="s">
         <v>79</v>
       </c>
-      <c r="C13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" t="s">
-        <v>81</v>
-      </c>
       <c r="F13" t="s">
         <v>9</v>
       </c>
@@ -7455,28 +7646,31 @@
         <v>17</v>
       </c>
       <c r="H13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" t="s">
         <v>83</v>
       </c>
-      <c r="C14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" t="s">
-        <v>85</v>
-      </c>
       <c r="F14" t="s">
         <v>9</v>
       </c>
@@ -7484,28 +7678,31 @@
         <v>17</v>
       </c>
       <c r="H14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" t="s">
         <v>87</v>
       </c>
-      <c r="C15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" t="s">
-        <v>89</v>
-      </c>
       <c r="F15" t="s">
         <v>9</v>
       </c>
@@ -7513,57 +7710,63 @@
         <v>17</v>
       </c>
       <c r="H15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" t="s">
         <v>91</v>
       </c>
-      <c r="C16" t="s">
-        <v>92</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" t="s">
         <v>93</v>
       </c>
-      <c r="F16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" t="s">
-        <v>95</v>
-      </c>
       <c r="J16" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" t="s">
         <v>96</v>
       </c>
-      <c r="C17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" t="s">
-        <v>98</v>
-      </c>
       <c r="F17" t="s">
         <v>9</v>
       </c>
@@ -7571,30 +7774,30 @@
         <v>17</v>
       </c>
       <c r="H17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -7603,31 +7806,31 @@
         <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" t="s">
         <v>103</v>
       </c>
-      <c r="C19" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19" t="s">
-        <v>105</v>
-      </c>
       <c r="F19" t="s">
         <v>9</v>
       </c>
@@ -7635,31 +7838,31 @@
         <v>17</v>
       </c>
       <c r="H19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" t="s">
         <v>107</v>
       </c>
-      <c r="C20" t="s">
-        <v>108</v>
-      </c>
-      <c r="E20" t="s">
-        <v>109</v>
-      </c>
       <c r="F20" t="s">
         <v>9</v>
       </c>
@@ -7667,31 +7870,31 @@
         <v>17</v>
       </c>
       <c r="H20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" t="s">
         <v>111</v>
       </c>
-      <c r="C21" t="s">
-        <v>112</v>
-      </c>
-      <c r="E21" t="s">
-        <v>113</v>
-      </c>
       <c r="F21" t="s">
         <v>9</v>
       </c>
@@ -7699,30 +7902,30 @@
         <v>17</v>
       </c>
       <c r="H21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -7731,31 +7934,31 @@
         <v>17</v>
       </c>
       <c r="H22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" t="s">
         <v>118</v>
       </c>
-      <c r="C23" t="s">
-        <v>119</v>
-      </c>
-      <c r="E23" t="s">
-        <v>120</v>
-      </c>
       <c r="F23" t="s">
         <v>9</v>
       </c>
@@ -7763,30 +7966,30 @@
         <v>17</v>
       </c>
       <c r="H23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
@@ -7795,31 +7998,31 @@
         <v>17</v>
       </c>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" t="s">
         <v>124</v>
       </c>
-      <c r="C25" t="s">
-        <v>125</v>
-      </c>
-      <c r="E25" t="s">
-        <v>126</v>
-      </c>
       <c r="F25" t="s">
         <v>9</v>
       </c>
@@ -7827,31 +8030,31 @@
         <v>17</v>
       </c>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26" t="s">
         <v>128</v>
       </c>
-      <c r="C26" t="s">
-        <v>129</v>
-      </c>
-      <c r="E26" t="s">
-        <v>130</v>
-      </c>
       <c r="F26" t="s">
         <v>9</v>
       </c>
@@ -7859,31 +8062,31 @@
         <v>17</v>
       </c>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27" t="s">
         <v>132</v>
       </c>
-      <c r="C27" t="s">
-        <v>133</v>
-      </c>
-      <c r="E27" t="s">
-        <v>134</v>
-      </c>
       <c r="F27" t="s">
         <v>9</v>
       </c>
@@ -7891,30 +8094,30 @@
         <v>17</v>
       </c>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B28" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E28" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -7923,30 +8126,30 @@
         <v>17</v>
       </c>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B29" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C29" t="s">
         <v>16</v>
       </c>
       <c r="E29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
@@ -7955,24 +8158,24 @@
         <v>17</v>
       </c>
       <c r="H29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B30" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C30" t="s">
         <v>16</v>
       </c>
       <c r="E30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F30" t="s">
         <v>9</v>
@@ -7981,24 +8184,24 @@
         <v>17</v>
       </c>
       <c r="H30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I30" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C31" t="s">
         <v>16</v>
       </c>
       <c r="E31" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F31" t="s">
         <v>9</v>
@@ -8007,25 +8210,25 @@
         <v>17</v>
       </c>
       <c r="H31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B32" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" t="s">
+        <v>147</v>
+      </c>
+      <c r="E32" t="s">
         <v>148</v>
       </c>
-      <c r="C32" t="s">
-        <v>149</v>
-      </c>
-      <c r="E32" t="s">
-        <v>150</v>
-      </c>
       <c r="F32" t="s">
         <v>9</v>
       </c>
@@ -8033,25 +8236,25 @@
         <v>17</v>
       </c>
       <c r="H32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I32" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B33" t="s">
+        <v>150</v>
+      </c>
+      <c r="C33" t="s">
+        <v>151</v>
+      </c>
+      <c r="E33" t="s">
         <v>152</v>
       </c>
-      <c r="C33" t="s">
-        <v>153</v>
-      </c>
-      <c r="E33" t="s">
-        <v>154</v>
-      </c>
       <c r="F33" t="s">
         <v>9</v>
       </c>
@@ -8059,25 +8262,25 @@
         <v>17</v>
       </c>
       <c r="H33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B34" t="s">
+        <v>154</v>
+      </c>
+      <c r="C34" t="s">
+        <v>155</v>
+      </c>
+      <c r="E34" t="s">
         <v>156</v>
       </c>
-      <c r="C34" t="s">
-        <v>157</v>
-      </c>
-      <c r="E34" t="s">
-        <v>158</v>
-      </c>
       <c r="F34" t="s">
         <v>9</v>
       </c>
@@ -8085,24 +8288,24 @@
         <v>17</v>
       </c>
       <c r="H34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I34" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B35" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C35" t="s">
         <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F35" t="s">
         <v>9</v>
@@ -8111,25 +8314,25 @@
         <v>17</v>
       </c>
       <c r="H35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I35" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B36" t="s">
+        <v>161</v>
+      </c>
+      <c r="C36" t="s">
+        <v>162</v>
+      </c>
+      <c r="E36" t="s">
         <v>163</v>
       </c>
-      <c r="C36" t="s">
-        <v>164</v>
-      </c>
-      <c r="E36" t="s">
-        <v>165</v>
-      </c>
       <c r="F36" t="s">
         <v>9</v>
       </c>
@@ -8137,25 +8340,25 @@
         <v>17</v>
       </c>
       <c r="H36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B37" t="s">
+        <v>165</v>
+      </c>
+      <c r="C37" t="s">
+        <v>166</v>
+      </c>
+      <c r="E37" t="s">
         <v>167</v>
       </c>
-      <c r="C37" t="s">
-        <v>168</v>
-      </c>
-      <c r="E37" t="s">
-        <v>169</v>
-      </c>
       <c r="F37" t="s">
         <v>9</v>
       </c>
@@ -8163,24 +8366,24 @@
         <v>17</v>
       </c>
       <c r="H37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I37" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B38" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F38" t="s">
         <v>9</v>
@@ -8189,30 +8392,30 @@
         <v>17</v>
       </c>
       <c r="H38" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B39" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C39" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E39" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F39" t="s">
         <v>9</v>
@@ -8221,30 +8424,30 @@
         <v>17</v>
       </c>
       <c r="H39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B40" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C40" t="s">
         <v>14</v>
       </c>
       <c r="E40" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F40" t="s">
         <v>9</v>
@@ -8253,30 +8456,30 @@
         <v>17</v>
       </c>
       <c r="H40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B41" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C41" t="s">
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -8285,30 +8488,30 @@
         <v>17</v>
       </c>
       <c r="H41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B42" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E42" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F42" t="s">
         <v>9</v>
@@ -8317,30 +8520,30 @@
         <v>17</v>
       </c>
       <c r="H42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I42" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B43" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C43" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E43" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F43" t="s">
         <v>9</v>
@@ -8349,30 +8552,30 @@
         <v>17</v>
       </c>
       <c r="H43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I43" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B44" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C44" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E44" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F44" t="s">
         <v>9</v>
@@ -8381,30 +8584,30 @@
         <v>17</v>
       </c>
       <c r="H44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I44" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B45" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C45" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E45" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F45" t="s">
         <v>9</v>
@@ -8413,56 +8616,62 @@
         <v>17</v>
       </c>
       <c r="H45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I45" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
+        <v>833</v>
+      </c>
+      <c r="B46" t="s">
+        <v>193</v>
+      </c>
+      <c r="C46" t="s">
+        <v>71</v>
+      </c>
+      <c r="E46" t="s">
+        <v>194</v>
+      </c>
+      <c r="F46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" t="s">
+        <v>43</v>
+      </c>
+      <c r="I46" t="s">
+        <v>38</v>
+      </c>
+      <c r="J46" s="3" t="s">
         <v>835</v>
       </c>
-      <c r="B46" t="s">
-        <v>195</v>
-      </c>
-      <c r="C46" t="s">
-        <v>73</v>
-      </c>
-      <c r="E46" t="s">
-        <v>196</v>
-      </c>
-      <c r="F46" t="s">
-        <v>9</v>
-      </c>
-      <c r="G46" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" t="s">
-        <v>45</v>
-      </c>
-      <c r="I46" t="s">
-        <v>40</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>837</v>
+      <c r="K46" s="3" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B47" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C47" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E47" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F47" t="s">
         <v>9</v>
@@ -8471,27 +8680,30 @@
         <v>17</v>
       </c>
       <c r="H47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I47" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C48" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E48" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
@@ -8500,27 +8712,30 @@
         <v>17</v>
       </c>
       <c r="H48" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I48" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B49" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C49" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E49" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
@@ -8529,27 +8744,30 @@
         <v>17</v>
       </c>
       <c r="H49" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I49" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B50" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C50" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E50" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F50" t="s">
         <v>9</v>
@@ -8558,27 +8776,30 @@
         <v>17</v>
       </c>
       <c r="H50" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I50" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B51" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C51" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E51" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F51" t="s">
         <v>9</v>
@@ -8587,27 +8808,30 @@
         <v>17</v>
       </c>
       <c r="H51" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I51" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B52" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C52" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E52" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F52" t="s">
         <v>9</v>
@@ -8616,30 +8840,30 @@
         <v>17</v>
       </c>
       <c r="H52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I52" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B53" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C53" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E53" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F53" t="s">
         <v>9</v>
@@ -8648,30 +8872,30 @@
         <v>17</v>
       </c>
       <c r="H53" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I53" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B54" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C54" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E54" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
@@ -8680,30 +8904,30 @@
         <v>17</v>
       </c>
       <c r="H54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I54" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B55" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E55" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F55" t="s">
         <v>9</v>
@@ -8712,30 +8936,30 @@
         <v>17</v>
       </c>
       <c r="H55" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I55" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B56" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E56" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F56" t="s">
         <v>9</v>
@@ -8744,30 +8968,30 @@
         <v>17</v>
       </c>
       <c r="H56" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I56" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B57" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E57" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F57" t="s">
         <v>9</v>
@@ -8776,30 +9000,30 @@
         <v>17</v>
       </c>
       <c r="H57" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I57" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B58" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C58" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E58" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F58" t="s">
         <v>9</v>
@@ -8808,30 +9032,30 @@
         <v>17</v>
       </c>
       <c r="H58" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I58" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B59" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C59" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E59" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F59" t="s">
         <v>9</v>
@@ -8840,30 +9064,30 @@
         <v>17</v>
       </c>
       <c r="H59" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I59" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B60" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C60" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E60" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F60" t="s">
         <v>9</v>
@@ -8872,30 +9096,30 @@
         <v>17</v>
       </c>
       <c r="H60" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I60" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B61" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C61" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E61" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F61" t="s">
         <v>9</v>
@@ -8904,30 +9128,30 @@
         <v>17</v>
       </c>
       <c r="H61" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I61" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B62" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C62" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E62" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F62" t="s">
         <v>9</v>
@@ -8936,30 +9160,30 @@
         <v>17</v>
       </c>
       <c r="H62" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I62" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B63" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C63" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E63" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F63" t="s">
         <v>9</v>
@@ -8968,16 +9192,16 @@
         <v>17</v>
       </c>
       <c r="H63" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I63" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
   </sheetData>
@@ -9040,27 +9264,27 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D2" t="s">
         <v>247</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>248</v>
-      </c>
-      <c r="D2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E2" t="s">
-        <v>250</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -9072,24 +9296,24 @@
         <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3" t="s">
         <v>252</v>
-      </c>
-      <c r="C3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E3" t="s">
-        <v>254</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -9101,24 +9325,24 @@
         <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E4" t="s">
         <v>256</v>
-      </c>
-      <c r="C4" t="s">
-        <v>257</v>
-      </c>
-      <c r="D4" t="s">
-        <v>249</v>
-      </c>
-      <c r="E4" t="s">
-        <v>258</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -9130,24 +9354,24 @@
         <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -9159,24 +9383,24 @@
         <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -9188,24 +9412,24 @@
         <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -9217,24 +9441,24 @@
         <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
@@ -9246,24 +9470,24 @@
         <v>18</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C9" t="s">
+        <v>271</v>
+      </c>
+      <c r="D9" t="s">
+        <v>247</v>
+      </c>
+      <c r="E9" t="s">
         <v>272</v>
-      </c>
-      <c r="C9" t="s">
-        <v>273</v>
-      </c>
-      <c r="D9" t="s">
-        <v>249</v>
-      </c>
-      <c r="E9" t="s">
-        <v>274</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -9275,24 +9499,24 @@
         <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B10" t="s">
+        <v>274</v>
+      </c>
+      <c r="C10" t="s">
+        <v>275</v>
+      </c>
+      <c r="D10" t="s">
+        <v>247</v>
+      </c>
+      <c r="E10" t="s">
         <v>276</v>
-      </c>
-      <c r="C10" t="s">
-        <v>277</v>
-      </c>
-      <c r="D10" t="s">
-        <v>249</v>
-      </c>
-      <c r="E10" t="s">
-        <v>278</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
@@ -9304,24 +9528,24 @@
         <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -9333,24 +9557,24 @@
         <v>18</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B12" t="s">
+        <v>281</v>
+      </c>
+      <c r="C12" t="s">
+        <v>282</v>
+      </c>
+      <c r="D12" t="s">
+        <v>247</v>
+      </c>
+      <c r="E12" t="s">
         <v>283</v>
-      </c>
-      <c r="C12" t="s">
-        <v>284</v>
-      </c>
-      <c r="D12" t="s">
-        <v>249</v>
-      </c>
-      <c r="E12" t="s">
-        <v>285</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -9362,24 +9586,24 @@
         <v>18</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B13" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
@@ -9391,24 +9615,24 @@
         <v>18</v>
       </c>
       <c r="I13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B14" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E14" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
@@ -9420,24 +9644,24 @@
         <v>18</v>
       </c>
       <c r="I14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B15" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E15" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
@@ -9449,24 +9673,24 @@
         <v>18</v>
       </c>
       <c r="I15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B16" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
@@ -9478,21 +9702,21 @@
         <v>18</v>
       </c>
       <c r="I16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B17" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -9501,24 +9725,24 @@
         <v>17</v>
       </c>
       <c r="H17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B18" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -9527,24 +9751,24 @@
         <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B19" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
@@ -9553,27 +9777,27 @@
         <v>17</v>
       </c>
       <c r="H19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B20" t="s">
+        <v>306</v>
+      </c>
+      <c r="C20" t="s">
+        <v>307</v>
+      </c>
+      <c r="D20" t="s">
         <v>308</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>309</v>
-      </c>
-      <c r="D20" t="s">
-        <v>310</v>
-      </c>
-      <c r="E20" t="s">
-        <v>311</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
@@ -9585,24 +9809,24 @@
         <v>18</v>
       </c>
       <c r="I20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B21" t="s">
+        <v>311</v>
+      </c>
+      <c r="C21" t="s">
+        <v>312</v>
+      </c>
+      <c r="D21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E21" t="s">
         <v>313</v>
-      </c>
-      <c r="C21" t="s">
-        <v>314</v>
-      </c>
-      <c r="D21" t="s">
-        <v>310</v>
-      </c>
-      <c r="E21" t="s">
-        <v>315</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
@@ -9614,24 +9838,24 @@
         <v>18</v>
       </c>
       <c r="I21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B22" t="s">
+        <v>315</v>
+      </c>
+      <c r="C22" t="s">
+        <v>316</v>
+      </c>
+      <c r="D22" t="s">
+        <v>308</v>
+      </c>
+      <c r="E22" t="s">
         <v>317</v>
-      </c>
-      <c r="C22" t="s">
-        <v>318</v>
-      </c>
-      <c r="D22" t="s">
-        <v>310</v>
-      </c>
-      <c r="E22" t="s">
-        <v>319</v>
       </c>
       <c r="F22" t="s">
         <v>12</v>
@@ -9643,24 +9867,24 @@
         <v>18</v>
       </c>
       <c r="I22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B23" t="s">
+        <v>319</v>
+      </c>
+      <c r="C23" t="s">
+        <v>320</v>
+      </c>
+      <c r="D23" t="s">
+        <v>308</v>
+      </c>
+      <c r="E23" t="s">
         <v>321</v>
-      </c>
-      <c r="C23" t="s">
-        <v>322</v>
-      </c>
-      <c r="D23" t="s">
-        <v>310</v>
-      </c>
-      <c r="E23" t="s">
-        <v>323</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
@@ -9672,24 +9896,24 @@
         <v>18</v>
       </c>
       <c r="I23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B24" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E24" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F24" t="s">
         <v>12</v>
@@ -9701,24 +9925,24 @@
         <v>18</v>
       </c>
       <c r="I24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D25" t="s">
+        <v>308</v>
+      </c>
+      <c r="E25" t="s">
         <v>328</v>
-      </c>
-      <c r="C25" t="s">
-        <v>329</v>
-      </c>
-      <c r="D25" t="s">
-        <v>310</v>
-      </c>
-      <c r="E25" t="s">
-        <v>330</v>
       </c>
       <c r="F25" t="s">
         <v>12</v>
@@ -9730,24 +9954,24 @@
         <v>18</v>
       </c>
       <c r="I25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B26" t="s">
+        <v>330</v>
+      </c>
+      <c r="C26" t="s">
+        <v>331</v>
+      </c>
+      <c r="D26" t="s">
+        <v>308</v>
+      </c>
+      <c r="E26" t="s">
         <v>332</v>
-      </c>
-      <c r="C26" t="s">
-        <v>333</v>
-      </c>
-      <c r="D26" t="s">
-        <v>310</v>
-      </c>
-      <c r="E26" t="s">
-        <v>334</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
@@ -9759,24 +9983,24 @@
         <v>18</v>
       </c>
       <c r="I26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B27" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E27" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F27" t="s">
         <v>12</v>
@@ -9788,24 +10012,24 @@
         <v>18</v>
       </c>
       <c r="I27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B28" t="s">
+        <v>337</v>
+      </c>
+      <c r="C28" t="s">
+        <v>338</v>
+      </c>
+      <c r="D28" t="s">
+        <v>308</v>
+      </c>
+      <c r="E28" t="s">
         <v>339</v>
-      </c>
-      <c r="C28" t="s">
-        <v>340</v>
-      </c>
-      <c r="D28" t="s">
-        <v>310</v>
-      </c>
-      <c r="E28" t="s">
-        <v>341</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
@@ -9817,24 +10041,24 @@
         <v>18</v>
       </c>
       <c r="I28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B29" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D29" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E29" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F29" t="s">
         <v>12</v>
@@ -9846,24 +10070,24 @@
         <v>18</v>
       </c>
       <c r="I29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B30" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E30" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
@@ -9875,24 +10099,24 @@
         <v>18</v>
       </c>
       <c r="I30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B31" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C31" t="s">
         <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E31" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F31" t="s">
         <v>12</v>
@@ -9904,24 +10128,24 @@
         <v>18</v>
       </c>
       <c r="I31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B32" t="s">
+        <v>350</v>
+      </c>
+      <c r="C32" t="s">
+        <v>351</v>
+      </c>
+      <c r="D32" t="s">
+        <v>308</v>
+      </c>
+      <c r="E32" t="s">
         <v>352</v>
-      </c>
-      <c r="C32" t="s">
-        <v>353</v>
-      </c>
-      <c r="D32" t="s">
-        <v>310</v>
-      </c>
-      <c r="E32" t="s">
-        <v>354</v>
       </c>
       <c r="F32" t="s">
         <v>12</v>
@@ -9933,24 +10157,24 @@
         <v>18</v>
       </c>
       <c r="I32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B33" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C33" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D33" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E33" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
@@ -9962,24 +10186,24 @@
         <v>18</v>
       </c>
       <c r="I33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B34" t="s">
+        <v>357</v>
+      </c>
+      <c r="C34" t="s">
+        <v>358</v>
+      </c>
+      <c r="D34" t="s">
+        <v>308</v>
+      </c>
+      <c r="E34" t="s">
         <v>359</v>
-      </c>
-      <c r="C34" t="s">
-        <v>360</v>
-      </c>
-      <c r="D34" t="s">
-        <v>310</v>
-      </c>
-      <c r="E34" t="s">
-        <v>361</v>
       </c>
       <c r="F34" t="s">
         <v>12</v>
@@ -9991,24 +10215,24 @@
         <v>18</v>
       </c>
       <c r="I34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B35" t="s">
+        <v>361</v>
+      </c>
+      <c r="C35" t="s">
+        <v>362</v>
+      </c>
+      <c r="D35" t="s">
+        <v>308</v>
+      </c>
+      <c r="E35" t="s">
         <v>363</v>
-      </c>
-      <c r="C35" t="s">
-        <v>364</v>
-      </c>
-      <c r="D35" t="s">
-        <v>310</v>
-      </c>
-      <c r="E35" t="s">
-        <v>365</v>
       </c>
       <c r="F35" t="s">
         <v>12</v>
@@ -10020,24 +10244,24 @@
         <v>18</v>
       </c>
       <c r="I35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B36" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D36" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E36" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F36" t="s">
         <v>12</v>
@@ -10049,24 +10273,24 @@
         <v>18</v>
       </c>
       <c r="I36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B37" t="s">
+        <v>368</v>
+      </c>
+      <c r="C37" t="s">
+        <v>369</v>
+      </c>
+      <c r="D37" t="s">
+        <v>308</v>
+      </c>
+      <c r="E37" t="s">
         <v>370</v>
-      </c>
-      <c r="C37" t="s">
-        <v>371</v>
-      </c>
-      <c r="D37" t="s">
-        <v>310</v>
-      </c>
-      <c r="E37" t="s">
-        <v>372</v>
       </c>
       <c r="F37" t="s">
         <v>12</v>
@@ -10078,24 +10302,24 @@
         <v>18</v>
       </c>
       <c r="I37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B38" t="s">
+        <v>372</v>
+      </c>
+      <c r="C38" t="s">
+        <v>373</v>
+      </c>
+      <c r="D38" t="s">
+        <v>308</v>
+      </c>
+      <c r="E38" t="s">
         <v>374</v>
-      </c>
-      <c r="C38" t="s">
-        <v>375</v>
-      </c>
-      <c r="D38" t="s">
-        <v>310</v>
-      </c>
-      <c r="E38" t="s">
-        <v>376</v>
       </c>
       <c r="F38" t="s">
         <v>12</v>
@@ -10107,24 +10331,24 @@
         <v>18</v>
       </c>
       <c r="I38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B39" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D39" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E39" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F39" t="s">
         <v>12</v>
@@ -10136,24 +10360,24 @@
         <v>18</v>
       </c>
       <c r="I39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B40" t="s">
+        <v>379</v>
+      </c>
+      <c r="C40" t="s">
+        <v>380</v>
+      </c>
+      <c r="D40" t="s">
+        <v>308</v>
+      </c>
+      <c r="E40" t="s">
         <v>381</v>
-      </c>
-      <c r="C40" t="s">
-        <v>382</v>
-      </c>
-      <c r="D40" t="s">
-        <v>310</v>
-      </c>
-      <c r="E40" t="s">
-        <v>383</v>
       </c>
       <c r="F40" t="s">
         <v>12</v>
@@ -10165,24 +10389,24 @@
         <v>18</v>
       </c>
       <c r="I40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B41" t="s">
+        <v>383</v>
+      </c>
+      <c r="C41" t="s">
+        <v>384</v>
+      </c>
+      <c r="D41" t="s">
+        <v>308</v>
+      </c>
+      <c r="E41" t="s">
         <v>385</v>
-      </c>
-      <c r="C41" t="s">
-        <v>386</v>
-      </c>
-      <c r="D41" t="s">
-        <v>310</v>
-      </c>
-      <c r="E41" t="s">
-        <v>387</v>
       </c>
       <c r="F41" t="s">
         <v>12</v>
@@ -10194,22 +10418,22 @@
         <v>18</v>
       </c>
       <c r="I41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B42" t="s">
+        <v>387</v>
+      </c>
+      <c r="C42" t="s">
+        <v>388</v>
+      </c>
+      <c r="E42" t="s">
         <v>389</v>
       </c>
-      <c r="C42" t="s">
-        <v>390</v>
-      </c>
-      <c r="E42" t="s">
-        <v>391</v>
-      </c>
       <c r="F42" t="s">
         <v>9</v>
       </c>
@@ -10217,25 +10441,25 @@
         <v>17</v>
       </c>
       <c r="H42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I42" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B43" t="s">
+        <v>391</v>
+      </c>
+      <c r="C43" t="s">
+        <v>392</v>
+      </c>
+      <c r="E43" t="s">
         <v>393</v>
       </c>
-      <c r="C43" t="s">
-        <v>394</v>
-      </c>
-      <c r="E43" t="s">
-        <v>395</v>
-      </c>
       <c r="F43" t="s">
         <v>9</v>
       </c>
@@ -10243,25 +10467,25 @@
         <v>17</v>
       </c>
       <c r="H43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I43" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B44" t="s">
+        <v>395</v>
+      </c>
+      <c r="C44" t="s">
+        <v>396</v>
+      </c>
+      <c r="E44" t="s">
         <v>397</v>
       </c>
-      <c r="C44" t="s">
-        <v>398</v>
-      </c>
-      <c r="E44" t="s">
-        <v>399</v>
-      </c>
       <c r="F44" t="s">
         <v>9</v>
       </c>
@@ -10269,24 +10493,24 @@
         <v>17</v>
       </c>
       <c r="H44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I44" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B45" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E45" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F45" t="s">
         <v>9</v>
@@ -10295,27 +10519,27 @@
         <v>17</v>
       </c>
       <c r="H45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I45" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B46" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C46" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D46" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E46" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F46" t="s">
         <v>12</v>
@@ -10327,21 +10551,21 @@
         <v>18</v>
       </c>
       <c r="I46" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B47" t="s">
+        <v>405</v>
+      </c>
+      <c r="C47" t="s">
+        <v>406</v>
+      </c>
+      <c r="E47" t="s">
         <v>407</v>
-      </c>
-      <c r="C47" t="s">
-        <v>408</v>
-      </c>
-      <c r="E47" t="s">
-        <v>409</v>
       </c>
       <c r="F47" t="s">
         <v>12</v>
@@ -10350,24 +10574,24 @@
         <v>17</v>
       </c>
       <c r="H47" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I47" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B48" t="s">
+        <v>410</v>
+      </c>
+      <c r="C48" t="s">
+        <v>411</v>
+      </c>
+      <c r="E48" t="s">
         <v>412</v>
-      </c>
-      <c r="C48" t="s">
-        <v>413</v>
-      </c>
-      <c r="E48" t="s">
-        <v>414</v>
       </c>
       <c r="F48" t="s">
         <v>12</v>
@@ -10376,25 +10600,25 @@
         <v>17</v>
       </c>
       <c r="H48" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B49" t="s">
+        <v>414</v>
+      </c>
+      <c r="C49" t="s">
+        <v>415</v>
+      </c>
+      <c r="E49" t="s">
         <v>416</v>
       </c>
-      <c r="C49" t="s">
-        <v>417</v>
-      </c>
-      <c r="E49" t="s">
-        <v>418</v>
-      </c>
       <c r="F49" t="s">
         <v>9</v>
       </c>
@@ -10402,25 +10626,25 @@
         <v>17</v>
       </c>
       <c r="H49" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B50" t="s">
+        <v>418</v>
+      </c>
+      <c r="C50" t="s">
+        <v>419</v>
+      </c>
+      <c r="E50" t="s">
         <v>420</v>
       </c>
-      <c r="C50" t="s">
-        <v>421</v>
-      </c>
-      <c r="E50" t="s">
-        <v>422</v>
-      </c>
       <c r="F50" t="s">
         <v>9</v>
       </c>
@@ -10428,25 +10652,25 @@
         <v>17</v>
       </c>
       <c r="H50" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I50" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B51" t="s">
+        <v>422</v>
+      </c>
+      <c r="C51" t="s">
+        <v>423</v>
+      </c>
+      <c r="E51" t="s">
         <v>424</v>
       </c>
-      <c r="C51" t="s">
-        <v>425</v>
-      </c>
-      <c r="E51" t="s">
-        <v>426</v>
-      </c>
       <c r="F51" t="s">
         <v>9</v>
       </c>
@@ -10454,25 +10678,25 @@
         <v>17</v>
       </c>
       <c r="H51" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I51" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B52" t="s">
+        <v>426</v>
+      </c>
+      <c r="C52" t="s">
+        <v>427</v>
+      </c>
+      <c r="E52" t="s">
         <v>428</v>
       </c>
-      <c r="C52" t="s">
-        <v>429</v>
-      </c>
-      <c r="E52" t="s">
-        <v>430</v>
-      </c>
       <c r="F52" t="s">
         <v>9</v>
       </c>
@@ -10480,25 +10704,25 @@
         <v>17</v>
       </c>
       <c r="H52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I52" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B53" t="s">
+        <v>430</v>
+      </c>
+      <c r="C53" t="s">
+        <v>431</v>
+      </c>
+      <c r="E53" t="s">
         <v>432</v>
       </c>
-      <c r="C53" t="s">
-        <v>433</v>
-      </c>
-      <c r="E53" t="s">
-        <v>434</v>
-      </c>
       <c r="F53" t="s">
         <v>9</v>
       </c>
@@ -10506,25 +10730,25 @@
         <v>17</v>
       </c>
       <c r="H53" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I53" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B54" t="s">
+        <v>434</v>
+      </c>
+      <c r="C54" t="s">
+        <v>435</v>
+      </c>
+      <c r="E54" t="s">
         <v>436</v>
       </c>
-      <c r="C54" t="s">
-        <v>437</v>
-      </c>
-      <c r="E54" t="s">
-        <v>438</v>
-      </c>
       <c r="F54" t="s">
         <v>9</v>
       </c>
@@ -10532,24 +10756,24 @@
         <v>17</v>
       </c>
       <c r="H54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I54" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B55" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C55" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E55" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F55" t="s">
         <v>9</v>
@@ -10558,374 +10782,374 @@
         <v>17</v>
       </c>
       <c r="H55" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I55" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
+        <v>444</v>
+      </c>
+      <c r="B56" t="s">
+        <v>441</v>
+      </c>
+      <c r="C56" t="s">
+        <v>442</v>
+      </c>
+      <c r="E56" t="s">
+        <v>443</v>
+      </c>
+      <c r="F56" t="s">
+        <v>445</v>
+      </c>
+      <c r="G56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" t="s">
         <v>446</v>
       </c>
-      <c r="B56" t="s">
-        <v>443</v>
-      </c>
-      <c r="C56" t="s">
-        <v>444</v>
-      </c>
-      <c r="E56" t="s">
-        <v>445</v>
-      </c>
-      <c r="F56" t="s">
+      <c r="I56" t="s">
         <v>447</v>
-      </c>
-      <c r="G56" t="s">
-        <v>17</v>
-      </c>
-      <c r="H56" t="s">
-        <v>448</v>
-      </c>
-      <c r="I56" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B57" t="s">
+        <v>448</v>
+      </c>
+      <c r="C57" t="s">
+        <v>449</v>
+      </c>
+      <c r="E57" t="s">
         <v>450</v>
       </c>
-      <c r="C57" t="s">
-        <v>451</v>
-      </c>
-      <c r="E57" t="s">
-        <v>452</v>
-      </c>
       <c r="F57" t="s">
+        <v>445</v>
+      </c>
+      <c r="G57" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" t="s">
+        <v>446</v>
+      </c>
+      <c r="I57" t="s">
         <v>447</v>
-      </c>
-      <c r="G57" t="s">
-        <v>17</v>
-      </c>
-      <c r="H57" t="s">
-        <v>448</v>
-      </c>
-      <c r="I57" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B58" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C58" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E58" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F58" t="s">
+        <v>445</v>
+      </c>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" t="s">
+        <v>446</v>
+      </c>
+      <c r="I58" t="s">
         <v>447</v>
-      </c>
-      <c r="G58" t="s">
-        <v>17</v>
-      </c>
-      <c r="H58" t="s">
-        <v>448</v>
-      </c>
-      <c r="I58" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B59" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C59" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E59" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F59" t="s">
+        <v>445</v>
+      </c>
+      <c r="G59" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" t="s">
+        <v>446</v>
+      </c>
+      <c r="I59" t="s">
         <v>447</v>
-      </c>
-      <c r="G59" t="s">
-        <v>17</v>
-      </c>
-      <c r="H59" t="s">
-        <v>448</v>
-      </c>
-      <c r="I59" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B60" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C60" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F60" t="s">
+        <v>445</v>
+      </c>
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" t="s">
+        <v>446</v>
+      </c>
+      <c r="I60" t="s">
         <v>447</v>
-      </c>
-      <c r="G60" t="s">
-        <v>17</v>
-      </c>
-      <c r="H60" t="s">
-        <v>448</v>
-      </c>
-      <c r="I60" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B61" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C61" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E61" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F61" t="s">
+        <v>445</v>
+      </c>
+      <c r="G61" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61" t="s">
+        <v>446</v>
+      </c>
+      <c r="I61" t="s">
         <v>447</v>
-      </c>
-      <c r="G61" t="s">
-        <v>17</v>
-      </c>
-      <c r="H61" t="s">
-        <v>448</v>
-      </c>
-      <c r="I61" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B62" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C62" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E62" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F62" t="s">
+        <v>445</v>
+      </c>
+      <c r="G62" t="s">
+        <v>17</v>
+      </c>
+      <c r="H62" t="s">
+        <v>446</v>
+      </c>
+      <c r="I62" t="s">
         <v>447</v>
-      </c>
-      <c r="G62" t="s">
-        <v>17</v>
-      </c>
-      <c r="H62" t="s">
-        <v>448</v>
-      </c>
-      <c r="I62" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B63" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C63" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E63" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F63" t="s">
+        <v>445</v>
+      </c>
+      <c r="G63" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" t="s">
+        <v>446</v>
+      </c>
+      <c r="I63" t="s">
         <v>447</v>
-      </c>
-      <c r="G63" t="s">
-        <v>17</v>
-      </c>
-      <c r="H63" t="s">
-        <v>448</v>
-      </c>
-      <c r="I63" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B64" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C64" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E64" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F64" t="s">
+        <v>445</v>
+      </c>
+      <c r="G64" t="s">
+        <v>17</v>
+      </c>
+      <c r="H64" t="s">
+        <v>446</v>
+      </c>
+      <c r="I64" t="s">
         <v>447</v>
-      </c>
-      <c r="G64" t="s">
-        <v>17</v>
-      </c>
-      <c r="H64" t="s">
-        <v>448</v>
-      </c>
-      <c r="I64" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B65" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C65" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E65" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F65" t="s">
+        <v>445</v>
+      </c>
+      <c r="G65" t="s">
+        <v>17</v>
+      </c>
+      <c r="H65" t="s">
+        <v>446</v>
+      </c>
+      <c r="I65" t="s">
         <v>447</v>
-      </c>
-      <c r="G65" t="s">
-        <v>17</v>
-      </c>
-      <c r="H65" t="s">
-        <v>448</v>
-      </c>
-      <c r="I65" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B66" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C66" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E66" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F66" t="s">
+        <v>445</v>
+      </c>
+      <c r="G66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" t="s">
+        <v>446</v>
+      </c>
+      <c r="I66" t="s">
         <v>447</v>
-      </c>
-      <c r="G66" t="s">
-        <v>17</v>
-      </c>
-      <c r="H66" t="s">
-        <v>448</v>
-      </c>
-      <c r="I66" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B67" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C67" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E67" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F67" t="s">
+        <v>445</v>
+      </c>
+      <c r="G67" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" t="s">
+        <v>446</v>
+      </c>
+      <c r="I67" t="s">
         <v>447</v>
-      </c>
-      <c r="G67" t="s">
-        <v>17</v>
-      </c>
-      <c r="H67" t="s">
-        <v>448</v>
-      </c>
-      <c r="I67" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B68" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C68" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E68" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F68" t="s">
+        <v>445</v>
+      </c>
+      <c r="G68" t="s">
+        <v>17</v>
+      </c>
+      <c r="H68" t="s">
+        <v>446</v>
+      </c>
+      <c r="I68" t="s">
         <v>447</v>
-      </c>
-      <c r="G68" t="s">
-        <v>17</v>
-      </c>
-      <c r="H68" t="s">
-        <v>448</v>
-      </c>
-      <c r="I68" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B69" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C69" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E69" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F69" t="s">
+        <v>445</v>
+      </c>
+      <c r="G69" t="s">
+        <v>17</v>
+      </c>
+      <c r="H69" t="s">
+        <v>446</v>
+      </c>
+      <c r="I69" t="s">
         <v>447</v>
-      </c>
-      <c r="G69" t="s">
-        <v>17</v>
-      </c>
-      <c r="H69" t="s">
-        <v>448</v>
-      </c>
-      <c r="I69" t="s">
-        <v>449</v>
       </c>
     </row>
   </sheetData>

--- a/INTLINE/data/548/548_series.xlsx
+++ b/INTLINE/data/548/548_series.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\INTLINE\INTLINE\data\548\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EF6815-88CB-43B1-A9A4-1B0B285825B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90FD9A6-9493-46D1-9FEA-08FA648864D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B68BB0FD-AD3D-42A0-9C57-96D74DA36CEE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B68BB0FD-AD3D-42A0-9C57-96D74DA36CEE}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2099" uniqueCount="866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2111" uniqueCount="871">
   <si>
     <t>Short Label</t>
   </si>
@@ -3932,12 +3932,30 @@
   <si>
     <t>Balance of Payments (BPM6)</t>
   </si>
+  <si>
+    <t>Federal Government Operating Expenditure by Object</t>
+  </si>
+  <si>
+    <t>External</t>
+  </si>
+  <si>
+    <t>Total</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Domestic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>External</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <name val="新細明體"/>
@@ -3975,6 +3993,11 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3993,10 +4016,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -4008,7 +4032,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Normal_viii1" xfId="1" xr:uid="{4B6326E7-D1A6-4373-8828-12873E21C719}"/>
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4323,11 +4348,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21907536-F8BB-4874-B78F-BC5B07C3E3E5}">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="I41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J54" sqref="J54"/>
+      <selection pane="bottomRight" activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6037,6 +6062,12 @@
       <c r="I53" t="s">
         <v>93</v>
       </c>
+      <c r="J53" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>868</v>
+      </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
@@ -6063,6 +6094,12 @@
       <c r="I54" t="s">
         <v>93</v>
       </c>
+      <c r="J54" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>869</v>
+      </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
@@ -6088,6 +6125,12 @@
       </c>
       <c r="I55" t="s">
         <v>93</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -7218,11 +7261,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0BF0E5-28A9-419F-B3DB-02F6C04BE47A}">
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="I14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomRight" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8163,6 +8206,12 @@
       <c r="I29" t="s">
         <v>93</v>
       </c>
+      <c r="J29" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
@@ -8189,6 +8238,12 @@
       <c r="I30" t="s">
         <v>93</v>
       </c>
+      <c r="J30" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
@@ -8214,6 +8269,12 @@
       </c>
       <c r="I31" t="s">
         <v>93</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="32" spans="1:11">

--- a/INTLINE/data/548/548_series.xlsx
+++ b/INTLINE/data/548/548_series.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\INTLINE\INTLINE\data\548\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90FD9A6-9493-46D1-9FEA-08FA648864D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DAD402-1336-4B02-851B-C47BBE3E2CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B68BB0FD-AD3D-42A0-9C57-96D74DA36CEE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B68BB0FD-AD3D-42A0-9C57-96D74DA36CEE}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2111" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2135" uniqueCount="884">
   <si>
     <t>Short Label</t>
   </si>
@@ -3948,6 +3948,52 @@
   </si>
   <si>
     <t>External</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Federal Government Debt</t>
+  </si>
+  <si>
+    <t>Federal Government Finance</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expenditure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Surplus / deficit(-)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Domestic debt</t>
+  </si>
+  <si>
+    <t>Domestic debt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>External debt</t>
+  </si>
+  <si>
+    <t>External debt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales tax</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Federal Government Revenue</t>
+  </si>
+  <si>
+    <t>Public Sector Operations</t>
+  </si>
+  <si>
+    <t>Operating Expenditure</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4349,10 +4395,10 @@
   <dimension ref="A1:K91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K53" sqref="K53"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6158,6 +6204,12 @@
       <c r="I56" t="s">
         <v>93</v>
       </c>
+      <c r="J56" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>883</v>
+      </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" t="s">
@@ -6184,6 +6236,12 @@
       <c r="I57" t="s">
         <v>93</v>
       </c>
+      <c r="J57" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" t="s">
@@ -6210,6 +6268,12 @@
       <c r="I58" t="s">
         <v>93</v>
       </c>
+      <c r="J58" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
@@ -6236,6 +6300,12 @@
       <c r="I59" t="s">
         <v>93</v>
       </c>
+      <c r="J59" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>876</v>
+      </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" t="s">
@@ -6262,6 +6332,12 @@
       <c r="I60" t="s">
         <v>93</v>
       </c>
+      <c r="J60" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>878</v>
+      </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" t="s">
@@ -6288,6 +6364,12 @@
       <c r="I61" t="s">
         <v>93</v>
       </c>
+      <c r="J61" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>880</v>
+      </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" t="s">
@@ -7250,7 +7332,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K91" xr:uid="{21907536-F8BB-4874-B78F-BC5B07C3E3E5}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7261,11 +7342,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0BF0E5-28A9-419F-B3DB-02F6C04BE47A}">
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I14" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J32" sqref="J32"/>
+      <selection pane="bottomRight" activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7279,7 +7360,8 @@
     <col min="7" max="7" width="21.5" customWidth="1"/>
     <col min="8" max="8" width="16.125" customWidth="1"/>
     <col min="9" max="9" width="28" customWidth="1"/>
-    <col min="10" max="11" width="9" style="3"/>
+    <col min="10" max="10" width="44.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -8302,6 +8384,12 @@
       <c r="I32" t="s">
         <v>93</v>
       </c>
+      <c r="J32" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
@@ -8328,6 +8416,12 @@
       <c r="I33" t="s">
         <v>93</v>
       </c>
+      <c r="J33" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>874</v>
+      </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
@@ -8354,6 +8448,12 @@
       <c r="I34" t="s">
         <v>93</v>
       </c>
+      <c r="J34" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>875</v>
+      </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
@@ -8380,6 +8480,12 @@
       <c r="I35" t="s">
         <v>93</v>
       </c>
+      <c r="J35" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
@@ -8406,6 +8512,12 @@
       <c r="I36" t="s">
         <v>93</v>
       </c>
+      <c r="J36" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
@@ -8431,6 +8543,12 @@
       </c>
       <c r="I37" t="s">
         <v>93</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -9275,11 +9393,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545265A3-06C8-4C6B-86A0-E4BF7A47D645}">
   <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/INTLINE/data/548/548_series.xlsx
+++ b/INTLINE/data/548/548_series.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\INTLINE\INTLINE\data\548\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DAD402-1336-4B02-851B-C47BBE3E2CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD8FED7-7B39-42EA-B75A-BD1C19B5A951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B68BB0FD-AD3D-42A0-9C57-96D74DA36CEE}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2135" uniqueCount="884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="908">
   <si>
     <t>Short Label</t>
   </si>
@@ -3994,6 +3994,98 @@
   </si>
   <si>
     <t>Operating Expenditure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consumer Price Index</t>
+  </si>
+  <si>
+    <t>Food and non-alcoholic beverages</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alcoholic beverages and tobacco</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clothing and footwear</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Housing, water, electricity, gas and other fuels</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Furnishings, household equipment and routine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Health</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transport</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Communication</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recreation services and culture</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Education</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Miscellaneous goods and services</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tab1Msia</t>
+  </si>
+  <si>
+    <t>Durable Goods</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Semi-Durable Goods</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-Durable Goods</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>External Trade</t>
+  </si>
+  <si>
+    <t>Gross exports (f.o.b.)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gross imports (c.i.f.)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trade balance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malaysian Economic Indicators</t>
+  </si>
+  <si>
+    <t>Coincident Index (CI)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leading Index (LI)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lagging Index (LG)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -9394,10 +9486,10 @@
   <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9477,6 +9569,12 @@
       <c r="I2" t="s">
         <v>38</v>
       </c>
+      <c r="J2" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
@@ -9506,6 +9604,12 @@
       <c r="I3" t="s">
         <v>38</v>
       </c>
+      <c r="J3" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>886</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
@@ -9535,6 +9639,12 @@
       <c r="I4" t="s">
         <v>38</v>
       </c>
+      <c r="J4" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>887</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
@@ -9564,6 +9674,12 @@
       <c r="I5" t="s">
         <v>38</v>
       </c>
+      <c r="J5" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>888</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
@@ -9593,6 +9709,12 @@
       <c r="I6" t="s">
         <v>38</v>
       </c>
+      <c r="J6" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>889</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
@@ -9622,6 +9744,12 @@
       <c r="I7" t="s">
         <v>38</v>
       </c>
+      <c r="J7" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>890</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
@@ -9651,6 +9779,12 @@
       <c r="I8" t="s">
         <v>38</v>
       </c>
+      <c r="J8" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>891</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
@@ -9680,6 +9814,12 @@
       <c r="I9" t="s">
         <v>38</v>
       </c>
+      <c r="J9" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>892</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
@@ -9709,6 +9849,12 @@
       <c r="I10" t="s">
         <v>38</v>
       </c>
+      <c r="J10" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>893</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
@@ -9738,6 +9884,12 @@
       <c r="I11" t="s">
         <v>38</v>
       </c>
+      <c r="J11" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
@@ -9767,6 +9919,12 @@
       <c r="I12" t="s">
         <v>38</v>
       </c>
+      <c r="J12" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>895</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
@@ -9796,6 +9954,12 @@
       <c r="I13" t="s">
         <v>38</v>
       </c>
+      <c r="J13" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>897</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
@@ -9825,6 +9989,12 @@
       <c r="I14" t="s">
         <v>38</v>
       </c>
+      <c r="J14" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>898</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
@@ -9854,6 +10024,12 @@
       <c r="I15" t="s">
         <v>38</v>
       </c>
+      <c r="J15" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>899</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
@@ -9883,8 +10059,14 @@
       <c r="I16" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>299</v>
       </c>
@@ -9909,8 +10091,14 @@
       <c r="I17" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>302</v>
       </c>
@@ -9935,8 +10123,14 @@
       <c r="I18" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>305</v>
       </c>
@@ -9961,8 +10155,14 @@
       <c r="I19" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>310</v>
       </c>
@@ -9990,8 +10190,14 @@
       <c r="I20" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>314</v>
       </c>
@@ -10019,8 +10225,14 @@
       <c r="I21" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>318</v>
       </c>
@@ -10048,8 +10260,14 @@
       <c r="I22" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>322</v>
       </c>
@@ -10078,7 +10296,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>325</v>
       </c>
@@ -10107,7 +10325,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>329</v>
       </c>
@@ -10136,7 +10354,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>333</v>
       </c>
@@ -10165,7 +10383,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>336</v>
       </c>
@@ -10194,7 +10412,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>340</v>
       </c>
@@ -10223,7 +10441,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>343</v>
       </c>
@@ -10252,7 +10470,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>346</v>
       </c>
@@ -10281,7 +10499,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>349</v>
       </c>
@@ -10310,7 +10528,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>353</v>
       </c>
@@ -11334,5 +11552,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/INTLINE/data/548/548_series.xlsx
+++ b/INTLINE/data/548/548_series.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\INTLINE\INTLINE\data\548\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD8FED7-7B39-42EA-B75A-BD1C19B5A951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8642169-40DE-4F3D-B7E9-84723DFB9B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B68BB0FD-AD3D-42A0-9C57-96D74DA36CEE}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2225" uniqueCount="935">
   <si>
     <t>Short Label</t>
   </si>
@@ -1272,9 +1272,6 @@
 Notes: Data prior to January 2010 is calculated by IHS Economics</t>
   </si>
   <si>
-    <t>MYSCPI0010.M</t>
-  </si>
-  <si>
     <t>Prices, Consumer Price Index, CPI: Education (2010), NSA - Malaysia</t>
   </si>
   <si>
@@ -1482,9 +1479,6 @@
 Notes: Data prior to January 2015 is calculated by IHS Economics.</t>
   </si>
   <si>
-    <t>MYSIP0010.M</t>
-  </si>
-  <si>
     <t>Industry, Industrial Production Index, Export Oriented Industries, Primary Related Cluster, Chemicals and Chemical Products (2015), NSA - Malaysia</t>
   </si>
   <si>
@@ -1662,9 +1656,6 @@
 Notes: Data prior to 2015 January is calculated by IHS Economics.</t>
   </si>
   <si>
-    <t>MYSIPI0010.M</t>
-  </si>
-  <si>
     <t>Industry, Industrial Production Index, Manufacture of Products of Wood, Cork, Straw and Plaiting Materials (2015), NSA - Malaysia</t>
   </si>
   <si>
@@ -2151,9 +2142,6 @@
 Notes: The data prior to 2010 July refers to Malaysia Standard Industrial Classification, MSIC 2000.</t>
   </si>
   <si>
-    <t>MYSVSI0010.M</t>
-  </si>
-  <si>
     <t>Labour Market, Registered Vacancies and Placements, Real Estate Activities, NSA - Malaysia</t>
   </si>
   <si>
@@ -4087,6 +4075,120 @@
   <si>
     <t>Lagging Index (LG)</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Industrial Production Index</t>
+  </si>
+  <si>
+    <t>MYSCPI0010a.M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MYSIP0010a.M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MYSIPI0010a.M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MYSVSI0010a.M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mining</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>ExportElectronicTotal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExportPrimaryChemicals and chemical products</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExportPrimaryTextiles wearing apparel and footwear</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExportPrimaryOff-estate processing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DomesticConsumerFood products</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>All divisions</t>
+  </si>
+  <si>
+    <t>DomesticConstructionIron and steel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jadual IPP</t>
+  </si>
+  <si>
+    <t>Manufacture of other fabricated metal products; metal working service activities</t>
+  </si>
+  <si>
+    <t>Manufacture of beverages</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manufacture of tobacco products</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manufacture of products of wood, cork, straw and plaiting materials</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manufacture of paper and paper products</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manufacture of refined petroleum products</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manufacture of rubber products</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manufacture of non-metallic mineral products n.e.c.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manufacture of transport equipment n.e.c.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monetary Aggregates</t>
+  </si>
+  <si>
+    <t>Currency  in Circulation</t>
+  </si>
+  <si>
+    <t>M3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Narrow Quasi-Money</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Currency in Circulation by Denomination</t>
+  </si>
+  <si>
+    <t>Producer Price Index - Local Production</t>
   </si>
 </sst>
 </file>
@@ -4545,22 +4647,22 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C2" t="s">
+        <v>485</v>
+      </c>
+      <c r="E2" t="s">
+        <v>486</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
         <v>488</v>
-      </c>
-      <c r="C2" t="s">
-        <v>489</v>
-      </c>
-      <c r="E2" t="s">
-        <v>490</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>492</v>
       </c>
       <c r="H2" t="s">
         <v>43</v>
@@ -4569,30 +4671,30 @@
         <v>38</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B3" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C3" t="s">
         <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H3" t="s">
         <v>43</v>
@@ -4601,30 +4703,30 @@
         <v>38</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B4" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C4" t="s">
         <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H4" t="s">
         <v>43</v>
@@ -4633,7 +4735,7 @@
         <v>38</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>21</v>
@@ -4641,22 +4743,22 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B5" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C5" t="s">
         <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H5" t="s">
         <v>43</v>
@@ -4665,30 +4767,30 @@
         <v>38</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B6" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C6" t="s">
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H6" t="s">
         <v>43</v>
@@ -4697,30 +4799,30 @@
         <v>38</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="E7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H7" t="s">
         <v>43</v>
@@ -4729,30 +4831,30 @@
         <v>38</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="B8" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C8" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="E8" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H8" t="s">
         <v>43</v>
@@ -4761,30 +4863,30 @@
         <v>38</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B9" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C9" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="E9" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H9" t="s">
         <v>43</v>
@@ -4793,30 +4895,30 @@
         <v>38</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B10" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H10" t="s">
         <v>43</v>
@@ -4825,30 +4927,30 @@
         <v>38</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B11" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C11" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="E11" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H11" t="s">
         <v>43</v>
@@ -4857,30 +4959,30 @@
         <v>38</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="B12" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C12" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E12" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H12" t="s">
         <v>43</v>
@@ -4889,30 +4991,30 @@
         <v>38</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B13" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C13" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E13" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H13" t="s">
         <v>43</v>
@@ -4921,30 +5023,30 @@
         <v>38</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B14" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C14" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E14" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
       </c>
       <c r="G14" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H14" t="s">
         <v>43</v>
@@ -4953,30 +5055,30 @@
         <v>38</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B15" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C15" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E15" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
       </c>
       <c r="G15" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H15" t="s">
         <v>43</v>
@@ -4985,30 +5087,30 @@
         <v>38</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="B16" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C16" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E16" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
       </c>
       <c r="G16" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H16" t="s">
         <v>43</v>
@@ -5017,30 +5119,30 @@
         <v>38</v>
       </c>
       <c r="J16" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="K16" s="3" t="s">
         <v>773</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B17" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C17" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E17" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H17" t="s">
         <v>43</v>
@@ -5049,30 +5151,30 @@
         <v>38</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B18" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C18" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E18" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
       </c>
       <c r="G18" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H18" t="s">
         <v>43</v>
@@ -5081,30 +5183,30 @@
         <v>38</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B19" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C19" t="s">
+        <v>538</v>
+      </c>
+      <c r="E19" t="s">
         <v>542</v>
       </c>
-      <c r="E19" t="s">
-        <v>546</v>
-      </c>
       <c r="F19" t="s">
         <v>9</v>
       </c>
       <c r="G19" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H19" t="s">
         <v>43</v>
@@ -5113,126 +5215,126 @@
         <v>38</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H20" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="I20" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="J20" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="K20" s="3" t="s">
         <v>859</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B21" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H21" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="I21" t="s">
         <v>38</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B22" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H22" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="I22" t="s">
         <v>38</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B23" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H23" t="s">
         <v>13</v>
@@ -5241,30 +5343,30 @@
         <v>38</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B24" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C24" t="s">
         <v>40</v>
       </c>
       <c r="E24" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
       </c>
       <c r="G24" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H24" t="s">
         <v>43</v>
@@ -5273,30 +5375,30 @@
         <v>38</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B25" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C25" t="s">
         <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
       </c>
       <c r="G25" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H25" t="s">
         <v>43</v>
@@ -5305,30 +5407,30 @@
         <v>38</v>
       </c>
       <c r="J25" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="K25" s="3" t="s">
         <v>786</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B26" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
       </c>
       <c r="G26" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H26" t="s">
         <v>43</v>
@@ -5337,30 +5439,30 @@
         <v>38</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B27" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C27" t="s">
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
       </c>
       <c r="G27" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H27" t="s">
         <v>43</v>
@@ -5369,30 +5471,30 @@
         <v>38</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B28" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C28" t="s">
         <v>55</v>
       </c>
       <c r="E28" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
       </c>
       <c r="G28" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H28" t="s">
         <v>43</v>
@@ -5401,30 +5503,30 @@
         <v>38</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B29" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C29" t="s">
         <v>59</v>
       </c>
       <c r="E29" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
       </c>
       <c r="G29" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H29" t="s">
         <v>43</v>
@@ -5433,30 +5535,30 @@
         <v>38</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B30" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C30" t="s">
         <v>63</v>
       </c>
       <c r="E30" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="F30" t="s">
         <v>9</v>
       </c>
       <c r="G30" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H30" t="s">
         <v>43</v>
@@ -5465,30 +5567,30 @@
         <v>38</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B31" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C31" t="s">
         <v>67</v>
       </c>
       <c r="E31" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F31" t="s">
         <v>9</v>
       </c>
       <c r="G31" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H31" t="s">
         <v>43</v>
@@ -5497,30 +5599,30 @@
         <v>38</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="B32" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C32" t="s">
         <v>71</v>
       </c>
       <c r="E32" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
       </c>
       <c r="G32" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H32" t="s">
         <v>43</v>
@@ -5529,30 +5631,30 @@
         <v>38</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B33" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C33" t="s">
         <v>74</v>
       </c>
       <c r="E33" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
       </c>
       <c r="G33" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H33" t="s">
         <v>43</v>
@@ -5561,30 +5663,30 @@
         <v>38</v>
       </c>
       <c r="J33" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="K33" s="3" t="s">
         <v>835</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B34" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C34" t="s">
         <v>78</v>
       </c>
       <c r="E34" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F34" t="s">
         <v>9</v>
       </c>
       <c r="G34" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H34" t="s">
         <v>43</v>
@@ -5593,30 +5695,30 @@
         <v>38</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B35" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C35" t="s">
         <v>82</v>
       </c>
       <c r="E35" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="F35" t="s">
         <v>9</v>
       </c>
       <c r="G35" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H35" t="s">
         <v>43</v>
@@ -5625,30 +5727,30 @@
         <v>38</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B36" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="C36" t="s">
         <v>86</v>
       </c>
       <c r="E36" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
       </c>
       <c r="G36" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H36" t="s">
         <v>43</v>
@@ -5657,62 +5759,62 @@
         <v>38</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B37" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C37" t="s">
         <v>90</v>
       </c>
       <c r="E37" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="F37" t="s">
         <v>9</v>
       </c>
       <c r="G37" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H37" t="s">
         <v>43</v>
       </c>
       <c r="I37" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B38" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C38" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="E38" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="F38" t="s">
         <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H38" t="s">
         <v>43</v>
@@ -5721,30 +5823,30 @@
         <v>93</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B39" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C39" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="E39" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="F39" t="s">
         <v>9</v>
       </c>
       <c r="G39" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H39" t="s">
         <v>43</v>
@@ -5753,30 +5855,30 @@
         <v>93</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B40" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C40" t="s">
         <v>95</v>
       </c>
       <c r="E40" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="F40" t="s">
         <v>9</v>
       </c>
       <c r="G40" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H40" t="s">
         <v>43</v>
@@ -5785,30 +5887,30 @@
         <v>93</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B41" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C41" t="s">
         <v>95</v>
       </c>
       <c r="E41" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
       </c>
       <c r="G41" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H41" t="s">
         <v>43</v>
@@ -5817,30 +5919,30 @@
         <v>93</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B42" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C42" t="s">
         <v>102</v>
       </c>
       <c r="E42" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F42" t="s">
         <v>9</v>
       </c>
       <c r="G42" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H42" t="s">
         <v>43</v>
@@ -5849,30 +5951,30 @@
         <v>93</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B43" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C43" t="s">
         <v>106</v>
       </c>
       <c r="E43" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="F43" t="s">
         <v>9</v>
       </c>
       <c r="G43" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H43" t="s">
         <v>43</v>
@@ -5881,30 +5983,30 @@
         <v>93</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B44" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C44" t="s">
         <v>110</v>
       </c>
       <c r="E44" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="F44" t="s">
         <v>9</v>
       </c>
       <c r="G44" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H44" t="s">
         <v>43</v>
@@ -5913,30 +6015,30 @@
         <v>93</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B45" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C45" t="s">
         <v>110</v>
       </c>
       <c r="E45" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="F45" t="s">
         <v>9</v>
       </c>
       <c r="G45" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H45" t="s">
         <v>43</v>
@@ -5945,30 +6047,30 @@
         <v>93</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B46" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C46" t="s">
         <v>117</v>
       </c>
       <c r="E46" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="F46" t="s">
         <v>9</v>
       </c>
       <c r="G46" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H46" t="s">
         <v>43</v>
@@ -5977,30 +6079,30 @@
         <v>93</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B47" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="C47" t="s">
         <v>117</v>
       </c>
       <c r="E47" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="F47" t="s">
         <v>9</v>
       </c>
       <c r="G47" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H47" t="s">
         <v>43</v>
@@ -6009,30 +6111,30 @@
         <v>93</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B48" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C48" t="s">
         <v>123</v>
       </c>
       <c r="E48" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
       </c>
       <c r="G48" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H48" t="s">
         <v>43</v>
@@ -6041,30 +6143,30 @@
         <v>93</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="B49" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="C49" t="s">
         <v>127</v>
       </c>
       <c r="E49" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
       </c>
       <c r="G49" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H49" t="s">
         <v>43</v>
@@ -6073,30 +6175,30 @@
         <v>93</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B50" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="C50" t="s">
         <v>131</v>
       </c>
       <c r="E50" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="F50" t="s">
         <v>9</v>
       </c>
       <c r="G50" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H50" t="s">
         <v>43</v>
@@ -6105,30 +6207,30 @@
         <v>93</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B51" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C51" t="s">
         <v>131</v>
       </c>
       <c r="E51" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="F51" t="s">
         <v>9</v>
       </c>
       <c r="G51" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H51" t="s">
         <v>43</v>
@@ -6137,62 +6239,62 @@
         <v>93</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B52" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="C52" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="E52" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="F52" t="s">
         <v>11</v>
       </c>
       <c r="G52" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H52" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="I52" t="s">
         <v>93</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B53" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C53" t="s">
         <v>16</v>
       </c>
       <c r="E53" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="F53" t="s">
         <v>9</v>
       </c>
       <c r="G53" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H53" t="s">
         <v>43</v>
@@ -6201,30 +6303,30 @@
         <v>93</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B54" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C54" t="s">
         <v>16</v>
       </c>
       <c r="E54" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
       </c>
       <c r="G54" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H54" t="s">
         <v>43</v>
@@ -6233,30 +6335,30 @@
         <v>93</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B55" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C55" t="s">
         <v>16</v>
       </c>
       <c r="E55" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="F55" t="s">
         <v>9</v>
       </c>
       <c r="G55" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H55" t="s">
         <v>43</v>
@@ -6265,30 +6367,30 @@
         <v>93</v>
       </c>
       <c r="J55" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="K55" s="3" t="s">
         <v>866</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B56" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C56" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E56" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F56" t="s">
         <v>9</v>
       </c>
       <c r="G56" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H56" t="s">
         <v>43</v>
@@ -6297,30 +6399,30 @@
         <v>93</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B57" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="C57" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E57" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="F57" t="s">
         <v>9</v>
       </c>
       <c r="G57" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H57" t="s">
         <v>43</v>
@@ -6329,30 +6431,30 @@
         <v>93</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B58" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="C58" t="s">
         <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="F58" t="s">
         <v>9</v>
       </c>
       <c r="G58" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H58" t="s">
         <v>43</v>
@@ -6361,7 +6463,7 @@
         <v>93</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>10</v>
@@ -6369,22 +6471,22 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B59" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C59" t="s">
         <v>162</v>
       </c>
       <c r="E59" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="F59" t="s">
         <v>9</v>
       </c>
       <c r="G59" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H59" t="s">
         <v>43</v>
@@ -6393,30 +6495,30 @@
         <v>93</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="B60" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="C60" t="s">
         <v>166</v>
       </c>
       <c r="E60" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="F60" t="s">
         <v>9</v>
       </c>
       <c r="G60" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H60" t="s">
         <v>43</v>
@@ -6425,30 +6527,30 @@
         <v>93</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B61" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="C61" t="s">
         <v>16</v>
       </c>
       <c r="E61" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="F61" t="s">
         <v>9</v>
       </c>
       <c r="G61" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H61" t="s">
         <v>43</v>
@@ -6457,30 +6559,30 @@
         <v>93</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B62" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C62" t="s">
         <v>40</v>
       </c>
       <c r="E62" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="F62" t="s">
         <v>9</v>
       </c>
       <c r="G62" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H62" t="s">
         <v>43</v>
@@ -6489,30 +6591,30 @@
         <v>38</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B63" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C63" t="s">
         <v>45</v>
       </c>
       <c r="E63" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F63" t="s">
         <v>9</v>
       </c>
       <c r="G63" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H63" t="s">
         <v>43</v>
@@ -6521,30 +6623,30 @@
         <v>38</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B64" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
       </c>
       <c r="E64" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="F64" t="s">
         <v>9</v>
       </c>
       <c r="G64" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H64" t="s">
         <v>43</v>
@@ -6553,30 +6655,30 @@
         <v>38</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B65" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C65" t="s">
         <v>15</v>
       </c>
       <c r="E65" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="F65" t="s">
         <v>9</v>
       </c>
       <c r="G65" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H65" t="s">
         <v>43</v>
@@ -6585,30 +6687,30 @@
         <v>38</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B66" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="C66" t="s">
         <v>55</v>
       </c>
       <c r="E66" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="F66" t="s">
         <v>9</v>
       </c>
       <c r="G66" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H66" t="s">
         <v>43</v>
@@ -6617,30 +6719,30 @@
         <v>38</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B67" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="C67" t="s">
         <v>59</v>
       </c>
       <c r="E67" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="F67" t="s">
         <v>9</v>
       </c>
       <c r="G67" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H67" t="s">
         <v>43</v>
@@ -6649,30 +6751,30 @@
         <v>38</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B68" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C68" t="s">
         <v>63</v>
       </c>
       <c r="E68" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="F68" t="s">
         <v>9</v>
       </c>
       <c r="G68" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H68" t="s">
         <v>43</v>
@@ -6681,30 +6783,30 @@
         <v>38</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B69" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="C69" t="s">
         <v>67</v>
       </c>
       <c r="E69" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="F69" t="s">
         <v>9</v>
       </c>
       <c r="G69" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H69" t="s">
         <v>43</v>
@@ -6713,30 +6815,30 @@
         <v>38</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="B70" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="C70" t="s">
         <v>71</v>
       </c>
       <c r="E70" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F70" t="s">
         <v>9</v>
       </c>
       <c r="G70" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H70" t="s">
         <v>43</v>
@@ -6745,30 +6847,30 @@
         <v>38</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B71" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="C71" t="s">
         <v>74</v>
       </c>
       <c r="E71" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="F71" t="s">
         <v>9</v>
       </c>
       <c r="G71" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H71" t="s">
         <v>43</v>
@@ -6777,30 +6879,30 @@
         <v>38</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B72" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="C72" t="s">
         <v>78</v>
       </c>
       <c r="E72" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="F72" t="s">
         <v>9</v>
       </c>
       <c r="G72" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H72" t="s">
         <v>43</v>
@@ -6809,30 +6911,30 @@
         <v>38</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B73" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C73" t="s">
         <v>82</v>
       </c>
       <c r="E73" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="F73" t="s">
         <v>9</v>
       </c>
       <c r="G73" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H73" t="s">
         <v>43</v>
@@ -6841,30 +6943,30 @@
         <v>38</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B74" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C74" t="s">
         <v>86</v>
       </c>
       <c r="E74" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="F74" t="s">
         <v>9</v>
       </c>
       <c r="G74" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H74" t="s">
         <v>43</v>
@@ -6873,30 +6975,30 @@
         <v>38</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B75" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="C75" t="s">
         <v>90</v>
       </c>
       <c r="E75" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="F75" t="s">
         <v>9</v>
       </c>
       <c r="G75" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H75" t="s">
         <v>43</v>
@@ -6905,30 +7007,30 @@
         <v>93</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="B76" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C76" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="E76" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="F76" t="s">
         <v>9</v>
       </c>
       <c r="G76" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H76" t="s">
         <v>43</v>
@@ -6937,30 +7039,30 @@
         <v>93</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="B77" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="C77" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="E77" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="F77" t="s">
         <v>9</v>
       </c>
       <c r="G77" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H77" t="s">
         <v>43</v>
@@ -6969,30 +7071,30 @@
         <v>93</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B78" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="C78" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="E78" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="F78" t="s">
         <v>9</v>
       </c>
       <c r="G78" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H78" t="s">
         <v>43</v>
@@ -7001,30 +7103,30 @@
         <v>93</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="B79" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C79" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="E79" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="F79" t="s">
         <v>9</v>
       </c>
       <c r="G79" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H79" t="s">
         <v>43</v>
@@ -7033,30 +7135,30 @@
         <v>93</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="B80" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="C80" t="s">
         <v>95</v>
       </c>
       <c r="E80" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="F80" t="s">
         <v>9</v>
       </c>
       <c r="G80" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H80" t="s">
         <v>43</v>
@@ -7065,30 +7167,30 @@
         <v>93</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="B81" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="C81" t="s">
         <v>95</v>
       </c>
       <c r="E81" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="F81" t="s">
         <v>9</v>
       </c>
       <c r="G81" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H81" t="s">
         <v>43</v>
@@ -7097,30 +7199,30 @@
         <v>93</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="B82" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="C82" t="s">
         <v>102</v>
       </c>
       <c r="E82" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="F82" t="s">
         <v>9</v>
       </c>
       <c r="G82" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H82" t="s">
         <v>43</v>
@@ -7129,30 +7231,30 @@
         <v>93</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="B83" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C83" t="s">
         <v>106</v>
       </c>
       <c r="E83" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="F83" t="s">
         <v>9</v>
       </c>
       <c r="G83" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H83" t="s">
         <v>43</v>
@@ -7161,30 +7263,30 @@
         <v>93</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="B84" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="C84" t="s">
         <v>110</v>
       </c>
       <c r="E84" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="F84" t="s">
         <v>9</v>
       </c>
       <c r="G84" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H84" t="s">
         <v>43</v>
@@ -7193,30 +7295,30 @@
         <v>93</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="B85" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="C85" t="s">
         <v>110</v>
       </c>
       <c r="E85" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="F85" t="s">
         <v>9</v>
       </c>
       <c r="G85" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H85" t="s">
         <v>43</v>
@@ -7225,30 +7327,30 @@
         <v>93</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="B86" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="C86" t="s">
         <v>117</v>
       </c>
       <c r="E86" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="F86" t="s">
         <v>9</v>
       </c>
       <c r="G86" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H86" t="s">
         <v>43</v>
@@ -7257,30 +7359,30 @@
         <v>93</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="B87" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="C87" t="s">
         <v>117</v>
       </c>
       <c r="E87" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="F87" t="s">
         <v>9</v>
       </c>
       <c r="G87" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H87" t="s">
         <v>43</v>
@@ -7289,30 +7391,30 @@
         <v>93</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="B88" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="C88" t="s">
         <v>123</v>
       </c>
       <c r="E88" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="F88" t="s">
         <v>9</v>
       </c>
       <c r="G88" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H88" t="s">
         <v>43</v>
@@ -7321,30 +7423,30 @@
         <v>93</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B89" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="C89" t="s">
         <v>127</v>
       </c>
       <c r="E89" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="F89" t="s">
         <v>9</v>
       </c>
       <c r="G89" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H89" t="s">
         <v>43</v>
@@ -7353,30 +7455,30 @@
         <v>93</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="B90" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="C90" t="s">
         <v>131</v>
       </c>
       <c r="E90" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="F90" t="s">
         <v>9</v>
       </c>
       <c r="G90" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H90" t="s">
         <v>43</v>
@@ -7385,30 +7487,30 @@
         <v>93</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="B91" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="C91" t="s">
         <v>131</v>
       </c>
       <c r="E91" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="F91" t="s">
         <v>9</v>
       </c>
       <c r="G91" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H91" t="s">
         <v>43</v>
@@ -7417,10 +7519,10 @@
         <v>93</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
   </sheetData>
@@ -7496,7 +7598,7 @@
         <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="C2" t="s">
         <v>35</v>
@@ -7517,7 +7619,7 @@
         <v>38</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>35</v>
@@ -7549,10 +7651,10 @@
         <v>38</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -7581,10 +7683,10 @@
         <v>38</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -7613,10 +7715,10 @@
         <v>38</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -7645,10 +7747,10 @@
         <v>38</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -7677,10 +7779,10 @@
         <v>38</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -7709,10 +7811,10 @@
         <v>38</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -7741,10 +7843,10 @@
         <v>38</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -7773,15 +7875,15 @@
         <v>38</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -7805,10 +7907,10 @@
         <v>38</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -7837,10 +7939,10 @@
         <v>38</v>
       </c>
       <c r="J12" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>835</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -7869,10 +7971,10 @@
         <v>38</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -7901,10 +8003,10 @@
         <v>38</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -7933,10 +8035,10 @@
         <v>38</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -7965,10 +8067,10 @@
         <v>93</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -7997,10 +8099,10 @@
         <v>93</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -8029,10 +8131,10 @@
         <v>93</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -8061,10 +8163,10 @@
         <v>93</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -8093,10 +8195,10 @@
         <v>93</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -8125,10 +8227,10 @@
         <v>93</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -8157,10 +8259,10 @@
         <v>93</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -8189,15 +8291,15 @@
         <v>93</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="B24" t="s">
         <v>120</v>
@@ -8221,10 +8323,10 @@
         <v>93</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -8253,10 +8355,10 @@
         <v>93</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -8285,10 +8387,10 @@
         <v>93</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -8317,10 +8419,10 @@
         <v>93</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -8349,10 +8451,10 @@
         <v>93</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -8381,7 +8483,7 @@
         <v>93</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>10</v>
@@ -8413,7 +8515,7 @@
         <v>93</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>162</v>
@@ -8445,10 +8547,10 @@
         <v>93</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -8477,10 +8579,10 @@
         <v>93</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -8509,10 +8611,10 @@
         <v>93</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -8541,10 +8643,10 @@
         <v>93</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -8573,7 +8675,7 @@
         <v>93</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>10</v>
@@ -8605,10 +8707,10 @@
         <v>93</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -8637,10 +8739,10 @@
         <v>93</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -8669,10 +8771,10 @@
         <v>38</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -8701,10 +8803,10 @@
         <v>38</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -8733,10 +8835,10 @@
         <v>38</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -8765,10 +8867,10 @@
         <v>38</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -8797,10 +8899,10 @@
         <v>38</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -8829,10 +8931,10 @@
         <v>38</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -8861,10 +8963,10 @@
         <v>38</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -8893,15 +8995,15 @@
         <v>38</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="B46" t="s">
         <v>193</v>
@@ -8925,10 +9027,10 @@
         <v>38</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -8957,10 +9059,10 @@
         <v>38</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -8989,10 +9091,10 @@
         <v>38</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -9021,10 +9123,10 @@
         <v>38</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -9053,10 +9155,10 @@
         <v>38</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -9085,10 +9187,10 @@
         <v>93</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -9117,10 +9219,10 @@
         <v>93</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -9149,10 +9251,10 @@
         <v>93</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -9181,10 +9283,10 @@
         <v>93</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -9213,15 +9315,15 @@
         <v>93</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B56" t="s">
         <v>222</v>
@@ -9245,10 +9347,10 @@
         <v>93</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -9277,10 +9379,10 @@
         <v>93</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -9309,10 +9411,10 @@
         <v>93</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -9341,10 +9443,10 @@
         <v>93</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -9373,10 +9475,10 @@
         <v>93</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -9405,10 +9507,10 @@
         <v>93</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -9437,10 +9539,10 @@
         <v>93</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -9469,10 +9571,10 @@
         <v>93</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
   </sheetData>
@@ -9486,16 +9588,16 @@
   <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
+      <selection pane="bottomRight" activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
-    <col min="2" max="2" width="67.625" customWidth="1"/>
+    <col min="2" max="2" width="97.125" customWidth="1"/>
     <col min="3" max="3" width="11.75" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="5" max="5" width="27.875" customWidth="1"/>
@@ -9570,10 +9672,10 @@
         <v>38</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -9605,10 +9707,10 @@
         <v>38</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -9640,10 +9742,10 @@
         <v>38</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -9675,10 +9777,10 @@
         <v>38</v>
       </c>
       <c r="J5" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>884</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -9710,10 +9812,10 @@
         <v>38</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -9745,10 +9847,10 @@
         <v>38</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -9780,10 +9882,10 @@
         <v>38</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -9815,15 +9917,15 @@
         <v>38</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>277</v>
+        <v>905</v>
       </c>
       <c r="B10" t="s">
         <v>274</v>
@@ -9850,18 +9952,18 @@
         <v>38</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
@@ -9870,7 +9972,7 @@
         <v>247</v>
       </c>
       <c r="E11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -9885,27 +9987,27 @@
         <v>38</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B12" t="s">
+        <v>280</v>
+      </c>
+      <c r="C12" t="s">
         <v>281</v>
-      </c>
-      <c r="C12" t="s">
-        <v>282</v>
       </c>
       <c r="D12" t="s">
         <v>247</v>
       </c>
       <c r="E12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -9920,18 +10022,18 @@
         <v>38</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
@@ -9940,7 +10042,7 @@
         <v>247</v>
       </c>
       <c r="E13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
@@ -9955,18 +10057,18 @@
         <v>38</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
@@ -9975,7 +10077,7 @@
         <v>247</v>
       </c>
       <c r="E14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
@@ -9990,18 +10092,18 @@
         <v>38</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
@@ -10010,7 +10112,7 @@
         <v>247</v>
       </c>
       <c r="E15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
@@ -10025,18 +10127,18 @@
         <v>38</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C16" t="s">
         <v>59</v>
@@ -10045,7 +10147,7 @@
         <v>247</v>
       </c>
       <c r="E16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
@@ -10060,24 +10162,24 @@
         <v>38</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -10092,24 +10194,24 @@
         <v>38</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C18" t="s">
         <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -10124,24 +10226,24 @@
         <v>38</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C19" t="s">
         <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
@@ -10156,27 +10258,27 @@
         <v>38</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B20" t="s">
+        <v>305</v>
+      </c>
+      <c r="C20" t="s">
         <v>306</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>307</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>308</v>
-      </c>
-      <c r="E20" t="s">
-        <v>309</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
@@ -10191,27 +10293,27 @@
         <v>38</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B21" t="s">
+        <v>310</v>
+      </c>
+      <c r="C21" t="s">
         <v>311</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>307</v>
+      </c>
+      <c r="E21" t="s">
         <v>312</v>
-      </c>
-      <c r="D21" t="s">
-        <v>308</v>
-      </c>
-      <c r="E21" t="s">
-        <v>313</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
@@ -10226,27 +10328,27 @@
         <v>38</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B22" t="s">
+        <v>314</v>
+      </c>
+      <c r="C22" t="s">
         <v>315</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>307</v>
+      </c>
+      <c r="E22" t="s">
         <v>316</v>
-      </c>
-      <c r="D22" t="s">
-        <v>308</v>
-      </c>
-      <c r="E22" t="s">
-        <v>317</v>
       </c>
       <c r="F22" t="s">
         <v>12</v>
@@ -10261,27 +10363,27 @@
         <v>38</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>322</v>
+        <v>906</v>
       </c>
       <c r="B23" t="s">
+        <v>318</v>
+      </c>
+      <c r="C23" t="s">
         <v>319</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
+        <v>307</v>
+      </c>
+      <c r="E23" t="s">
         <v>320</v>
-      </c>
-      <c r="D23" t="s">
-        <v>308</v>
-      </c>
-      <c r="E23" t="s">
-        <v>321</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
@@ -10295,22 +10397,28 @@
       <c r="I23" t="s">
         <v>93</v>
       </c>
+      <c r="J23" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>911</v>
+      </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B24" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C24" t="s">
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E24" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F24" t="s">
         <v>12</v>
@@ -10324,22 +10432,28 @@
       <c r="I24" t="s">
         <v>93</v>
       </c>
+      <c r="J24" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>912</v>
+      </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B25" t="s">
+        <v>324</v>
+      </c>
+      <c r="C25" t="s">
+        <v>325</v>
+      </c>
+      <c r="D25" t="s">
+        <v>307</v>
+      </c>
+      <c r="E25" t="s">
         <v>326</v>
-      </c>
-      <c r="C25" t="s">
-        <v>327</v>
-      </c>
-      <c r="D25" t="s">
-        <v>308</v>
-      </c>
-      <c r="E25" t="s">
-        <v>328</v>
       </c>
       <c r="F25" t="s">
         <v>12</v>
@@ -10353,22 +10467,28 @@
       <c r="I25" t="s">
         <v>93</v>
       </c>
+      <c r="J25" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B26" t="s">
+        <v>328</v>
+      </c>
+      <c r="C26" t="s">
+        <v>329</v>
+      </c>
+      <c r="D26" t="s">
+        <v>307</v>
+      </c>
+      <c r="E26" t="s">
         <v>330</v>
-      </c>
-      <c r="C26" t="s">
-        <v>331</v>
-      </c>
-      <c r="D26" t="s">
-        <v>308</v>
-      </c>
-      <c r="E26" t="s">
-        <v>332</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
@@ -10382,22 +10502,28 @@
       <c r="I26" t="s">
         <v>93</v>
       </c>
+      <c r="J26" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>914</v>
+      </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B27" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C27" t="s">
         <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E27" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F27" t="s">
         <v>12</v>
@@ -10411,22 +10537,28 @@
       <c r="I27" t="s">
         <v>93</v>
       </c>
+      <c r="J27" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>917</v>
+      </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B28" t="s">
+        <v>335</v>
+      </c>
+      <c r="C28" t="s">
+        <v>336</v>
+      </c>
+      <c r="D28" t="s">
+        <v>307</v>
+      </c>
+      <c r="E28" t="s">
         <v>337</v>
-      </c>
-      <c r="C28" t="s">
-        <v>338</v>
-      </c>
-      <c r="D28" t="s">
-        <v>308</v>
-      </c>
-      <c r="E28" t="s">
-        <v>339</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
@@ -10440,22 +10572,28 @@
       <c r="I28" t="s">
         <v>93</v>
       </c>
+      <c r="J28" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>915</v>
+      </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B29" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C29" t="s">
         <v>55</v>
       </c>
       <c r="D29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E29" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F29" t="s">
         <v>12</v>
@@ -10469,22 +10607,28 @@
       <c r="I29" t="s">
         <v>38</v>
       </c>
+      <c r="J29" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B30" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E30" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
@@ -10498,22 +10642,28 @@
       <c r="I30" t="s">
         <v>38</v>
       </c>
+      <c r="J30" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>909</v>
+      </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B31" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C31" t="s">
         <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E31" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F31" t="s">
         <v>12</v>
@@ -10527,22 +10677,28 @@
       <c r="I31" t="s">
         <v>38</v>
       </c>
+      <c r="J31" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B32" t="s">
+        <v>348</v>
+      </c>
+      <c r="C32" t="s">
+        <v>349</v>
+      </c>
+      <c r="D32" t="s">
+        <v>307</v>
+      </c>
+      <c r="E32" t="s">
         <v>350</v>
-      </c>
-      <c r="C32" t="s">
-        <v>351</v>
-      </c>
-      <c r="D32" t="s">
-        <v>308</v>
-      </c>
-      <c r="E32" t="s">
-        <v>352</v>
       </c>
       <c r="F32" t="s">
         <v>12</v>
@@ -10556,22 +10712,28 @@
       <c r="I32" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B33" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C33" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D33" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E33" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
@@ -10585,22 +10747,28 @@
       <c r="I33" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>360</v>
+        <v>907</v>
       </c>
       <c r="B34" t="s">
+        <v>355</v>
+      </c>
+      <c r="C34" t="s">
+        <v>356</v>
+      </c>
+      <c r="D34" t="s">
+        <v>307</v>
+      </c>
+      <c r="E34" t="s">
         <v>357</v>
-      </c>
-      <c r="C34" t="s">
-        <v>358</v>
-      </c>
-      <c r="D34" t="s">
-        <v>308</v>
-      </c>
-      <c r="E34" t="s">
-        <v>359</v>
       </c>
       <c r="F34" t="s">
         <v>12</v>
@@ -10614,22 +10782,28 @@
       <c r="I34" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B35" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C35" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D35" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E35" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F35" t="s">
         <v>12</v>
@@ -10643,22 +10817,28 @@
       <c r="I35" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B36" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C36" t="s">
         <v>26</v>
       </c>
       <c r="D36" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E36" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F36" t="s">
         <v>12</v>
@@ -10672,22 +10852,28 @@
       <c r="I36" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B37" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C37" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D37" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E37" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F37" t="s">
         <v>12</v>
@@ -10701,22 +10887,28 @@
       <c r="I37" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B38" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C38" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D38" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E38" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F38" t="s">
         <v>12</v>
@@ -10730,22 +10922,28 @@
       <c r="I38" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B39" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
       </c>
       <c r="D39" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E39" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F39" t="s">
         <v>12</v>
@@ -10759,22 +10957,28 @@
       <c r="I39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="J39" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B40" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C40" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D40" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E40" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F40" t="s">
         <v>12</v>
@@ -10788,22 +10992,28 @@
       <c r="I40" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="J40" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B41" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C41" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D41" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E41" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F41" t="s">
         <v>12</v>
@@ -10817,19 +11027,25 @@
       <c r="I41" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="J41" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B42" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C42" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E42" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F42" t="s">
         <v>9</v>
@@ -10843,19 +11059,25 @@
       <c r="I42" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B43" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C43" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E43" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F43" t="s">
         <v>9</v>
@@ -10869,19 +11091,25 @@
       <c r="I43" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="J43" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B44" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C44" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E44" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F44" t="s">
         <v>9</v>
@@ -10895,19 +11123,25 @@
       <c r="I44" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="J44" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B45" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C45" t="s">
         <v>32</v>
       </c>
       <c r="E45" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F45" t="s">
         <v>9</v>
@@ -10921,13 +11155,19 @@
       <c r="I45" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B46" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C46" t="s">
         <v>162</v>
@@ -10936,7 +11176,7 @@
         <v>247</v>
       </c>
       <c r="E46" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F46" t="s">
         <v>12</v>
@@ -10950,19 +11190,25 @@
       <c r="I46" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="J46" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B47" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C47" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E47" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F47" t="s">
         <v>12</v>
@@ -10971,24 +11217,24 @@
         <v>17</v>
       </c>
       <c r="H47" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="I47" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B48" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C48" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E48" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F48" t="s">
         <v>12</v>
@@ -10997,7 +11243,7 @@
         <v>17</v>
       </c>
       <c r="H48" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="I48" t="s">
         <v>93</v>
@@ -11005,16 +11251,16 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B49" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C49" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E49" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
@@ -11031,16 +11277,16 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B50" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C50" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E50" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F50" t="s">
         <v>9</v>
@@ -11057,16 +11303,16 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B51" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C51" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E51" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="F51" t="s">
         <v>9</v>
@@ -11083,16 +11329,16 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B52" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C52" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E52" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F52" t="s">
         <v>9</v>
@@ -11109,16 +11355,16 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B53" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C53" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E53" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="F53" t="s">
         <v>9</v>
@@ -11135,16 +11381,16 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B54" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C54" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E54" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
@@ -11161,16 +11407,16 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B55" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C55" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E55" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F55" t="s">
         <v>9</v>
@@ -11187,366 +11433,366 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
+        <v>441</v>
+      </c>
+      <c r="B56" t="s">
+        <v>438</v>
+      </c>
+      <c r="C56" t="s">
+        <v>439</v>
+      </c>
+      <c r="E56" t="s">
+        <v>440</v>
+      </c>
+      <c r="F56" t="s">
+        <v>442</v>
+      </c>
+      <c r="G56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" t="s">
+        <v>443</v>
+      </c>
+      <c r="I56" t="s">
         <v>444</v>
-      </c>
-      <c r="B56" t="s">
-        <v>441</v>
-      </c>
-      <c r="C56" t="s">
-        <v>442</v>
-      </c>
-      <c r="E56" t="s">
-        <v>443</v>
-      </c>
-      <c r="F56" t="s">
-        <v>445</v>
-      </c>
-      <c r="G56" t="s">
-        <v>17</v>
-      </c>
-      <c r="H56" t="s">
-        <v>446</v>
-      </c>
-      <c r="I56" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B57" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C57" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E57" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F57" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G57" t="s">
         <v>17</v>
       </c>
       <c r="H57" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I57" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B58" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C58" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E58" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F58" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G58" t="s">
         <v>17</v>
       </c>
       <c r="H58" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I58" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B59" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C59" t="s">
         <v>55</v>
       </c>
       <c r="E59" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="F59" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G59" t="s">
         <v>17</v>
       </c>
       <c r="H59" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I59" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B60" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C60" t="s">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F60" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G60" t="s">
         <v>17</v>
       </c>
       <c r="H60" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I60" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B61" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C61" t="s">
         <v>59</v>
       </c>
       <c r="E61" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F61" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G61" t="s">
         <v>17</v>
       </c>
       <c r="H61" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I61" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B62" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C62" t="s">
         <v>59</v>
       </c>
       <c r="E62" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F62" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G62" t="s">
         <v>17</v>
       </c>
       <c r="H62" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I62" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>469</v>
+        <v>908</v>
       </c>
       <c r="B63" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C63" t="s">
         <v>59</v>
       </c>
       <c r="E63" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F63" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G63" t="s">
         <v>17</v>
       </c>
       <c r="H63" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I63" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B64" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C64" t="s">
         <v>59</v>
       </c>
       <c r="E64" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F64" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G64" t="s">
         <v>17</v>
       </c>
       <c r="H64" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I64" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B65" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C65" t="s">
         <v>59</v>
       </c>
       <c r="E65" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="F65" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G65" t="s">
         <v>17</v>
       </c>
       <c r="H65" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I65" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B66" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C66" t="s">
         <v>59</v>
       </c>
       <c r="E66" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F66" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G66" t="s">
         <v>17</v>
       </c>
       <c r="H66" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I66" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B67" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C67" t="s">
         <v>59</v>
       </c>
       <c r="E67" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F67" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G67" t="s">
         <v>17</v>
       </c>
       <c r="H67" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I67" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B68" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C68" t="s">
         <v>59</v>
       </c>
       <c r="E68" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F68" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G68" t="s">
         <v>17</v>
       </c>
       <c r="H68" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I68" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B69" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C69" t="s">
         <v>59</v>
       </c>
       <c r="E69" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="F69" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G69" t="s">
         <v>17</v>
       </c>
       <c r="H69" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I69" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>

--- a/INTLINE/data/548/548_series.xlsx
+++ b/INTLINE/data/548/548_series.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\INTLINE\INTLINE\data\548\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8642169-40DE-4F3D-B7E9-84723DFB9B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD68ABE-E980-45D8-9784-D80C2802D7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B68BB0FD-AD3D-42A0-9C57-96D74DA36CEE}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2225" uniqueCount="935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2271" uniqueCount="953">
   <si>
     <t>Short Label</t>
   </si>
@@ -2010,9 +2010,6 @@
     <t>MYSVR0006.M</t>
   </si>
   <si>
-    <t>Labour Market, Registered Vacancies and Placements, Agriculture, Forestry and Fishing, NSA - Malaysia</t>
-  </si>
-  <si>
     <t>Agriculture, Forestry and Fishing</t>
   </si>
   <si>
@@ -2037,9 +2034,6 @@
     <t>Ministry of Human Resources (MOHR);Department of Statistics, Malaysia</t>
   </si>
   <si>
-    <t>Labour Market, Registered Vacancies and Placements, Mining and Quarrying, NSA - Malaysia</t>
-  </si>
-  <si>
     <t>Industry</t>
   </si>
   <si>
@@ -4189,6 +4183,75 @@
   </si>
   <si>
     <t>Producer Price Index - Local Production</t>
+  </si>
+  <si>
+    <t>Central Government Operations</t>
+  </si>
+  <si>
+    <t>Treasury Bills and Bank Negara Bills</t>
+  </si>
+  <si>
+    <t>Average discount rate on Treasury bills3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interbank Money Market</t>
+  </si>
+  <si>
+    <t>Weighted average interbank ratesOvernight moneyAvg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>External Reserves</t>
+  </si>
+  <si>
+    <t>Gold and foreign exchange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Special Drawing Rights</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMF reserves position</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Net international reserves</t>
+  </si>
+  <si>
+    <t>Ministry of Human Resources (MOHR);Department of Statistics, Malaysia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Labour Market, Registered Vacancies and Placements, Agriculture, Forestry and Fishing, NSA - Malaysia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Labour Market, Registered Vacancies and Placements, Mining and Quarrying, NSA - Malaysia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wholesale</t>
+  </si>
+  <si>
+    <t>Accomodation</t>
+  </si>
+  <si>
+    <t>Financial</t>
+  </si>
+  <si>
+    <t>Real</t>
+  </si>
+  <si>
+    <t>Human</t>
+  </si>
+  <si>
+    <t>GUNA TENAGA_Employment_MALAYSIA</t>
+  </si>
+  <si>
+    <t>extraterritorial</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4647,22 +4710,22 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C2" t="s">
+        <v>483</v>
+      </c>
+      <c r="E2" t="s">
         <v>484</v>
       </c>
-      <c r="C2" t="s">
-        <v>485</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
         <v>486</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>488</v>
       </c>
       <c r="H2" t="s">
         <v>43</v>
@@ -4671,30 +4734,30 @@
         <v>38</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C3" t="s">
         <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H3" t="s">
         <v>43</v>
@@ -4703,30 +4766,30 @@
         <v>38</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C4" t="s">
         <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H4" t="s">
         <v>43</v>
@@ -4735,7 +4798,7 @@
         <v>38</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>21</v>
@@ -4743,22 +4806,22 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C5" t="s">
         <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H5" t="s">
         <v>43</v>
@@ -4767,30 +4830,30 @@
         <v>38</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B6" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C6" t="s">
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H6" t="s">
         <v>43</v>
@@ -4799,30 +4862,30 @@
         <v>38</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B7" t="s">
+        <v>499</v>
+      </c>
+      <c r="C7" t="s">
+        <v>500</v>
+      </c>
+      <c r="E7" t="s">
         <v>501</v>
       </c>
-      <c r="C7" t="s">
-        <v>502</v>
-      </c>
-      <c r="E7" t="s">
-        <v>503</v>
-      </c>
       <c r="F7" t="s">
         <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H7" t="s">
         <v>43</v>
@@ -4831,30 +4894,30 @@
         <v>38</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B8" t="s">
+        <v>503</v>
+      </c>
+      <c r="C8" t="s">
+        <v>504</v>
+      </c>
+      <c r="E8" t="s">
         <v>505</v>
       </c>
-      <c r="C8" t="s">
-        <v>506</v>
-      </c>
-      <c r="E8" t="s">
-        <v>507</v>
-      </c>
       <c r="F8" t="s">
         <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H8" t="s">
         <v>43</v>
@@ -4863,30 +4926,30 @@
         <v>38</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B9" t="s">
+        <v>506</v>
+      </c>
+      <c r="C9" t="s">
+        <v>507</v>
+      </c>
+      <c r="E9" t="s">
         <v>508</v>
       </c>
-      <c r="C9" t="s">
-        <v>509</v>
-      </c>
-      <c r="E9" t="s">
-        <v>510</v>
-      </c>
       <c r="F9" t="s">
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H9" t="s">
         <v>43</v>
@@ -4895,30 +4958,30 @@
         <v>38</v>
       </c>
       <c r="J9" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>769</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H10" t="s">
         <v>43</v>
@@ -4927,30 +4990,30 @@
         <v>38</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B11" t="s">
+        <v>513</v>
+      </c>
+      <c r="C11" t="s">
+        <v>514</v>
+      </c>
+      <c r="E11" t="s">
         <v>515</v>
       </c>
-      <c r="C11" t="s">
-        <v>516</v>
-      </c>
-      <c r="E11" t="s">
-        <v>517</v>
-      </c>
       <c r="F11" t="s">
         <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H11" t="s">
         <v>43</v>
@@ -4959,30 +5022,30 @@
         <v>38</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B12" t="s">
+        <v>517</v>
+      </c>
+      <c r="C12" t="s">
+        <v>518</v>
+      </c>
+      <c r="E12" t="s">
         <v>519</v>
       </c>
-      <c r="C12" t="s">
-        <v>520</v>
-      </c>
-      <c r="E12" t="s">
-        <v>521</v>
-      </c>
       <c r="F12" t="s">
         <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H12" t="s">
         <v>43</v>
@@ -4991,30 +5054,30 @@
         <v>38</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B13" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C13" t="s">
         <v>424</v>
       </c>
       <c r="E13" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H13" t="s">
         <v>43</v>
@@ -5023,7 +5086,7 @@
         <v>38</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>424</v>
@@ -5031,22 +5094,22 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B14" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C14" t="s">
         <v>428</v>
       </c>
       <c r="E14" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
       </c>
       <c r="G14" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H14" t="s">
         <v>43</v>
@@ -5055,30 +5118,30 @@
         <v>38</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B15" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C15" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E15" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
       </c>
       <c r="G15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H15" t="s">
         <v>43</v>
@@ -5087,30 +5150,30 @@
         <v>38</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B16" t="s">
+        <v>529</v>
+      </c>
+      <c r="C16" t="s">
+        <v>530</v>
+      </c>
+      <c r="E16" t="s">
         <v>531</v>
       </c>
-      <c r="C16" t="s">
-        <v>532</v>
-      </c>
-      <c r="E16" t="s">
-        <v>533</v>
-      </c>
       <c r="F16" t="s">
         <v>9</v>
       </c>
       <c r="G16" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H16" t="s">
         <v>43</v>
@@ -5119,30 +5182,30 @@
         <v>38</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B17" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C17" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E17" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H17" t="s">
         <v>43</v>
@@ -5151,30 +5214,30 @@
         <v>38</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B18" t="s">
+        <v>535</v>
+      </c>
+      <c r="C18" t="s">
+        <v>536</v>
+      </c>
+      <c r="E18" t="s">
         <v>537</v>
       </c>
-      <c r="C18" t="s">
-        <v>538</v>
-      </c>
-      <c r="E18" t="s">
-        <v>539</v>
-      </c>
       <c r="F18" t="s">
         <v>9</v>
       </c>
       <c r="G18" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H18" t="s">
         <v>43</v>
@@ -5183,30 +5246,30 @@
         <v>38</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B19" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C19" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E19" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
       </c>
       <c r="G19" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H19" t="s">
         <v>43</v>
@@ -5215,126 +5278,126 @@
         <v>38</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B20" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H20" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I20" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B21" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H21" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I21" t="s">
         <v>38</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B22" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H22" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I22" t="s">
         <v>38</v>
       </c>
       <c r="J22" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>855</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B23" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H23" t="s">
         <v>13</v>
@@ -5343,30 +5406,30 @@
         <v>38</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B24" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C24" t="s">
         <v>40</v>
       </c>
       <c r="E24" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
       </c>
       <c r="G24" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H24" t="s">
         <v>43</v>
@@ -5375,30 +5438,30 @@
         <v>38</v>
       </c>
       <c r="J24" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="K24" s="3" t="s">
         <v>782</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B25" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C25" t="s">
         <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
       </c>
       <c r="G25" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H25" t="s">
         <v>43</v>
@@ -5407,30 +5470,30 @@
         <v>38</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B26" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
       </c>
       <c r="G26" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H26" t="s">
         <v>43</v>
@@ -5439,30 +5502,30 @@
         <v>38</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B27" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C27" t="s">
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
       </c>
       <c r="G27" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H27" t="s">
         <v>43</v>
@@ -5471,30 +5534,30 @@
         <v>38</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B28" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C28" t="s">
         <v>55</v>
       </c>
       <c r="E28" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
       </c>
       <c r="G28" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H28" t="s">
         <v>43</v>
@@ -5503,30 +5566,30 @@
         <v>38</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B29" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C29" t="s">
         <v>59</v>
       </c>
       <c r="E29" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
       </c>
       <c r="G29" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H29" t="s">
         <v>43</v>
@@ -5535,30 +5598,30 @@
         <v>38</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B30" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C30" t="s">
         <v>63</v>
       </c>
       <c r="E30" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F30" t="s">
         <v>9</v>
       </c>
       <c r="G30" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H30" t="s">
         <v>43</v>
@@ -5567,30 +5630,30 @@
         <v>38</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B31" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C31" t="s">
         <v>67</v>
       </c>
       <c r="E31" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F31" t="s">
         <v>9</v>
       </c>
       <c r="G31" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H31" t="s">
         <v>43</v>
@@ -5599,30 +5662,30 @@
         <v>38</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B32" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C32" t="s">
         <v>71</v>
       </c>
       <c r="E32" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
       </c>
       <c r="G32" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H32" t="s">
         <v>43</v>
@@ -5631,30 +5694,30 @@
         <v>38</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B33" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C33" t="s">
         <v>74</v>
       </c>
       <c r="E33" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
       </c>
       <c r="G33" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H33" t="s">
         <v>43</v>
@@ -5663,30 +5726,30 @@
         <v>38</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B34" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C34" t="s">
         <v>78</v>
       </c>
       <c r="E34" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F34" t="s">
         <v>9</v>
       </c>
       <c r="G34" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H34" t="s">
         <v>43</v>
@@ -5695,30 +5758,30 @@
         <v>38</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B35" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C35" t="s">
         <v>82</v>
       </c>
       <c r="E35" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F35" t="s">
         <v>9</v>
       </c>
       <c r="G35" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H35" t="s">
         <v>43</v>
@@ -5727,30 +5790,30 @@
         <v>38</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B36" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C36" t="s">
         <v>86</v>
       </c>
       <c r="E36" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
       </c>
       <c r="G36" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H36" t="s">
         <v>43</v>
@@ -5759,62 +5822,62 @@
         <v>38</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B37" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C37" t="s">
         <v>90</v>
       </c>
       <c r="E37" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F37" t="s">
         <v>9</v>
       </c>
       <c r="G37" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H37" t="s">
         <v>43</v>
       </c>
       <c r="I37" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B38" t="s">
+        <v>596</v>
+      </c>
+      <c r="C38" t="s">
+        <v>597</v>
+      </c>
+      <c r="E38" t="s">
         <v>598</v>
       </c>
-      <c r="C38" t="s">
-        <v>599</v>
-      </c>
-      <c r="E38" t="s">
-        <v>600</v>
-      </c>
       <c r="F38" t="s">
         <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H38" t="s">
         <v>43</v>
@@ -5823,30 +5886,30 @@
         <v>93</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B39" t="s">
+        <v>600</v>
+      </c>
+      <c r="C39" t="s">
+        <v>601</v>
+      </c>
+      <c r="E39" t="s">
         <v>602</v>
       </c>
-      <c r="C39" t="s">
-        <v>603</v>
-      </c>
-      <c r="E39" t="s">
-        <v>604</v>
-      </c>
       <c r="F39" t="s">
         <v>9</v>
       </c>
       <c r="G39" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H39" t="s">
         <v>43</v>
@@ -5855,30 +5918,30 @@
         <v>93</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B40" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C40" t="s">
         <v>95</v>
       </c>
       <c r="E40" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F40" t="s">
         <v>9</v>
       </c>
       <c r="G40" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H40" t="s">
         <v>43</v>
@@ -5887,30 +5950,30 @@
         <v>93</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B41" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C41" t="s">
         <v>95</v>
       </c>
       <c r="E41" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
       </c>
       <c r="G41" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H41" t="s">
         <v>43</v>
@@ -5919,30 +5982,30 @@
         <v>93</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B42" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C42" t="s">
         <v>102</v>
       </c>
       <c r="E42" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F42" t="s">
         <v>9</v>
       </c>
       <c r="G42" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H42" t="s">
         <v>43</v>
@@ -5951,30 +6014,30 @@
         <v>93</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B43" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C43" t="s">
         <v>106</v>
       </c>
       <c r="E43" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F43" t="s">
         <v>9</v>
       </c>
       <c r="G43" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H43" t="s">
         <v>43</v>
@@ -5983,30 +6046,30 @@
         <v>93</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B44" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C44" t="s">
         <v>110</v>
       </c>
       <c r="E44" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F44" t="s">
         <v>9</v>
       </c>
       <c r="G44" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H44" t="s">
         <v>43</v>
@@ -6015,30 +6078,30 @@
         <v>93</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B45" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C45" t="s">
         <v>110</v>
       </c>
       <c r="E45" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F45" t="s">
         <v>9</v>
       </c>
       <c r="G45" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H45" t="s">
         <v>43</v>
@@ -6047,30 +6110,30 @@
         <v>93</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B46" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C46" t="s">
         <v>117</v>
       </c>
       <c r="E46" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F46" t="s">
         <v>9</v>
       </c>
       <c r="G46" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H46" t="s">
         <v>43</v>
@@ -6079,30 +6142,30 @@
         <v>93</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B47" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C47" t="s">
         <v>117</v>
       </c>
       <c r="E47" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F47" t="s">
         <v>9</v>
       </c>
       <c r="G47" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H47" t="s">
         <v>43</v>
@@ -6111,30 +6174,30 @@
         <v>93</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B48" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C48" t="s">
         <v>123</v>
       </c>
       <c r="E48" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
       </c>
       <c r="G48" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H48" t="s">
         <v>43</v>
@@ -6143,30 +6206,30 @@
         <v>93</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B49" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C49" t="s">
         <v>127</v>
       </c>
       <c r="E49" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
       </c>
       <c r="G49" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H49" t="s">
         <v>43</v>
@@ -6175,30 +6238,30 @@
         <v>93</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B50" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C50" t="s">
         <v>131</v>
       </c>
       <c r="E50" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F50" t="s">
         <v>9</v>
       </c>
       <c r="G50" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H50" t="s">
         <v>43</v>
@@ -6207,30 +6270,30 @@
         <v>93</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B51" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C51" t="s">
         <v>131</v>
       </c>
       <c r="E51" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F51" t="s">
         <v>9</v>
       </c>
       <c r="G51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H51" t="s">
         <v>43</v>
@@ -6239,62 +6302,62 @@
         <v>93</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B52" t="s">
+        <v>639</v>
+      </c>
+      <c r="C52" t="s">
+        <v>640</v>
+      </c>
+      <c r="E52" t="s">
         <v>641</v>
-      </c>
-      <c r="C52" t="s">
-        <v>642</v>
-      </c>
-      <c r="E52" t="s">
-        <v>643</v>
       </c>
       <c r="F52" t="s">
         <v>11</v>
       </c>
       <c r="G52" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H52" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I52" t="s">
         <v>93</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B53" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C53" t="s">
         <v>16</v>
       </c>
       <c r="E53" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="F53" t="s">
         <v>9</v>
       </c>
       <c r="G53" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H53" t="s">
         <v>43</v>
@@ -6303,30 +6366,30 @@
         <v>93</v>
       </c>
       <c r="J53" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="K53" s="3" t="s">
         <v>862</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B54" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C54" t="s">
         <v>16</v>
       </c>
       <c r="E54" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
       </c>
       <c r="G54" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H54" t="s">
         <v>43</v>
@@ -6335,30 +6398,30 @@
         <v>93</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B55" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C55" t="s">
         <v>16</v>
       </c>
       <c r="E55" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F55" t="s">
         <v>9</v>
       </c>
       <c r="G55" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H55" t="s">
         <v>43</v>
@@ -6367,30 +6430,30 @@
         <v>93</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B56" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C56" t="s">
         <v>412</v>
       </c>
       <c r="E56" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F56" t="s">
         <v>9</v>
       </c>
       <c r="G56" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H56" t="s">
         <v>43</v>
@@ -6399,30 +6462,30 @@
         <v>93</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B57" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C57" t="s">
         <v>416</v>
       </c>
       <c r="E57" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F57" t="s">
         <v>9</v>
       </c>
       <c r="G57" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H57" t="s">
         <v>43</v>
@@ -6431,30 +6494,30 @@
         <v>93</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B58" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C58" t="s">
         <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F58" t="s">
         <v>9</v>
       </c>
       <c r="G58" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H58" t="s">
         <v>43</v>
@@ -6463,7 +6526,7 @@
         <v>93</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>10</v>
@@ -6471,22 +6534,22 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B59" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C59" t="s">
         <v>162</v>
       </c>
       <c r="E59" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F59" t="s">
         <v>9</v>
       </c>
       <c r="G59" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H59" t="s">
         <v>43</v>
@@ -6495,30 +6558,30 @@
         <v>93</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B60" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C60" t="s">
         <v>166</v>
       </c>
       <c r="E60" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F60" t="s">
         <v>9</v>
       </c>
       <c r="G60" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H60" t="s">
         <v>43</v>
@@ -6527,30 +6590,30 @@
         <v>93</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B61" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C61" t="s">
         <v>16</v>
       </c>
       <c r="E61" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="F61" t="s">
         <v>9</v>
       </c>
       <c r="G61" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H61" t="s">
         <v>43</v>
@@ -6559,30 +6622,30 @@
         <v>93</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B62" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C62" t="s">
         <v>40</v>
       </c>
       <c r="E62" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F62" t="s">
         <v>9</v>
       </c>
       <c r="G62" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H62" t="s">
         <v>43</v>
@@ -6591,30 +6654,30 @@
         <v>38</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B63" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C63" t="s">
         <v>45</v>
       </c>
       <c r="E63" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F63" t="s">
         <v>9</v>
       </c>
       <c r="G63" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H63" t="s">
         <v>43</v>
@@ -6623,30 +6686,30 @@
         <v>38</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B64" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
       </c>
       <c r="E64" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F64" t="s">
         <v>9</v>
       </c>
       <c r="G64" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H64" t="s">
         <v>43</v>
@@ -6655,30 +6718,30 @@
         <v>38</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B65" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C65" t="s">
         <v>15</v>
       </c>
       <c r="E65" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F65" t="s">
         <v>9</v>
       </c>
       <c r="G65" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H65" t="s">
         <v>43</v>
@@ -6687,30 +6750,30 @@
         <v>38</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B66" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C66" t="s">
         <v>55</v>
       </c>
       <c r="E66" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F66" t="s">
         <v>9</v>
       </c>
       <c r="G66" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H66" t="s">
         <v>43</v>
@@ -6719,30 +6782,30 @@
         <v>38</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B67" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C67" t="s">
         <v>59</v>
       </c>
       <c r="E67" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F67" t="s">
         <v>9</v>
       </c>
       <c r="G67" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H67" t="s">
         <v>43</v>
@@ -6751,30 +6814,30 @@
         <v>38</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B68" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C68" t="s">
         <v>63</v>
       </c>
       <c r="E68" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F68" t="s">
         <v>9</v>
       </c>
       <c r="G68" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H68" t="s">
         <v>43</v>
@@ -6783,30 +6846,30 @@
         <v>38</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B69" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C69" t="s">
         <v>67</v>
       </c>
       <c r="E69" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="F69" t="s">
         <v>9</v>
       </c>
       <c r="G69" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H69" t="s">
         <v>43</v>
@@ -6815,30 +6878,30 @@
         <v>38</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B70" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C70" t="s">
         <v>71</v>
       </c>
       <c r="E70" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F70" t="s">
         <v>9</v>
       </c>
       <c r="G70" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H70" t="s">
         <v>43</v>
@@ -6847,30 +6910,30 @@
         <v>38</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B71" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C71" t="s">
         <v>74</v>
       </c>
       <c r="E71" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F71" t="s">
         <v>9</v>
       </c>
       <c r="G71" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H71" t="s">
         <v>43</v>
@@ -6879,30 +6942,30 @@
         <v>38</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B72" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C72" t="s">
         <v>78</v>
       </c>
       <c r="E72" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="F72" t="s">
         <v>9</v>
       </c>
       <c r="G72" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H72" t="s">
         <v>43</v>
@@ -6911,30 +6974,30 @@
         <v>38</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B73" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C73" t="s">
         <v>82</v>
       </c>
       <c r="E73" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="F73" t="s">
         <v>9</v>
       </c>
       <c r="G73" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H73" t="s">
         <v>43</v>
@@ -6943,30 +7006,30 @@
         <v>38</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B74" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C74" t="s">
         <v>86</v>
       </c>
       <c r="E74" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F74" t="s">
         <v>9</v>
       </c>
       <c r="G74" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H74" t="s">
         <v>43</v>
@@ -6975,30 +7038,30 @@
         <v>38</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B75" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C75" t="s">
         <v>90</v>
       </c>
       <c r="E75" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F75" t="s">
         <v>9</v>
       </c>
       <c r="G75" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H75" t="s">
         <v>43</v>
@@ -7007,30 +7070,30 @@
         <v>93</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B76" t="s">
+        <v>711</v>
+      </c>
+      <c r="C76" t="s">
+        <v>712</v>
+      </c>
+      <c r="E76" t="s">
         <v>713</v>
       </c>
-      <c r="C76" t="s">
-        <v>714</v>
-      </c>
-      <c r="E76" t="s">
-        <v>715</v>
-      </c>
       <c r="F76" t="s">
         <v>9</v>
       </c>
       <c r="G76" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H76" t="s">
         <v>43</v>
@@ -7039,30 +7102,30 @@
         <v>93</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B77" t="s">
+        <v>715</v>
+      </c>
+      <c r="C77" t="s">
+        <v>716</v>
+      </c>
+      <c r="E77" t="s">
         <v>717</v>
       </c>
-      <c r="C77" t="s">
-        <v>718</v>
-      </c>
-      <c r="E77" t="s">
-        <v>719</v>
-      </c>
       <c r="F77" t="s">
         <v>9</v>
       </c>
       <c r="G77" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H77" t="s">
         <v>43</v>
@@ -7071,30 +7134,30 @@
         <v>93</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B78" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C78" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E78" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="F78" t="s">
         <v>9</v>
       </c>
       <c r="G78" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H78" t="s">
         <v>43</v>
@@ -7103,30 +7166,30 @@
         <v>93</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B79" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C79" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E79" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F79" t="s">
         <v>9</v>
       </c>
       <c r="G79" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H79" t="s">
         <v>43</v>
@@ -7135,30 +7198,30 @@
         <v>93</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B80" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C80" t="s">
         <v>95</v>
       </c>
       <c r="E80" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="F80" t="s">
         <v>9</v>
       </c>
       <c r="G80" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H80" t="s">
         <v>43</v>
@@ -7167,30 +7230,30 @@
         <v>93</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B81" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C81" t="s">
         <v>95</v>
       </c>
       <c r="E81" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F81" t="s">
         <v>9</v>
       </c>
       <c r="G81" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H81" t="s">
         <v>43</v>
@@ -7199,30 +7262,30 @@
         <v>93</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B82" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C82" t="s">
         <v>102</v>
       </c>
       <c r="E82" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="F82" t="s">
         <v>9</v>
       </c>
       <c r="G82" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H82" t="s">
         <v>43</v>
@@ -7231,30 +7294,30 @@
         <v>93</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B83" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C83" t="s">
         <v>106</v>
       </c>
       <c r="E83" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="F83" t="s">
         <v>9</v>
       </c>
       <c r="G83" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H83" t="s">
         <v>43</v>
@@ -7263,30 +7326,30 @@
         <v>93</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B84" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C84" t="s">
         <v>110</v>
       </c>
       <c r="E84" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F84" t="s">
         <v>9</v>
       </c>
       <c r="G84" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H84" t="s">
         <v>43</v>
@@ -7295,30 +7358,30 @@
         <v>93</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B85" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C85" t="s">
         <v>110</v>
       </c>
       <c r="E85" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="F85" t="s">
         <v>9</v>
       </c>
       <c r="G85" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H85" t="s">
         <v>43</v>
@@ -7327,30 +7390,30 @@
         <v>93</v>
       </c>
       <c r="J85" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="K85" s="3" t="s">
         <v>824</v>
-      </c>
-      <c r="K85" s="3" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B86" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C86" t="s">
         <v>117</v>
       </c>
       <c r="E86" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F86" t="s">
         <v>9</v>
       </c>
       <c r="G86" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H86" t="s">
         <v>43</v>
@@ -7359,30 +7422,30 @@
         <v>93</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B87" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C87" t="s">
         <v>117</v>
       </c>
       <c r="E87" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F87" t="s">
         <v>9</v>
       </c>
       <c r="G87" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H87" t="s">
         <v>43</v>
@@ -7391,30 +7454,30 @@
         <v>93</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B88" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C88" t="s">
         <v>123</v>
       </c>
       <c r="E88" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F88" t="s">
         <v>9</v>
       </c>
       <c r="G88" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H88" t="s">
         <v>43</v>
@@ -7423,30 +7486,30 @@
         <v>93</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B89" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C89" t="s">
         <v>127</v>
       </c>
       <c r="E89" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="F89" t="s">
         <v>9</v>
       </c>
       <c r="G89" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H89" t="s">
         <v>43</v>
@@ -7455,30 +7518,30 @@
         <v>93</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B90" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C90" t="s">
         <v>131</v>
       </c>
       <c r="E90" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F90" t="s">
         <v>9</v>
       </c>
       <c r="G90" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H90" t="s">
         <v>43</v>
@@ -7487,30 +7550,30 @@
         <v>93</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B91" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C91" t="s">
         <v>131</v>
       </c>
       <c r="E91" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F91" t="s">
         <v>9</v>
       </c>
       <c r="G91" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H91" t="s">
         <v>43</v>
@@ -7519,10 +7582,10 @@
         <v>93</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
   </sheetData>
@@ -7598,7 +7661,7 @@
         <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C2" t="s">
         <v>35</v>
@@ -7619,7 +7682,7 @@
         <v>38</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>35</v>
@@ -7651,10 +7714,10 @@
         <v>38</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -7683,10 +7746,10 @@
         <v>38</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -7715,10 +7778,10 @@
         <v>38</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -7747,10 +7810,10 @@
         <v>38</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -7779,10 +7842,10 @@
         <v>38</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -7811,10 +7874,10 @@
         <v>38</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -7843,10 +7906,10 @@
         <v>38</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -7875,15 +7938,15 @@
         <v>38</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -7907,10 +7970,10 @@
         <v>38</v>
       </c>
       <c r="J11" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>831</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -7939,10 +8002,10 @@
         <v>38</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -7971,10 +8034,10 @@
         <v>38</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -8003,10 +8066,10 @@
         <v>38</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -8035,10 +8098,10 @@
         <v>38</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -8067,10 +8130,10 @@
         <v>93</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -8099,10 +8162,10 @@
         <v>93</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -8131,10 +8194,10 @@
         <v>93</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -8163,10 +8226,10 @@
         <v>93</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -8195,10 +8258,10 @@
         <v>93</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -8227,10 +8290,10 @@
         <v>93</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -8259,10 +8322,10 @@
         <v>93</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -8291,15 +8354,15 @@
         <v>93</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B24" t="s">
         <v>120</v>
@@ -8323,10 +8386,10 @@
         <v>93</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -8355,10 +8418,10 @@
         <v>93</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -8387,10 +8450,10 @@
         <v>93</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -8419,10 +8482,10 @@
         <v>93</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -8451,10 +8514,10 @@
         <v>93</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -8483,7 +8546,7 @@
         <v>93</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>10</v>
@@ -8515,7 +8578,7 @@
         <v>93</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>162</v>
@@ -8547,10 +8610,10 @@
         <v>93</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -8579,10 +8642,10 @@
         <v>93</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -8611,10 +8674,10 @@
         <v>93</v>
       </c>
       <c r="J33" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="K33" s="3" t="s">
         <v>868</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -8643,10 +8706,10 @@
         <v>93</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -8675,7 +8738,7 @@
         <v>93</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>10</v>
@@ -8707,10 +8770,10 @@
         <v>93</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -8739,10 +8802,10 @@
         <v>93</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -8771,10 +8834,10 @@
         <v>38</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -8803,10 +8866,10 @@
         <v>38</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -8835,10 +8898,10 @@
         <v>38</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -8867,10 +8930,10 @@
         <v>38</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -8899,10 +8962,10 @@
         <v>38</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -8931,10 +8994,10 @@
         <v>38</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -8963,10 +9026,10 @@
         <v>38</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -8995,15 +9058,15 @@
         <v>38</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B46" t="s">
         <v>193</v>
@@ -9027,10 +9090,10 @@
         <v>38</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -9059,10 +9122,10 @@
         <v>38</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -9091,10 +9154,10 @@
         <v>38</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -9123,10 +9186,10 @@
         <v>38</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -9155,10 +9218,10 @@
         <v>38</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -9187,10 +9250,10 @@
         <v>93</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -9219,10 +9282,10 @@
         <v>93</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -9251,10 +9314,10 @@
         <v>93</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -9283,10 +9346,10 @@
         <v>93</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -9315,15 +9378,15 @@
         <v>93</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B56" t="s">
         <v>222</v>
@@ -9347,10 +9410,10 @@
         <v>93</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -9379,10 +9442,10 @@
         <v>93</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -9411,10 +9474,10 @@
         <v>93</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -9443,10 +9506,10 @@
         <v>93</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -9475,10 +9538,10 @@
         <v>93</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -9507,10 +9570,10 @@
         <v>93</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -9539,10 +9602,10 @@
         <v>93</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -9571,10 +9634,10 @@
         <v>93</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
   </sheetData>
@@ -9588,10 +9651,10 @@
   <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J47" sqref="J47"/>
+      <selection pane="bottomRight" activeCell="K69" sqref="K69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9605,7 +9668,8 @@
     <col min="7" max="7" width="21.75" customWidth="1"/>
     <col min="8" max="8" width="22.25" customWidth="1"/>
     <col min="9" max="9" width="31.375" customWidth="1"/>
-    <col min="10" max="11" width="9" style="3"/>
+    <col min="10" max="10" width="28.75" style="3" customWidth="1"/>
+    <col min="11" max="11" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -9672,10 +9736,10 @@
         <v>38</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -9707,10 +9771,10 @@
         <v>38</v>
       </c>
       <c r="J3" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>880</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -9742,10 +9806,10 @@
         <v>38</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -9777,10 +9841,10 @@
         <v>38</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -9812,10 +9876,10 @@
         <v>38</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -9847,10 +9911,10 @@
         <v>38</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -9882,10 +9946,10 @@
         <v>38</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -9917,15 +9981,15 @@
         <v>38</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B10" t="s">
         <v>274</v>
@@ -9952,10 +10016,10 @@
         <v>38</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -9987,10 +10051,10 @@
         <v>38</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -10022,10 +10086,10 @@
         <v>38</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -10057,10 +10121,10 @@
         <v>38</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -10092,10 +10156,10 @@
         <v>38</v>
       </c>
       <c r="J14" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>892</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -10127,10 +10191,10 @@
         <v>38</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -10162,10 +10226,10 @@
         <v>38</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -10194,10 +10258,10 @@
         <v>38</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -10226,10 +10290,10 @@
         <v>38</v>
       </c>
       <c r="J18" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="K18" s="3" t="s">
         <v>896</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -10258,10 +10322,10 @@
         <v>38</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -10293,10 +10357,10 @@
         <v>38</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -10328,10 +10392,10 @@
         <v>38</v>
       </c>
       <c r="J21" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>900</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -10363,15 +10427,15 @@
         <v>38</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B23" t="s">
         <v>318</v>
@@ -10398,10 +10462,10 @@
         <v>93</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -10433,10 +10497,10 @@
         <v>93</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -10468,10 +10532,10 @@
         <v>93</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -10503,10 +10567,10 @@
         <v>93</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -10538,10 +10602,10 @@
         <v>93</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -10573,10 +10637,10 @@
         <v>93</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -10608,10 +10672,10 @@
         <v>38</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -10643,10 +10707,10 @@
         <v>38</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -10678,7 +10742,7 @@
         <v>38</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>15</v>
@@ -10713,10 +10777,10 @@
         <v>38</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -10748,15 +10812,15 @@
         <v>38</v>
       </c>
       <c r="J33" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="K33" s="3" t="s">
         <v>918</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B34" t="s">
         <v>355</v>
@@ -10783,10 +10847,10 @@
         <v>38</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -10818,10 +10882,10 @@
         <v>38</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -10853,10 +10917,10 @@
         <v>38</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -10888,10 +10952,10 @@
         <v>38</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -10923,10 +10987,10 @@
         <v>38</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -10958,10 +11022,10 @@
         <v>38</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -10993,10 +11057,10 @@
         <v>38</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -11028,10 +11092,10 @@
         <v>38</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -11060,10 +11124,10 @@
         <v>93</v>
       </c>
       <c r="J42" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="K42" s="3" t="s">
         <v>928</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -11092,10 +11156,10 @@
         <v>93</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -11124,10 +11188,10 @@
         <v>93</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -11156,10 +11220,10 @@
         <v>93</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -11191,10 +11255,10 @@
         <v>38</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -11222,6 +11286,12 @@
       <c r="I47" t="s">
         <v>93</v>
       </c>
+      <c r="J47" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>935</v>
+      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
@@ -11248,8 +11318,14 @@
       <c r="I48" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="J48" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>414</v>
       </c>
@@ -11274,8 +11350,14 @@
       <c r="I49" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="J49" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>418</v>
       </c>
@@ -11300,8 +11382,14 @@
       <c r="I50" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="J50" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
         <v>422</v>
       </c>
@@ -11326,8 +11414,14 @@
       <c r="I51" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="J51" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
         <v>426</v>
       </c>
@@ -11352,8 +11446,14 @@
       <c r="I52" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="J52" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
         <v>430</v>
       </c>
@@ -11378,8 +11478,14 @@
       <c r="I53" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="J53" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
         <v>434</v>
       </c>
@@ -11404,8 +11510,14 @@
       <c r="I54" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="J54" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
         <v>437</v>
       </c>
@@ -11430,369 +11542,459 @@
       <c r="I55" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="J55" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
+        <v>440</v>
+      </c>
+      <c r="B56" t="s">
+        <v>944</v>
+      </c>
+      <c r="C56" t="s">
+        <v>438</v>
+      </c>
+      <c r="E56" t="s">
+        <v>439</v>
+      </c>
+      <c r="F56" t="s">
         <v>441</v>
       </c>
-      <c r="B56" t="s">
-        <v>438</v>
-      </c>
-      <c r="C56" t="s">
-        <v>439</v>
-      </c>
-      <c r="E56" t="s">
-        <v>440</v>
-      </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" t="s">
         <v>442</v>
       </c>
-      <c r="G56" t="s">
-        <v>17</v>
-      </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
+        <v>943</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" t="s">
+        <v>446</v>
+      </c>
+      <c r="B57" t="s">
+        <v>945</v>
+      </c>
+      <c r="C57" t="s">
+        <v>444</v>
+      </c>
+      <c r="E57" t="s">
+        <v>445</v>
+      </c>
+      <c r="F57" t="s">
+        <v>441</v>
+      </c>
+      <c r="G57" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" t="s">
+        <v>442</v>
+      </c>
+      <c r="I57" t="s">
         <v>443</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J57" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" t="s">
+        <v>449</v>
+      </c>
+      <c r="B58" t="s">
+        <v>447</v>
+      </c>
+      <c r="C58" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" t="s">
+      <c r="E58" t="s">
         <v>448</v>
       </c>
-      <c r="B57" t="s">
-        <v>445</v>
-      </c>
-      <c r="C57" t="s">
-        <v>446</v>
-      </c>
-      <c r="E57" t="s">
-        <v>447</v>
-      </c>
-      <c r="F57" t="s">
+      <c r="F58" t="s">
+        <v>441</v>
+      </c>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" t="s">
         <v>442</v>
       </c>
-      <c r="G57" t="s">
-        <v>17</v>
-      </c>
-      <c r="H57" t="s">
+      <c r="I58" t="s">
         <v>443</v>
       </c>
-      <c r="I57" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" t="s">
-        <v>451</v>
-      </c>
-      <c r="B58" t="s">
-        <v>449</v>
-      </c>
-      <c r="C58" t="s">
-        <v>446</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="J58" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" t="s">
+        <v>452</v>
+      </c>
+      <c r="B59" t="s">
         <v>450</v>
-      </c>
-      <c r="F58" t="s">
-        <v>442</v>
-      </c>
-      <c r="G58" t="s">
-        <v>17</v>
-      </c>
-      <c r="H58" t="s">
-        <v>443</v>
-      </c>
-      <c r="I58" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" t="s">
-        <v>454</v>
-      </c>
-      <c r="B59" t="s">
-        <v>452</v>
       </c>
       <c r="C59" t="s">
         <v>55</v>
       </c>
       <c r="E59" t="s">
+        <v>451</v>
+      </c>
+      <c r="F59" t="s">
+        <v>441</v>
+      </c>
+      <c r="G59" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" t="s">
+        <v>442</v>
+      </c>
+      <c r="I59" t="s">
+        <v>443</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" t="s">
+        <v>455</v>
+      </c>
+      <c r="B60" t="s">
         <v>453</v>
-      </c>
-      <c r="F59" t="s">
-        <v>442</v>
-      </c>
-      <c r="G59" t="s">
-        <v>17</v>
-      </c>
-      <c r="H59" t="s">
-        <v>443</v>
-      </c>
-      <c r="I59" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" t="s">
-        <v>457</v>
-      </c>
-      <c r="B60" t="s">
-        <v>455</v>
       </c>
       <c r="C60" t="s">
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>454</v>
+      </c>
+      <c r="F60" t="s">
+        <v>441</v>
+      </c>
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" t="s">
+        <v>442</v>
+      </c>
+      <c r="I60" t="s">
+        <v>443</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" t="s">
+        <v>458</v>
+      </c>
+      <c r="B61" t="s">
         <v>456</v>
-      </c>
-      <c r="F60" t="s">
-        <v>442</v>
-      </c>
-      <c r="G60" t="s">
-        <v>17</v>
-      </c>
-      <c r="H60" t="s">
-        <v>443</v>
-      </c>
-      <c r="I60" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" t="s">
-        <v>460</v>
-      </c>
-      <c r="B61" t="s">
-        <v>458</v>
       </c>
       <c r="C61" t="s">
         <v>59</v>
       </c>
       <c r="E61" t="s">
+        <v>457</v>
+      </c>
+      <c r="F61" t="s">
+        <v>441</v>
+      </c>
+      <c r="G61" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61" t="s">
+        <v>442</v>
+      </c>
+      <c r="I61" t="s">
+        <v>443</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" t="s">
+        <v>461</v>
+      </c>
+      <c r="B62" t="s">
         <v>459</v>
-      </c>
-      <c r="F61" t="s">
-        <v>442</v>
-      </c>
-      <c r="G61" t="s">
-        <v>17</v>
-      </c>
-      <c r="H61" t="s">
-        <v>443</v>
-      </c>
-      <c r="I61" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" t="s">
-        <v>463</v>
-      </c>
-      <c r="B62" t="s">
-        <v>461</v>
       </c>
       <c r="C62" t="s">
         <v>59</v>
       </c>
       <c r="E62" t="s">
+        <v>460</v>
+      </c>
+      <c r="F62" t="s">
+        <v>441</v>
+      </c>
+      <c r="G62" t="s">
+        <v>17</v>
+      </c>
+      <c r="H62" t="s">
+        <v>442</v>
+      </c>
+      <c r="I62" t="s">
+        <v>443</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" t="s">
+        <v>906</v>
+      </c>
+      <c r="B63" t="s">
         <v>462</v>
-      </c>
-      <c r="F62" t="s">
-        <v>442</v>
-      </c>
-      <c r="G62" t="s">
-        <v>17</v>
-      </c>
-      <c r="H62" t="s">
-        <v>443</v>
-      </c>
-      <c r="I62" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" t="s">
-        <v>908</v>
-      </c>
-      <c r="B63" t="s">
-        <v>464</v>
       </c>
       <c r="C63" t="s">
         <v>59</v>
       </c>
       <c r="E63" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F63" t="s">
+        <v>441</v>
+      </c>
+      <c r="G63" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" t="s">
         <v>442</v>
       </c>
-      <c r="G63" t="s">
-        <v>17</v>
-      </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>443</v>
       </c>
-      <c r="I63" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="J63" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B64" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C64" t="s">
         <v>59</v>
       </c>
       <c r="E64" t="s">
+        <v>465</v>
+      </c>
+      <c r="F64" t="s">
+        <v>441</v>
+      </c>
+      <c r="G64" t="s">
+        <v>17</v>
+      </c>
+      <c r="H64" t="s">
+        <v>442</v>
+      </c>
+      <c r="I64" t="s">
+        <v>443</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" t="s">
+        <v>469</v>
+      </c>
+      <c r="B65" t="s">
         <v>467</v>
-      </c>
-      <c r="F64" t="s">
-        <v>442</v>
-      </c>
-      <c r="G64" t="s">
-        <v>17</v>
-      </c>
-      <c r="H64" t="s">
-        <v>443</v>
-      </c>
-      <c r="I64" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" t="s">
-        <v>471</v>
-      </c>
-      <c r="B65" t="s">
-        <v>469</v>
       </c>
       <c r="C65" t="s">
         <v>59</v>
       </c>
       <c r="E65" t="s">
+        <v>468</v>
+      </c>
+      <c r="F65" t="s">
+        <v>441</v>
+      </c>
+      <c r="G65" t="s">
+        <v>17</v>
+      </c>
+      <c r="H65" t="s">
+        <v>442</v>
+      </c>
+      <c r="I65" t="s">
+        <v>443</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" t="s">
+        <v>472</v>
+      </c>
+      <c r="B66" t="s">
         <v>470</v>
-      </c>
-      <c r="F65" t="s">
-        <v>442</v>
-      </c>
-      <c r="G65" t="s">
-        <v>17</v>
-      </c>
-      <c r="H65" t="s">
-        <v>443</v>
-      </c>
-      <c r="I65" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" t="s">
-        <v>474</v>
-      </c>
-      <c r="B66" t="s">
-        <v>472</v>
       </c>
       <c r="C66" t="s">
         <v>59</v>
       </c>
       <c r="E66" t="s">
+        <v>471</v>
+      </c>
+      <c r="F66" t="s">
+        <v>441</v>
+      </c>
+      <c r="G66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" t="s">
+        <v>442</v>
+      </c>
+      <c r="I66" t="s">
+        <v>443</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" t="s">
+        <v>475</v>
+      </c>
+      <c r="B67" t="s">
         <v>473</v>
-      </c>
-      <c r="F66" t="s">
-        <v>442</v>
-      </c>
-      <c r="G66" t="s">
-        <v>17</v>
-      </c>
-      <c r="H66" t="s">
-        <v>443</v>
-      </c>
-      <c r="I66" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" t="s">
-        <v>477</v>
-      </c>
-      <c r="B67" t="s">
-        <v>475</v>
       </c>
       <c r="C67" t="s">
         <v>59</v>
       </c>
       <c r="E67" t="s">
+        <v>474</v>
+      </c>
+      <c r="F67" t="s">
+        <v>441</v>
+      </c>
+      <c r="G67" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" t="s">
+        <v>442</v>
+      </c>
+      <c r="I67" t="s">
+        <v>443</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" t="s">
+        <v>478</v>
+      </c>
+      <c r="B68" t="s">
         <v>476</v>
-      </c>
-      <c r="F67" t="s">
-        <v>442</v>
-      </c>
-      <c r="G67" t="s">
-        <v>17</v>
-      </c>
-      <c r="H67" t="s">
-        <v>443</v>
-      </c>
-      <c r="I67" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" t="s">
-        <v>480</v>
-      </c>
-      <c r="B68" t="s">
-        <v>478</v>
       </c>
       <c r="C68" t="s">
         <v>59</v>
       </c>
       <c r="E68" t="s">
+        <v>477</v>
+      </c>
+      <c r="F68" t="s">
+        <v>441</v>
+      </c>
+      <c r="G68" t="s">
+        <v>17</v>
+      </c>
+      <c r="H68" t="s">
+        <v>442</v>
+      </c>
+      <c r="I68" t="s">
+        <v>443</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" t="s">
+        <v>481</v>
+      </c>
+      <c r="B69" t="s">
         <v>479</v>
-      </c>
-      <c r="F68" t="s">
-        <v>442</v>
-      </c>
-      <c r="G68" t="s">
-        <v>17</v>
-      </c>
-      <c r="H68" t="s">
-        <v>443</v>
-      </c>
-      <c r="I68" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" t="s">
-        <v>483</v>
-      </c>
-      <c r="B69" t="s">
-        <v>481</v>
       </c>
       <c r="C69" t="s">
         <v>59</v>
       </c>
       <c r="E69" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F69" t="s">
+        <v>441</v>
+      </c>
+      <c r="G69" t="s">
+        <v>17</v>
+      </c>
+      <c r="H69" t="s">
         <v>442</v>
       </c>
-      <c r="G69" t="s">
-        <v>17</v>
-      </c>
-      <c r="H69" t="s">
+      <c r="I69" t="s">
         <v>443</v>
       </c>
-      <c r="I69" t="s">
-        <v>444</v>
+      <c r="J69" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>952</v>
       </c>
     </row>
   </sheetData>
